--- a/Vasey20/N1.xlsx
+++ b/Vasey20/N1.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="13" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{97727744-518D-410F-B45E-7CE5927D1D5D}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dyvas\git\dz-caucasus\Vasey20\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{751F1CC6-356A-4DE4-86B9-0A28B30E14C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1410" yWindow="1410" windowWidth="16875" windowHeight="10432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="282">
   <si>
     <t>Zircon Sample Number</t>
   </si>
@@ -866,13 +871,22 @@
   </si>
   <si>
     <t>C16014B-Spot 35</t>
+  </si>
+  <si>
+    <t>238 Error</t>
+  </si>
+  <si>
+    <t>206 Error</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -889,6 +903,11 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -911,10 +930,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1229,19 +1251,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C278"/>
+  <dimension ref="A1:E278"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:C1"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2:E278"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="3" width="20.7109375" customWidth="1"/>
+    <col min="1" max="3" width="20.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1251,8 +1273,14 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1262,8 +1290,14 @@
       <c r="C2" s="1">
         <v>433.4</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" s="3">
+        <v>5.437175827498038</v>
+      </c>
+      <c r="E2" s="3">
+        <v>17.327417911018841</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1273,8 +1307,14 @@
       <c r="C3" s="1">
         <v>503</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" s="3">
+        <v>7.365425085893861</v>
+      </c>
+      <c r="E3" s="3">
+        <v>18.976393197030035</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -1284,8 +1324,14 @@
       <c r="C4" s="1">
         <v>568.6</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" s="3">
+        <v>12.215703764167358</v>
+      </c>
+      <c r="E4" s="3">
+        <v>21.444809767874744</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -1295,8 +1341,14 @@
       <c r="C5" s="1">
         <v>521.9</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5" s="3">
+        <v>6.2312237327842865</v>
+      </c>
+      <c r="E5" s="3">
+        <v>20.340265469955028</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -1306,8 +1358,14 @@
       <c r="C6" s="1">
         <v>525.6</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" s="3">
+        <v>5.8224542795924492</v>
+      </c>
+      <c r="E6" s="3">
+        <v>16.434066341916093</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -1317,8 +1375,14 @@
       <c r="C7" s="1">
         <v>517.9</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7" s="3">
+        <v>5.8473376263029309</v>
+      </c>
+      <c r="E7" s="3">
+        <v>16.019701639644865</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -1328,8 +1392,14 @@
       <c r="C8" s="1">
         <v>495.3</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8" s="3">
+        <v>6.7076406229209624</v>
+      </c>
+      <c r="E8" s="3">
+        <v>20.915305960855221</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -1339,8 +1409,14 @@
       <c r="C9" s="1">
         <v>500.7</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9" s="3">
+        <v>4.8612228839265299</v>
+      </c>
+      <c r="E9" s="3">
+        <v>16.323363369784659</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -1350,8 +1426,14 @@
       <c r="C10" s="1">
         <v>527.9</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="D10" s="3">
+        <v>6.1410771557886221</v>
+      </c>
+      <c r="E10" s="3">
+        <v>18.419717522674432</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -1361,8 +1443,14 @@
       <c r="C11" s="1">
         <v>550.5</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11" s="3">
+        <v>7.4062228225223521</v>
+      </c>
+      <c r="E11" s="3">
+        <v>18.902307062834154</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -1372,8 +1460,14 @@
       <c r="C12" s="1">
         <v>504.7</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="D12" s="3">
+        <v>5.6161754179487389</v>
+      </c>
+      <c r="E12" s="3">
+        <v>18.414683322243718</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -1383,8 +1477,14 @@
       <c r="C13" s="1">
         <v>523.5</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="D13" s="3">
+        <v>5.310619637425134</v>
+      </c>
+      <c r="E13" s="3">
+        <v>20.507921002984091</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
@@ -1394,8 +1494,14 @@
       <c r="C14" s="1">
         <v>585.29999999999995</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="D14" s="3">
+        <v>7.9272657490152199</v>
+      </c>
+      <c r="E14" s="3">
+        <v>16.198725099341118</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
@@ -1405,8 +1511,14 @@
       <c r="C15" s="1">
         <v>531.79999999999995</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="D15" s="3">
+        <v>5.4726072799452936</v>
+      </c>
+      <c r="E15" s="3">
+        <v>16.31103014608874</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
@@ -1416,8 +1528,14 @@
       <c r="C16" s="1">
         <v>542.1</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="D16" s="3">
+        <v>6.1442914261536998</v>
+      </c>
+      <c r="E16" s="3">
+        <v>19.877816280013633</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
@@ -1427,8 +1545,14 @@
       <c r="C17" s="1">
         <v>540.9</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17" s="3">
+        <v>7.2293321926673286</v>
+      </c>
+      <c r="E17" s="3">
+        <v>27.417470019571169</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
@@ -1438,8 +1562,14 @@
       <c r="C18" s="1">
         <v>523.29999999999995</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18" s="3">
+        <v>7.333513056496713</v>
+      </c>
+      <c r="E18" s="3">
+        <v>24.292058703680169</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
@@ -1449,8 +1579,14 @@
       <c r="C19" s="1">
         <v>517</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19" s="3">
+        <v>5.9701591608062472</v>
+      </c>
+      <c r="E19" s="3">
+        <v>19.921825021356995</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
@@ -1460,8 +1596,14 @@
       <c r="C20" s="1">
         <v>518.1</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="D20" s="3">
+        <v>8.1808577460833192</v>
+      </c>
+      <c r="E20" s="3">
+        <v>20.146554623751683</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
         <v>22</v>
       </c>
@@ -1471,8 +1613,14 @@
       <c r="C21" s="1">
         <v>521.79999999999995</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="D21" s="3">
+        <v>7.7245841921890417</v>
+      </c>
+      <c r="E21" s="3">
+        <v>18.852901051288967</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
         <v>23</v>
       </c>
@@ -1482,8 +1630,14 @@
       <c r="C22" s="1">
         <v>575.4</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="D22" s="3">
+        <v>5.9781390711092968</v>
+      </c>
+      <c r="E22" s="3">
+        <v>14.728508438153142</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
         <v>24</v>
       </c>
@@ -1493,8 +1647,14 @@
       <c r="C23" s="1">
         <v>574.9</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="D23" s="3">
+        <v>8.778977905148281</v>
+      </c>
+      <c r="E23" s="3">
+        <v>19.199110844697145</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
         <v>25</v>
       </c>
@@ -1504,8 +1664,14 @@
       <c r="C24" s="1">
         <v>542.9</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="D24" s="3">
+        <v>6.3833381264155946</v>
+      </c>
+      <c r="E24" s="3">
+        <v>14.671579235727393</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
         <v>26</v>
       </c>
@@ -1515,8 +1681,14 @@
       <c r="C25" s="1">
         <v>569.6</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="D25" s="3">
+        <v>6.6297022493582745</v>
+      </c>
+      <c r="E25" s="3">
+        <v>18.092246133842991</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
         <v>27</v>
       </c>
@@ -1526,8 +1698,14 @@
       <c r="C26" s="1">
         <v>556.9</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="D26" s="3">
+        <v>6.8144468458023653</v>
+      </c>
+      <c r="E26" s="3">
+        <v>16.002554688482462</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
         <v>28</v>
       </c>
@@ -1537,8 +1715,14 @@
       <c r="C27" s="1">
         <v>571.70000000000005</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27" s="3">
+        <v>5.6354337298391783</v>
+      </c>
+      <c r="E27" s="3">
+        <v>19.070946046658264</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
         <v>29</v>
       </c>
@@ -1548,8 +1732,14 @@
       <c r="C28" s="1">
         <v>582.70000000000005</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="D28" s="3">
+        <v>6.6137305676633673</v>
+      </c>
+      <c r="E28" s="3">
+        <v>19.95526345261203</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
         <v>30</v>
       </c>
@@ -1559,8 +1749,14 @@
       <c r="C29" s="1">
         <v>514.6</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="D29" s="3">
+        <v>6.1687694624167762</v>
+      </c>
+      <c r="E29" s="3">
+        <v>16.79807945545258</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
         <v>31</v>
       </c>
@@ -1570,8 +1766,14 @@
       <c r="C30" s="1">
         <v>604.4</v>
       </c>
-    </row>
-    <row r="31" spans="1:3">
+      <c r="D30" s="3">
+        <v>4.724966167576838</v>
+      </c>
+      <c r="E30" s="3">
+        <v>19.40303245816466</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
         <v>32</v>
       </c>
@@ -1581,8 +1783,14 @@
       <c r="C31" s="1">
         <v>529.6</v>
       </c>
-    </row>
-    <row r="32" spans="1:3">
+      <c r="D31" s="3">
+        <v>8.2864273199491549</v>
+      </c>
+      <c r="E31" s="3">
+        <v>24.43378720089251</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
         <v>33</v>
       </c>
@@ -1592,8 +1800,14 @@
       <c r="C32" s="1">
         <v>570.9</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
+      <c r="D32" s="3">
+        <v>5.4735320935710092</v>
+      </c>
+      <c r="E32" s="3">
+        <v>20.087585421832273</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
         <v>34</v>
       </c>
@@ -1603,8 +1817,14 @@
       <c r="C33" s="1">
         <v>613.4</v>
       </c>
-    </row>
-    <row r="34" spans="1:3">
+      <c r="D33" s="3">
+        <v>6.4583451792931896</v>
+      </c>
+      <c r="E33" s="3">
+        <v>24.654208515502944</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
         <v>35</v>
       </c>
@@ -1614,8 +1834,14 @@
       <c r="C34" s="1">
         <v>581.6</v>
       </c>
-    </row>
-    <row r="35" spans="1:3">
+      <c r="D34" s="3">
+        <v>7.8139257626604035</v>
+      </c>
+      <c r="E34" s="3">
+        <v>27.438184160687513</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
         <v>36</v>
       </c>
@@ -1625,8 +1851,14 @@
       <c r="C35" s="1">
         <v>552.70000000000005</v>
       </c>
-    </row>
-    <row r="36" spans="1:3">
+      <c r="D35" s="3">
+        <v>5.8271068175264418</v>
+      </c>
+      <c r="E35" s="3">
+        <v>20.503391818492503</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
         <v>37</v>
       </c>
@@ -1636,8 +1868,14 @@
       <c r="C36" s="1">
         <v>583.6</v>
       </c>
-    </row>
-    <row r="37" spans="1:3">
+      <c r="D36" s="3">
+        <v>7.5375712828446808</v>
+      </c>
+      <c r="E36" s="3">
+        <v>19.758871487294869</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
         <v>38</v>
       </c>
@@ -1647,8 +1885,14 @@
       <c r="C37" s="1">
         <v>550</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37" s="3">
+        <v>5.5227582022337174</v>
+      </c>
+      <c r="E37" s="3">
+        <v>22.001244932417535</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
         <v>39</v>
       </c>
@@ -1658,8 +1902,14 @@
       <c r="C38" s="1">
         <v>557.5</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="D38" s="3">
+        <v>7.8820323073169902</v>
+      </c>
+      <c r="E38" s="3">
+        <v>23.178148146593799</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
         <v>40</v>
       </c>
@@ -1669,8 +1919,14 @@
       <c r="C39" s="1">
         <v>605.9</v>
       </c>
-    </row>
-    <row r="40" spans="1:3">
+      <c r="D39" s="3">
+        <v>7.0020507452814513</v>
+      </c>
+      <c r="E39" s="3">
+        <v>18.824047986436256</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
         <v>41</v>
       </c>
@@ -1680,8 +1936,14 @@
       <c r="C40" s="1">
         <v>553.79999999999995</v>
       </c>
-    </row>
-    <row r="41" spans="1:3">
+      <c r="D40" s="3">
+        <v>6.4333600471703676</v>
+      </c>
+      <c r="E40" s="3">
+        <v>20.271368055148855</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
         <v>42</v>
       </c>
@@ -1691,8 +1953,14 @@
       <c r="C41" s="1">
         <v>544.70000000000005</v>
       </c>
-    </row>
-    <row r="42" spans="1:3">
+      <c r="D41" s="3">
+        <v>5.0325882664494088</v>
+      </c>
+      <c r="E41" s="3">
+        <v>16.018806469143726</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
         <v>43</v>
       </c>
@@ -1702,8 +1970,14 @@
       <c r="C42" s="1">
         <v>526.5</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42" s="3">
+        <v>5.659234660815514</v>
+      </c>
+      <c r="E42" s="3">
+        <v>21.860660367771317</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
         <v>44</v>
       </c>
@@ -1713,8 +1987,14 @@
       <c r="C43" s="1">
         <v>546.70000000000005</v>
       </c>
-    </row>
-    <row r="44" spans="1:3">
+      <c r="D43" s="3">
+        <v>7.4653774403027455</v>
+      </c>
+      <c r="E43" s="3">
+        <v>15.400061175647068</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
         <v>45</v>
       </c>
@@ -1724,8 +2004,14 @@
       <c r="C44" s="1">
         <v>580.70000000000005</v>
       </c>
-    </row>
-    <row r="45" spans="1:3">
+      <c r="D44" s="3">
+        <v>11.261271720611035</v>
+      </c>
+      <c r="E44" s="3">
+        <v>23.917509270154369</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
         <v>46</v>
       </c>
@@ -1735,8 +2021,14 @@
       <c r="C45" s="1">
         <v>601.4</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45" s="3">
+        <v>6.4405689695352066</v>
+      </c>
+      <c r="E45" s="3">
+        <v>21.310706675679171</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A46" s="1" t="s">
         <v>47</v>
       </c>
@@ -1746,8 +2038,14 @@
       <c r="C46" s="1">
         <v>553</v>
       </c>
-    </row>
-    <row r="47" spans="1:3">
+      <c r="D46" s="3">
+        <v>5.6738038650665317</v>
+      </c>
+      <c r="E46" s="3">
+        <v>22.274013276226128</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
         <v>48</v>
       </c>
@@ -1757,8 +2055,14 @@
       <c r="C47" s="1">
         <v>577.20000000000005</v>
       </c>
-    </row>
-    <row r="48" spans="1:3">
+      <c r="D47" s="3">
+        <v>4.4884400880413864</v>
+      </c>
+      <c r="E47" s="3">
+        <v>18.604166502639657</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
         <v>49</v>
       </c>
@@ -1768,8 +2072,14 @@
       <c r="C48" s="1">
         <v>556.70000000000005</v>
       </c>
-    </row>
-    <row r="49" spans="1:3">
+      <c r="D48" s="3">
+        <v>5.9794267745241427</v>
+      </c>
+      <c r="E48" s="3">
+        <v>12.294044577965337</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A49" s="1" t="s">
         <v>50</v>
       </c>
@@ -1779,8 +2089,14 @@
       <c r="C49" s="1">
         <v>563.29999999999995</v>
       </c>
-    </row>
-    <row r="50" spans="1:3">
+      <c r="D49" s="3">
+        <v>5.9485327859835593</v>
+      </c>
+      <c r="E49" s="3">
+        <v>16.363304812781053</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A50" s="1" t="s">
         <v>51</v>
       </c>
@@ -1790,8 +2106,14 @@
       <c r="C50" s="1">
         <v>606.29999999999995</v>
       </c>
-    </row>
-    <row r="51" spans="1:3">
+      <c r="D50" s="3">
+        <v>8.8691197399936641</v>
+      </c>
+      <c r="E50" s="3">
+        <v>21.080385893945959</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A51" s="1" t="s">
         <v>52</v>
       </c>
@@ -1801,8 +2123,14 @@
       <c r="C51" s="1">
         <v>562.29999999999995</v>
       </c>
-    </row>
-    <row r="52" spans="1:3">
+      <c r="D51" s="3">
+        <v>6.8595567885781179</v>
+      </c>
+      <c r="E51" s="3">
+        <v>20.009050289061122</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A52" s="1" t="s">
         <v>53</v>
       </c>
@@ -1812,8 +2140,14 @@
       <c r="C52" s="1">
         <v>606.70000000000005</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="D52" s="3">
+        <v>8.1424709268777065</v>
+      </c>
+      <c r="E52" s="3">
+        <v>26.827800050978055</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A53" s="1" t="s">
         <v>54</v>
       </c>
@@ -1823,8 +2157,14 @@
       <c r="C53" s="1">
         <v>567.6</v>
       </c>
-    </row>
-    <row r="54" spans="1:3">
+      <c r="D53" s="3">
+        <v>5.2059317632724742</v>
+      </c>
+      <c r="E53" s="3">
+        <v>21.062991564643312</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A54" s="1" t="s">
         <v>55</v>
       </c>
@@ -1834,8 +2174,14 @@
       <c r="C54" s="1">
         <v>546.79999999999995</v>
       </c>
-    </row>
-    <row r="55" spans="1:3">
+      <c r="D54" s="3">
+        <v>8.0850255259150572</v>
+      </c>
+      <c r="E54" s="3">
+        <v>20.67483350539959</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A55" s="1" t="s">
         <v>56</v>
       </c>
@@ -1845,8 +2191,14 @@
       <c r="C55" s="1">
         <v>550.79999999999995</v>
       </c>
-    </row>
-    <row r="56" spans="1:3">
+      <c r="D55" s="3">
+        <v>6.4036918937436553</v>
+      </c>
+      <c r="E55" s="3">
+        <v>19.368242537905985</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A56" s="1" t="s">
         <v>57</v>
       </c>
@@ -1856,8 +2208,14 @@
       <c r="C56" s="1">
         <v>595.29999999999995</v>
       </c>
-    </row>
-    <row r="57" spans="1:3">
+      <c r="D56" s="3">
+        <v>6.267638340645135</v>
+      </c>
+      <c r="E56" s="3">
+        <v>23.616683841455654</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A57" s="1" t="s">
         <v>58</v>
       </c>
@@ -1867,8 +2225,14 @@
       <c r="C57" s="1">
         <v>548.29999999999995</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57" s="3">
+        <v>8.591142792108144</v>
+      </c>
+      <c r="E57" s="3">
+        <v>23.159664641773816</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A58" s="1" t="s">
         <v>59</v>
       </c>
@@ -1878,8 +2242,14 @@
       <c r="C58" s="1">
         <v>563.6</v>
       </c>
-    </row>
-    <row r="59" spans="1:3">
+      <c r="D58" s="3">
+        <v>5.2054581928806556</v>
+      </c>
+      <c r="E58" s="3">
+        <v>19.666620022161453</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A59" s="1" t="s">
         <v>60</v>
       </c>
@@ -1889,8 +2259,14 @@
       <c r="C59" s="1">
         <v>594.6</v>
       </c>
-    </row>
-    <row r="60" spans="1:3">
+      <c r="D59" s="3">
+        <v>5.6275849857145772</v>
+      </c>
+      <c r="E59" s="3">
+        <v>19.976848721547753</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A60" s="1" t="s">
         <v>61</v>
       </c>
@@ -1900,8 +2276,14 @@
       <c r="C60" s="1">
         <v>563</v>
       </c>
-    </row>
-    <row r="61" spans="1:3">
+      <c r="D60" s="3">
+        <v>6.9032192986350651</v>
+      </c>
+      <c r="E60" s="3">
+        <v>20.266523873093149</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A61" s="1" t="s">
         <v>62</v>
       </c>
@@ -1911,8 +2293,14 @@
       <c r="C61" s="1">
         <v>575.5</v>
       </c>
-    </row>
-    <row r="62" spans="1:3">
+      <c r="D61" s="3">
+        <v>6.4638046424322511</v>
+      </c>
+      <c r="E61" s="3">
+        <v>25.002561869798058</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A62" s="1" t="s">
         <v>63</v>
       </c>
@@ -1922,8 +2310,14 @@
       <c r="C62" s="1">
         <v>623.4</v>
       </c>
-    </row>
-    <row r="63" spans="1:3">
+      <c r="D62" s="3">
+        <v>7.1523458379168119</v>
+      </c>
+      <c r="E62" s="3">
+        <v>17.722115746937561</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A63" s="1" t="s">
         <v>64</v>
       </c>
@@ -1933,8 +2327,14 @@
       <c r="C63" s="1">
         <v>563</v>
       </c>
-    </row>
-    <row r="64" spans="1:3">
+      <c r="D63" s="3">
+        <v>7.2300972430286379</v>
+      </c>
+      <c r="E63" s="3">
+        <v>18.61758110575812</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A64" s="1" t="s">
         <v>65</v>
       </c>
@@ -1944,8 +2344,14 @@
       <c r="C64" s="1">
         <v>582</v>
       </c>
-    </row>
-    <row r="65" spans="1:3">
+      <c r="D64" s="3">
+        <v>4.7417318139122813</v>
+      </c>
+      <c r="E64" s="3">
+        <v>18.464440982084227</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A65" s="1" t="s">
         <v>66</v>
       </c>
@@ -1955,8 +2361,14 @@
       <c r="C65" s="1">
         <v>576.1</v>
       </c>
-    </row>
-    <row r="66" spans="1:3">
+      <c r="D65" s="3">
+        <v>5.8790589226431962</v>
+      </c>
+      <c r="E65" s="3">
+        <v>16.978264924147197</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A66" s="1" t="s">
         <v>67</v>
       </c>
@@ -1966,8 +2378,14 @@
       <c r="C66" s="1">
         <v>577.5</v>
       </c>
-    </row>
-    <row r="67" spans="1:3">
+      <c r="D66" s="3">
+        <v>5.2263506350947182</v>
+      </c>
+      <c r="E66" s="3">
+        <v>18.246260721818032</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A67" s="1" t="s">
         <v>68</v>
       </c>
@@ -1977,8 +2395,14 @@
       <c r="C67" s="1">
         <v>580.1</v>
       </c>
-    </row>
-    <row r="68" spans="1:3">
+      <c r="D67" s="3">
+        <v>7.6032075476443879</v>
+      </c>
+      <c r="E67" s="3">
+        <v>19.273032492899176</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A68" s="1" t="s">
         <v>69</v>
       </c>
@@ -1988,8 +2412,14 @@
       <c r="C68" s="1">
         <v>598.1</v>
       </c>
-    </row>
-    <row r="69" spans="1:3">
+      <c r="D68" s="3">
+        <v>5.1862067192670338</v>
+      </c>
+      <c r="E68" s="3">
+        <v>18.759883595137012</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A69" s="1" t="s">
         <v>70</v>
       </c>
@@ -1999,8 +2429,14 @@
       <c r="C69" s="1">
         <v>594.29999999999995</v>
       </c>
-    </row>
-    <row r="70" spans="1:3">
+      <c r="D69" s="3">
+        <v>5.1128294953815612</v>
+      </c>
+      <c r="E69" s="3">
+        <v>18.144633710794437</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A70" s="1" t="s">
         <v>71</v>
       </c>
@@ -2010,8 +2446,14 @@
       <c r="C70" s="1">
         <v>553.1</v>
       </c>
-    </row>
-    <row r="71" spans="1:3">
+      <c r="D70" s="3">
+        <v>6.2604067785829329</v>
+      </c>
+      <c r="E70" s="3">
+        <v>25.485098762429004</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A71" s="1" t="s">
         <v>72</v>
       </c>
@@ -2021,8 +2463,14 @@
       <c r="C71" s="1">
         <v>598</v>
       </c>
-    </row>
-    <row r="72" spans="1:3">
+      <c r="D71" s="3">
+        <v>5.6011400158536162</v>
+      </c>
+      <c r="E71" s="3">
+        <v>20.950378477781385</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A72" s="1" t="s">
         <v>73</v>
       </c>
@@ -2032,8 +2480,14 @@
       <c r="C72" s="1">
         <v>591</v>
       </c>
-    </row>
-    <row r="73" spans="1:3">
+      <c r="D72" s="3">
+        <v>6.5704706501408623</v>
+      </c>
+      <c r="E72" s="3">
+        <v>19.80679790445555</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A73" s="1" t="s">
         <v>74</v>
       </c>
@@ -2043,8 +2497,14 @@
       <c r="C73" s="1">
         <v>588.9</v>
       </c>
-    </row>
-    <row r="74" spans="1:3">
+      <c r="D73" s="3">
+        <v>5.9732456439580233</v>
+      </c>
+      <c r="E73" s="3">
+        <v>22.69387914109592</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A74" s="1" t="s">
         <v>75</v>
       </c>
@@ -2054,8 +2514,14 @@
       <c r="C74" s="1">
         <v>548.29999999999995</v>
       </c>
-    </row>
-    <row r="75" spans="1:3">
+      <c r="D74" s="3">
+        <v>4.9362775297006465</v>
+      </c>
+      <c r="E74" s="3">
+        <v>17.731097993773517</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A75" s="1" t="s">
         <v>76</v>
       </c>
@@ -2065,8 +2531,14 @@
       <c r="C75" s="1">
         <v>586.79999999999995</v>
       </c>
-    </row>
-    <row r="76" spans="1:3">
+      <c r="D75" s="3">
+        <v>11.28957369562977</v>
+      </c>
+      <c r="E75" s="3">
+        <v>19.028122903579742</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A76" s="1" t="s">
         <v>77</v>
       </c>
@@ -2076,8 +2548,14 @@
       <c r="C76" s="1">
         <v>573.79999999999995</v>
       </c>
-    </row>
-    <row r="77" spans="1:3">
+      <c r="D76" s="3">
+        <v>6.3319660587338262</v>
+      </c>
+      <c r="E76" s="3">
+        <v>22.82605381772197</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A77" s="1" t="s">
         <v>78</v>
       </c>
@@ -2087,8 +2565,14 @@
       <c r="C77" s="1">
         <v>560.29999999999995</v>
       </c>
-    </row>
-    <row r="78" spans="1:3">
+      <c r="D77" s="3">
+        <v>5.97903668164588</v>
+      </c>
+      <c r="E77" s="3">
+        <v>24.464386261889842</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A78" s="1" t="s">
         <v>79</v>
       </c>
@@ -2098,8 +2582,14 @@
       <c r="C78" s="1">
         <v>622.6</v>
       </c>
-    </row>
-    <row r="79" spans="1:3">
+      <c r="D78" s="3">
+        <v>8.3568691326126441</v>
+      </c>
+      <c r="E78" s="3">
+        <v>20.470496562784831</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A79" s="1" t="s">
         <v>80</v>
       </c>
@@ -2109,8 +2599,14 @@
       <c r="C79" s="1">
         <v>592.4</v>
       </c>
-    </row>
-    <row r="80" spans="1:3">
+      <c r="D79" s="3">
+        <v>6.9976007625463694</v>
+      </c>
+      <c r="E79" s="3">
+        <v>21.292188554832762</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A80" s="1" t="s">
         <v>81</v>
       </c>
@@ -2120,8 +2616,14 @@
       <c r="C80" s="1">
         <v>585.9</v>
       </c>
-    </row>
-    <row r="81" spans="1:3">
+      <c r="D80" s="3">
+        <v>6.3123165365396972</v>
+      </c>
+      <c r="E80" s="3">
+        <v>25.54864130534105</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A81" s="1" t="s">
         <v>82</v>
       </c>
@@ -2131,8 +2633,14 @@
       <c r="C81" s="1">
         <v>625.9</v>
       </c>
-    </row>
-    <row r="82" spans="1:3">
+      <c r="D81" s="3">
+        <v>6.8597114566726987</v>
+      </c>
+      <c r="E81" s="3">
+        <v>17.802097332268033</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A82" s="1" t="s">
         <v>83</v>
       </c>
@@ -2142,8 +2650,14 @@
       <c r="C82" s="1">
         <v>569.5</v>
       </c>
-    </row>
-    <row r="83" spans="1:3">
+      <c r="D82" s="3">
+        <v>6.4239450489490082</v>
+      </c>
+      <c r="E82" s="3">
+        <v>16.183999286895016</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A83" s="1" t="s">
         <v>84</v>
       </c>
@@ -2153,8 +2667,14 @@
       <c r="C83" s="1">
         <v>586</v>
       </c>
-    </row>
-    <row r="84" spans="1:3">
+      <c r="D83" s="3">
+        <v>7.2244774607602267</v>
+      </c>
+      <c r="E83" s="3">
+        <v>26.268555364016891</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A84" s="1" t="s">
         <v>85</v>
       </c>
@@ -2164,8 +2684,14 @@
       <c r="C84" s="1">
         <v>564.29999999999995</v>
       </c>
-    </row>
-    <row r="85" spans="1:3">
+      <c r="D84" s="3">
+        <v>6.0840713435934504</v>
+      </c>
+      <c r="E84" s="3">
+        <v>24.357066655900383</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A85" s="1" t="s">
         <v>86</v>
       </c>
@@ -2175,8 +2701,14 @@
       <c r="C85" s="1">
         <v>646.9</v>
       </c>
-    </row>
-    <row r="86" spans="1:3">
+      <c r="D85" s="3">
+        <v>6.5629347184399194</v>
+      </c>
+      <c r="E85" s="3">
+        <v>26.837505753859375</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A86" s="1" t="s">
         <v>87</v>
       </c>
@@ -2186,8 +2718,14 @@
       <c r="C86" s="1">
         <v>596</v>
       </c>
-    </row>
-    <row r="87" spans="1:3">
+      <c r="D86" s="3">
+        <v>7.3079487187529821</v>
+      </c>
+      <c r="E86" s="3">
+        <v>26.302765423857579</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A87" s="1" t="s">
         <v>88</v>
       </c>
@@ -2197,8 +2735,14 @@
       <c r="C87" s="1">
         <v>607.4</v>
       </c>
-    </row>
-    <row r="88" spans="1:3">
+      <c r="D87" s="3">
+        <v>6.8095561449657112</v>
+      </c>
+      <c r="E87" s="3">
+        <v>21.839788806955255</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A88" s="1" t="s">
         <v>89</v>
       </c>
@@ -2208,8 +2752,14 @@
       <c r="C88" s="1">
         <v>581.9</v>
       </c>
-    </row>
-    <row r="89" spans="1:3">
+      <c r="D88" s="3">
+        <v>6.766411823114197</v>
+      </c>
+      <c r="E88" s="3">
+        <v>16.885816153784845</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A89" s="1" t="s">
         <v>90</v>
       </c>
@@ -2219,8 +2769,14 @@
       <c r="C89" s="1">
         <v>559.9</v>
       </c>
-    </row>
-    <row r="90" spans="1:3">
+      <c r="D89" s="3">
+        <v>6.2016434349667406</v>
+      </c>
+      <c r="E89" s="3">
+        <v>24.364130157366276</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A90" s="1" t="s">
         <v>91</v>
       </c>
@@ -2230,8 +2786,14 @@
       <c r="C90" s="1">
         <v>597.6</v>
       </c>
-    </row>
-    <row r="91" spans="1:3">
+      <c r="D90" s="3">
+        <v>5.3159581970794534</v>
+      </c>
+      <c r="E90" s="3">
+        <v>19.601387294642109</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A91" s="1" t="s">
         <v>92</v>
       </c>
@@ -2241,8 +2803,14 @@
       <c r="C91" s="1">
         <v>574.6</v>
       </c>
-    </row>
-    <row r="92" spans="1:3">
+      <c r="D91" s="3">
+        <v>8.0777133043025628</v>
+      </c>
+      <c r="E91" s="3">
+        <v>23.567481149106527</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A92" s="1" t="s">
         <v>93</v>
       </c>
@@ -2252,8 +2820,14 @@
       <c r="C92" s="1">
         <v>629.9</v>
       </c>
-    </row>
-    <row r="93" spans="1:3">
+      <c r="D92" s="3">
+        <v>9.2133880392810283</v>
+      </c>
+      <c r="E92" s="3">
+        <v>22.021192373063855</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A93" s="1" t="s">
         <v>94</v>
       </c>
@@ -2263,8 +2837,14 @@
       <c r="C93" s="1">
         <v>594</v>
       </c>
-    </row>
-    <row r="94" spans="1:3">
+      <c r="D93" s="3">
+        <v>5.6597100765222876</v>
+      </c>
+      <c r="E93" s="3">
+        <v>26.303168931378764</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A94" s="1" t="s">
         <v>95</v>
       </c>
@@ -2274,8 +2854,14 @@
       <c r="C94" s="1">
         <v>630.5</v>
       </c>
-    </row>
-    <row r="95" spans="1:3">
+      <c r="D94" s="3">
+        <v>5.687942953667573</v>
+      </c>
+      <c r="E94" s="3">
+        <v>19.316886599349061</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A95" s="1" t="s">
         <v>96</v>
       </c>
@@ -2285,8 +2871,14 @@
       <c r="C95" s="1">
         <v>568.9</v>
       </c>
-    </row>
-    <row r="96" spans="1:3">
+      <c r="D95" s="3">
+        <v>8.2943552121118387</v>
+      </c>
+      <c r="E95" s="3">
+        <v>22.952123109937418</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A96" s="1" t="s">
         <v>97</v>
       </c>
@@ -2296,8 +2888,14 @@
       <c r="C96" s="1">
         <v>602.29999999999995</v>
       </c>
-    </row>
-    <row r="97" spans="1:3">
+      <c r="D96" s="3">
+        <v>6.088925046751001</v>
+      </c>
+      <c r="E96" s="3">
+        <v>16.347379183008229</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A97" s="1" t="s">
         <v>98</v>
       </c>
@@ -2307,8 +2905,14 @@
       <c r="C97" s="1">
         <v>577.4</v>
       </c>
-    </row>
-    <row r="98" spans="1:3">
+      <c r="D97" s="3">
+        <v>6.313706488903108</v>
+      </c>
+      <c r="E97" s="3">
+        <v>24.961611522545581</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A98" s="1" t="s">
         <v>99</v>
       </c>
@@ -2318,8 +2922,14 @@
       <c r="C98" s="1">
         <v>614.5</v>
       </c>
-    </row>
-    <row r="99" spans="1:3">
+      <c r="D98" s="3">
+        <v>6.4739843518582916</v>
+      </c>
+      <c r="E98" s="3">
+        <v>28.10690107361404</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A99" s="1" t="s">
         <v>100</v>
       </c>
@@ -2329,8 +2939,14 @@
       <c r="C99" s="1">
         <v>581.9</v>
       </c>
-    </row>
-    <row r="100" spans="1:3">
+      <c r="D99" s="3">
+        <v>5.7928770471231701</v>
+      </c>
+      <c r="E99" s="3">
+        <v>24.363373573141587</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A100" s="1" t="s">
         <v>101</v>
       </c>
@@ -2340,8 +2956,14 @@
       <c r="C100" s="1">
         <v>588.5</v>
       </c>
-    </row>
-    <row r="101" spans="1:3">
+      <c r="D100" s="3">
+        <v>5.6464441147960542</v>
+      </c>
+      <c r="E100" s="3">
+        <v>21.466627950012878</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A101" s="1" t="s">
         <v>102</v>
       </c>
@@ -2351,8 +2973,14 @@
       <c r="C101" s="1">
         <v>572.79999999999995</v>
       </c>
-    </row>
-    <row r="102" spans="1:3">
+      <c r="D101" s="3">
+        <v>6.4804194038580363</v>
+      </c>
+      <c r="E101" s="3">
+        <v>19.008702043448579</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A102" s="1" t="s">
         <v>103</v>
       </c>
@@ -2362,8 +2990,14 @@
       <c r="C102" s="1">
         <v>593.79999999999995</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102" s="3">
+        <v>6.6728614419224073</v>
+      </c>
+      <c r="E102" s="3">
+        <v>24.630892910767898</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A103" s="1" t="s">
         <v>104</v>
       </c>
@@ -2373,8 +3007,14 @@
       <c r="C103" s="1">
         <v>602.29999999999995</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103" s="3">
+        <v>6.0644636277220911</v>
+      </c>
+      <c r="E103" s="3">
+        <v>22.161792502891842</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A104" s="1" t="s">
         <v>105</v>
       </c>
@@ -2384,8 +3024,14 @@
       <c r="C104" s="1">
         <v>607</v>
       </c>
-    </row>
-    <row r="105" spans="1:3">
+      <c r="D104" s="3">
+        <v>6.5291120962260152</v>
+      </c>
+      <c r="E104" s="3">
+        <v>21.063383122513187</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A105" s="1" t="s">
         <v>106</v>
       </c>
@@ -2395,8 +3041,14 @@
       <c r="C105" s="1">
         <v>595.5</v>
       </c>
-    </row>
-    <row r="106" spans="1:3">
+      <c r="D105" s="3">
+        <v>6.0264618709020397</v>
+      </c>
+      <c r="E105" s="3">
+        <v>23.865199986424329</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A106" s="1" t="s">
         <v>107</v>
       </c>
@@ -2406,8 +3058,14 @@
       <c r="C106" s="1">
         <v>605.5</v>
       </c>
-    </row>
-    <row r="107" spans="1:3">
+      <c r="D106" s="3">
+        <v>7.1296020114621115</v>
+      </c>
+      <c r="E106" s="3">
+        <v>27.504854862433717</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A107" s="1" t="s">
         <v>108</v>
       </c>
@@ -2417,8 +3075,14 @@
       <c r="C107" s="1">
         <v>552</v>
       </c>
-    </row>
-    <row r="108" spans="1:3">
+      <c r="D107" s="3">
+        <v>6.1114986770730297</v>
+      </c>
+      <c r="E107" s="3">
+        <v>26.187526889874221</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A108" s="1" t="s">
         <v>109</v>
       </c>
@@ -2428,8 +3092,14 @@
       <c r="C108" s="1">
         <v>581.4</v>
       </c>
-    </row>
-    <row r="109" spans="1:3">
+      <c r="D108" s="3">
+        <v>6.9390045433229943</v>
+      </c>
+      <c r="E108" s="3">
+        <v>16.332648224729553</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A109" s="1" t="s">
         <v>110</v>
       </c>
@@ -2439,8 +3109,14 @@
       <c r="C109" s="1">
         <v>576.6</v>
       </c>
-    </row>
-    <row r="110" spans="1:3">
+      <c r="D109" s="3">
+        <v>6.1952202160622392</v>
+      </c>
+      <c r="E109" s="3">
+        <v>19.766497047274413</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A110" s="1" t="s">
         <v>111</v>
       </c>
@@ -2450,8 +3126,14 @@
       <c r="C110" s="1">
         <v>655.8</v>
       </c>
-    </row>
-    <row r="111" spans="1:3">
+      <c r="D110" s="3">
+        <v>7.4259097534168177</v>
+      </c>
+      <c r="E110" s="3">
+        <v>34.374455990598335</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A111" s="1" t="s">
         <v>112</v>
       </c>
@@ -2461,8 +3143,14 @@
       <c r="C111" s="1">
         <v>593</v>
       </c>
-    </row>
-    <row r="112" spans="1:3">
+      <c r="D111" s="3">
+        <v>7.7344790325441863</v>
+      </c>
+      <c r="E111" s="3">
+        <v>21.243767590428263</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A112" s="1" t="s">
         <v>113</v>
       </c>
@@ -2472,8 +3160,14 @@
       <c r="C112" s="1">
         <v>600</v>
       </c>
-    </row>
-    <row r="113" spans="1:3">
+      <c r="D112" s="3">
+        <v>7.0073939423234606</v>
+      </c>
+      <c r="E112" s="3">
+        <v>19.308195183248984</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A113" s="1" t="s">
         <v>114</v>
       </c>
@@ -2483,8 +3177,14 @@
       <c r="C113" s="1">
         <v>605.20000000000005</v>
       </c>
-    </row>
-    <row r="114" spans="1:3">
+      <c r="D113" s="3">
+        <v>5.6673820989598767</v>
+      </c>
+      <c r="E113" s="3">
+        <v>23.786895980039048</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A114" s="1" t="s">
         <v>115</v>
       </c>
@@ -2494,8 +3194,14 @@
       <c r="C114" s="1">
         <v>599.70000000000005</v>
       </c>
-    </row>
-    <row r="115" spans="1:3">
+      <c r="D114" s="3">
+        <v>5.4606004669362846</v>
+      </c>
+      <c r="E114" s="3">
+        <v>15.114893853852834</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A115" s="1" t="s">
         <v>116</v>
       </c>
@@ -2505,8 +3211,14 @@
       <c r="C115" s="1">
         <v>604.70000000000005</v>
       </c>
-    </row>
-    <row r="116" spans="1:3">
+      <c r="D115" s="3">
+        <v>6.571235538786766</v>
+      </c>
+      <c r="E115" s="3">
+        <v>22.399530277851852</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A116" s="1" t="s">
         <v>117</v>
       </c>
@@ -2516,8 +3228,14 @@
       <c r="C116" s="1">
         <v>619.5</v>
       </c>
-    </row>
-    <row r="117" spans="1:3">
+      <c r="D116" s="3">
+        <v>7.482307969710007</v>
+      </c>
+      <c r="E116" s="3">
+        <v>24.528149911525304</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A117" s="1" t="s">
         <v>118</v>
       </c>
@@ -2527,8 +3245,14 @@
       <c r="C117" s="1">
         <v>578.79999999999995</v>
       </c>
-    </row>
-    <row r="118" spans="1:3">
+      <c r="D117" s="3">
+        <v>6.1797367180169545</v>
+      </c>
+      <c r="E117" s="3">
+        <v>19.772277971104472</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A118" s="1" t="s">
         <v>119</v>
       </c>
@@ -2538,8 +3262,14 @@
       <c r="C118" s="1">
         <v>581.79999999999995</v>
       </c>
-    </row>
-    <row r="119" spans="1:3">
+      <c r="D118" s="3">
+        <v>7.5388695770697609</v>
+      </c>
+      <c r="E118" s="3">
+        <v>37.798105801882002</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A119" s="1" t="s">
         <v>120</v>
       </c>
@@ -2549,8 +3279,14 @@
       <c r="C119" s="1">
         <v>610.29999999999995</v>
       </c>
-    </row>
-    <row r="120" spans="1:3">
+      <c r="D119" s="3">
+        <v>7.603090028755048</v>
+      </c>
+      <c r="E119" s="3">
+        <v>22.227883066729646</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A120" s="1" t="s">
         <v>121</v>
       </c>
@@ -2560,8 +3296,14 @@
       <c r="C120" s="1">
         <v>592.5</v>
       </c>
-    </row>
-    <row r="121" spans="1:3">
+      <c r="D120" s="3">
+        <v>5.2075858389507061</v>
+      </c>
+      <c r="E120" s="3">
+        <v>22.335694514171564</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A121" s="1" t="s">
         <v>122</v>
       </c>
@@ -2571,8 +3313,14 @@
       <c r="C121" s="1">
         <v>576.20000000000005</v>
       </c>
-    </row>
-    <row r="122" spans="1:3">
+      <c r="D121" s="3">
+        <v>5.6662343955251799</v>
+      </c>
+      <c r="E121" s="3">
+        <v>21.085113746293018</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A122" s="1" t="s">
         <v>123</v>
       </c>
@@ -2582,8 +3330,14 @@
       <c r="C122" s="1">
         <v>616.4</v>
       </c>
-    </row>
-    <row r="123" spans="1:3">
+      <c r="D122" s="3">
+        <v>6.4618175169948699</v>
+      </c>
+      <c r="E122" s="3">
+        <v>27.162891439184023</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A123" s="1" t="s">
         <v>124</v>
       </c>
@@ -2593,8 +3347,14 @@
       <c r="C123" s="1">
         <v>612</v>
       </c>
-    </row>
-    <row r="124" spans="1:3">
+      <c r="D123" s="3">
+        <v>6.8531914430794814</v>
+      </c>
+      <c r="E123" s="3">
+        <v>30.058354624396713</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A124" s="1" t="s">
         <v>125</v>
       </c>
@@ -2604,8 +3364,14 @@
       <c r="C124" s="1">
         <v>611.4</v>
       </c>
-    </row>
-    <row r="125" spans="1:3">
+      <c r="D124" s="3">
+        <v>7.4353057211428109</v>
+      </c>
+      <c r="E124" s="3">
+        <v>18.314274267486269</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A125" s="1" t="s">
         <v>126</v>
       </c>
@@ -2615,8 +3381,14 @@
       <c r="C125" s="1">
         <v>635.79999999999995</v>
       </c>
-    </row>
-    <row r="126" spans="1:3">
+      <c r="D125" s="3">
+        <v>7.1306169807672291</v>
+      </c>
+      <c r="E125" s="3">
+        <v>17.487850199439663</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A126" s="1" t="s">
         <v>127</v>
       </c>
@@ -2626,8 +3398,14 @@
       <c r="C126" s="1">
         <v>584.70000000000005</v>
       </c>
-    </row>
-    <row r="127" spans="1:3">
+      <c r="D126" s="3">
+        <v>4.345932450804753</v>
+      </c>
+      <c r="E126" s="3">
+        <v>19.547355071019695</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A127" s="1" t="s">
         <v>128</v>
       </c>
@@ -2637,8 +3415,14 @@
       <c r="C127" s="1">
         <v>632.70000000000005</v>
       </c>
-    </row>
-    <row r="128" spans="1:3">
+      <c r="D127" s="3">
+        <v>7.9248299527196764</v>
+      </c>
+      <c r="E127" s="3">
+        <v>18.519850663954458</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A128" s="1" t="s">
         <v>129</v>
       </c>
@@ -2648,8 +3432,14 @@
       <c r="C128" s="1">
         <v>622</v>
       </c>
-    </row>
-    <row r="129" spans="1:3">
+      <c r="D128" s="3">
+        <v>7.9410219904991095</v>
+      </c>
+      <c r="E128" s="3">
+        <v>27.040416785692628</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A129" s="1" t="s">
         <v>130</v>
       </c>
@@ -2659,8 +3449,14 @@
       <c r="C129" s="1">
         <v>615.70000000000005</v>
       </c>
-    </row>
-    <row r="130" spans="1:3">
+      <c r="D129" s="3">
+        <v>6.3255215281448045</v>
+      </c>
+      <c r="E129" s="3">
+        <v>21.109115292605622</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A130" s="1" t="s">
         <v>131</v>
       </c>
@@ -2670,8 +3466,14 @@
       <c r="C130" s="1">
         <v>595.9</v>
       </c>
-    </row>
-    <row r="131" spans="1:3">
+      <c r="D130" s="3">
+        <v>5.7860316458158536</v>
+      </c>
+      <c r="E130" s="3">
+        <v>21.759031569755393</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A131" s="1" t="s">
         <v>132</v>
       </c>
@@ -2681,8 +3483,14 @@
       <c r="C131" s="1">
         <v>600.9</v>
       </c>
-    </row>
-    <row r="132" spans="1:3">
+      <c r="D131" s="3">
+        <v>9.2051642195958721</v>
+      </c>
+      <c r="E131" s="3">
+        <v>24.734921400637461</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A132" s="1" t="s">
         <v>133</v>
       </c>
@@ -2692,8 +3500,14 @@
       <c r="C132" s="1">
         <v>654.29999999999995</v>
       </c>
-    </row>
-    <row r="133" spans="1:3">
+      <c r="D132" s="3">
+        <v>8.4982523015808624</v>
+      </c>
+      <c r="E132" s="3">
+        <v>21.270314566775596</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A133" s="1" t="s">
         <v>134</v>
       </c>
@@ -2703,8 +3517,14 @@
       <c r="C133" s="1">
         <v>594.4</v>
       </c>
-    </row>
-    <row r="134" spans="1:3">
+      <c r="D133" s="3">
+        <v>7.8206194506857969</v>
+      </c>
+      <c r="E133" s="3">
+        <v>20.98338867326197</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A134" s="1" t="s">
         <v>135</v>
       </c>
@@ -2714,8 +3534,14 @@
       <c r="C134" s="1">
         <v>567.79999999999995</v>
       </c>
-    </row>
-    <row r="135" spans="1:3">
+      <c r="D134" s="3">
+        <v>8.1048492850354705</v>
+      </c>
+      <c r="E134" s="3">
+        <v>21.240426567040913</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A135" s="1" t="s">
         <v>136</v>
       </c>
@@ -2725,8 +3551,14 @@
       <c r="C135" s="1">
         <v>625.20000000000005</v>
       </c>
-    </row>
-    <row r="136" spans="1:3">
+      <c r="D135" s="3">
+        <v>5.6477721881126399</v>
+      </c>
+      <c r="E135" s="3">
+        <v>24.990236851190105</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A136" s="1" t="s">
         <v>137</v>
       </c>
@@ -2736,8 +3568,14 @@
       <c r="C136" s="1">
         <v>587.1</v>
       </c>
-    </row>
-    <row r="137" spans="1:3">
+      <c r="D136" s="3">
+        <v>7.2978745746027585</v>
+      </c>
+      <c r="E136" s="3">
+        <v>33.273028586144108</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A137" s="1" t="s">
         <v>138</v>
       </c>
@@ -2747,8 +3585,14 @@
       <c r="C137" s="1">
         <v>585.29999999999995</v>
       </c>
-    </row>
-    <row r="138" spans="1:3">
+      <c r="D137" s="3">
+        <v>8.0379948040384193</v>
+      </c>
+      <c r="E137" s="3">
+        <v>17.890427015379089</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A138" s="1" t="s">
         <v>139</v>
       </c>
@@ -2758,8 +3602,14 @@
       <c r="C138" s="1">
         <v>585.20000000000005</v>
       </c>
-    </row>
-    <row r="139" spans="1:3">
+      <c r="D138" s="3">
+        <v>8.3397406321286098</v>
+      </c>
+      <c r="E138" s="3">
+        <v>20.35695363117145</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A139" s="1" t="s">
         <v>140</v>
       </c>
@@ -2769,8 +3619,14 @@
       <c r="C139" s="1">
         <v>617.9</v>
       </c>
-    </row>
-    <row r="140" spans="1:3">
+      <c r="D139" s="3">
+        <v>6.1921129202587508</v>
+      </c>
+      <c r="E139" s="3">
+        <v>28.165055514389394</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A140" s="1" t="s">
         <v>141</v>
       </c>
@@ -2780,8 +3636,14 @@
       <c r="C140" s="1">
         <v>598.29999999999995</v>
       </c>
-    </row>
-    <row r="141" spans="1:3">
+      <c r="D140" s="3">
+        <v>9.4300026996162387</v>
+      </c>
+      <c r="E140" s="3">
+        <v>23.110619042037911</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A141" s="1" t="s">
         <v>142</v>
       </c>
@@ -2791,8 +3653,14 @@
       <c r="C141" s="1">
         <v>671.5</v>
       </c>
-    </row>
-    <row r="142" spans="1:3">
+      <c r="D141" s="3">
+        <v>7.311905946942602</v>
+      </c>
+      <c r="E141" s="3">
+        <v>22.421659228266321</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A142" s="1" t="s">
         <v>143</v>
       </c>
@@ -2802,8 +3670,14 @@
       <c r="C142" s="1">
         <v>581.6</v>
       </c>
-    </row>
-    <row r="143" spans="1:3">
+      <c r="D142" s="3">
+        <v>7.5192328518825207</v>
+      </c>
+      <c r="E142" s="3">
+        <v>31.460899875200312</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A143" s="1" t="s">
         <v>144</v>
       </c>
@@ -2813,8 +3687,14 @@
       <c r="C143" s="1">
         <v>608.9</v>
       </c>
-    </row>
-    <row r="144" spans="1:3">
+      <c r="D143" s="3">
+        <v>8.717558173575469</v>
+      </c>
+      <c r="E143" s="3">
+        <v>33.525368402955849</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A144" s="1" t="s">
         <v>145</v>
       </c>
@@ -2824,8 +3704,14 @@
       <c r="C144" s="1">
         <v>603</v>
       </c>
-    </row>
-    <row r="145" spans="1:3">
+      <c r="D144" s="3">
+        <v>7.7286729662556581</v>
+      </c>
+      <c r="E144" s="3">
+        <v>29.455288502558062</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A145" s="1" t="s">
         <v>146</v>
       </c>
@@ -2835,8 +3721,14 @@
       <c r="C145" s="1">
         <v>587.6</v>
       </c>
-    </row>
-    <row r="146" spans="1:3">
+      <c r="D145" s="3">
+        <v>8.3126404420891618</v>
+      </c>
+      <c r="E145" s="3">
+        <v>20.565790092159318</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A146" s="1" t="s">
         <v>147</v>
       </c>
@@ -2846,8 +3738,14 @@
       <c r="C146" s="1">
         <v>636.9</v>
       </c>
-    </row>
-    <row r="147" spans="1:3">
+      <c r="D146" s="3">
+        <v>6.9641477651358628</v>
+      </c>
+      <c r="E146" s="3">
+        <v>17.796898155121596</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A147" s="1" t="s">
         <v>148</v>
       </c>
@@ -2857,8 +3755,14 @@
       <c r="C147" s="1">
         <v>643.29999999999995</v>
       </c>
-    </row>
-    <row r="148" spans="1:3">
+      <c r="D147" s="3">
+        <v>9.8056807945769719</v>
+      </c>
+      <c r="E147" s="3">
+        <v>24.849319260712036</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A148" s="1" t="s">
         <v>149</v>
       </c>
@@ -2868,8 +3772,14 @@
       <c r="C148" s="1">
         <v>624.70000000000005</v>
       </c>
-    </row>
-    <row r="149" spans="1:3">
+      <c r="D148" s="3">
+        <v>7.9572845500767357</v>
+      </c>
+      <c r="E148" s="3">
+        <v>29.710051388466866</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A149" s="1" t="s">
         <v>150</v>
       </c>
@@ -2879,8 +3789,14 @@
       <c r="C149" s="1">
         <v>606.4</v>
       </c>
-    </row>
-    <row r="150" spans="1:3">
+      <c r="D149" s="3">
+        <v>7.6946753101438503</v>
+      </c>
+      <c r="E149" s="3">
+        <v>18.093835376356253</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A150" s="1" t="s">
         <v>151</v>
       </c>
@@ -2890,8 +3806,14 @@
       <c r="C150" s="1">
         <v>637.4</v>
       </c>
-    </row>
-    <row r="151" spans="1:3">
+      <c r="D150" s="3">
+        <v>5.2380549095769311</v>
+      </c>
+      <c r="E150" s="3">
+        <v>19.152133990709785</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A151" s="1" t="s">
         <v>152</v>
       </c>
@@ -2901,8 +3823,14 @@
       <c r="C151" s="1">
         <v>633.1</v>
       </c>
-    </row>
-    <row r="152" spans="1:3">
+      <c r="D151" s="3">
+        <v>5.5474140115944124</v>
+      </c>
+      <c r="E151" s="3">
+        <v>20.782647448803516</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A152" s="1" t="s">
         <v>153</v>
       </c>
@@ -2912,8 +3840,14 @@
       <c r="C152" s="1">
         <v>653</v>
       </c>
-    </row>
-    <row r="153" spans="1:3">
+      <c r="D152" s="3">
+        <v>5.8852800593899133</v>
+      </c>
+      <c r="E152" s="3">
+        <v>20.035020323730066</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A153" s="1" t="s">
         <v>154</v>
       </c>
@@ -2923,8 +3857,14 @@
       <c r="C153" s="1">
         <v>656.1</v>
       </c>
-    </row>
-    <row r="154" spans="1:3">
+      <c r="D153" s="3">
+        <v>5.4056245100363753</v>
+      </c>
+      <c r="E153" s="3">
+        <v>17.634500837544522</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A154" s="1" t="s">
         <v>155</v>
       </c>
@@ -2934,8 +3874,14 @@
       <c r="C154" s="1">
         <v>608.79999999999995</v>
       </c>
-    </row>
-    <row r="155" spans="1:3">
+      <c r="D154" s="3">
+        <v>7.3025605534024862</v>
+      </c>
+      <c r="E154" s="3">
+        <v>16.685358670782819</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A155" s="1" t="s">
         <v>156</v>
       </c>
@@ -2945,8 +3891,14 @@
       <c r="C155" s="1">
         <v>619.70000000000005</v>
       </c>
-    </row>
-    <row r="156" spans="1:3">
+      <c r="D155" s="3">
+        <v>7.8039747976816329</v>
+      </c>
+      <c r="E155" s="3">
+        <v>22.599215386639457</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A156" s="1" t="s">
         <v>157</v>
       </c>
@@ -2956,8 +3908,14 @@
       <c r="C156" s="1">
         <v>622.79999999999995</v>
       </c>
-    </row>
-    <row r="157" spans="1:3">
+      <c r="D156" s="3">
+        <v>6.1733182813513281</v>
+      </c>
+      <c r="E156" s="3">
+        <v>18.249833940936014</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A157" s="1" t="s">
         <v>158</v>
       </c>
@@ -2967,8 +3925,14 @@
       <c r="C157" s="1">
         <v>596.9</v>
       </c>
-    </row>
-    <row r="158" spans="1:3">
+      <c r="D157" s="3">
+        <v>7.2736710927712238</v>
+      </c>
+      <c r="E157" s="3">
+        <v>33.627676766787772</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A158" s="1" t="s">
         <v>159</v>
       </c>
@@ -2978,8 +3942,14 @@
       <c r="C158" s="1">
         <v>632.20000000000005</v>
       </c>
-    </row>
-    <row r="159" spans="1:3">
+      <c r="D158" s="3">
+        <v>8.7858326963037143</v>
+      </c>
+      <c r="E158" s="3">
+        <v>24.731830043790183</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A159" s="1" t="s">
         <v>160</v>
       </c>
@@ -2989,8 +3959,14 @@
       <c r="C159" s="1">
         <v>645.9</v>
       </c>
-    </row>
-    <row r="160" spans="1:3">
+      <c r="D159" s="3">
+        <v>9.7528548612312989</v>
+      </c>
+      <c r="E159" s="3">
+        <v>25.972552807289901</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A160" s="1" t="s">
         <v>161</v>
       </c>
@@ -3000,8 +3976,14 @@
       <c r="C160" s="1">
         <v>649.79999999999995</v>
       </c>
-    </row>
-    <row r="161" spans="1:3">
+      <c r="D160" s="3">
+        <v>6.5091784897257412</v>
+      </c>
+      <c r="E160" s="3">
+        <v>15.410461598651182</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A161" s="1" t="s">
         <v>162</v>
       </c>
@@ -3011,8 +3993,14 @@
       <c r="C161" s="1">
         <v>633.20000000000005</v>
       </c>
-    </row>
-    <row r="162" spans="1:3">
+      <c r="D161" s="3">
+        <v>7.2848537932328554</v>
+      </c>
+      <c r="E161" s="3">
+        <v>19.758189645735342</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A162" s="1" t="s">
         <v>163</v>
       </c>
@@ -3022,8 +4010,14 @@
       <c r="C162" s="1">
         <v>625.6</v>
       </c>
-    </row>
-    <row r="163" spans="1:3">
+      <c r="D162" s="3">
+        <v>7.8069577393522422</v>
+      </c>
+      <c r="E162" s="3">
+        <v>20.428257773960979</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A163" s="1" t="s">
         <v>164</v>
       </c>
@@ -3033,8 +4027,14 @@
       <c r="C163" s="1">
         <v>605.6</v>
       </c>
-    </row>
-    <row r="164" spans="1:3">
+      <c r="D163" s="3">
+        <v>7.5369477586245353</v>
+      </c>
+      <c r="E163" s="3">
+        <v>16.778940769120311</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A164" s="1" t="s">
         <v>165</v>
       </c>
@@ -3044,8 +4044,14 @@
       <c r="C164" s="1">
         <v>626.79999999999995</v>
       </c>
-    </row>
-    <row r="165" spans="1:3">
+      <c r="D164" s="3">
+        <v>6.7947538970599339</v>
+      </c>
+      <c r="E164" s="3">
+        <v>25.842399260811078</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A165" s="1" t="s">
         <v>166</v>
       </c>
@@ -3055,8 +4061,14 @@
       <c r="C165" s="1">
         <v>708.4</v>
       </c>
-    </row>
-    <row r="166" spans="1:3">
+      <c r="D165" s="3">
+        <v>6.907821272826709</v>
+      </c>
+      <c r="E165" s="3">
+        <v>27.116782853783263</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A166" s="1" t="s">
         <v>167</v>
       </c>
@@ -3066,8 +4078,14 @@
       <c r="C166" s="1">
         <v>620.79999999999995</v>
       </c>
-    </row>
-    <row r="167" spans="1:3">
+      <c r="D166" s="3">
+        <v>7.4773871870253856</v>
+      </c>
+      <c r="E166" s="3">
+        <v>17.038028652773846</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A167" s="1" t="s">
         <v>168</v>
       </c>
@@ -3077,8 +4095,14 @@
       <c r="C167" s="1">
         <v>652.6</v>
       </c>
-    </row>
-    <row r="168" spans="1:3">
+      <c r="D167" s="3">
+        <v>9.3792610917060415</v>
+      </c>
+      <c r="E167" s="3">
+        <v>19.782921183286135</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A168" s="1" t="s">
         <v>169</v>
       </c>
@@ -3088,8 +4112,14 @@
       <c r="C168" s="1">
         <v>631</v>
       </c>
-    </row>
-    <row r="169" spans="1:3">
+      <c r="D168" s="3">
+        <v>5.4242667723069076</v>
+      </c>
+      <c r="E168" s="3">
+        <v>16.521285078773701</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A169" s="1" t="s">
         <v>170</v>
       </c>
@@ -3099,8 +4129,14 @@
       <c r="C169" s="1">
         <v>644.1</v>
       </c>
-    </row>
-    <row r="170" spans="1:3">
+      <c r="D169" s="3">
+        <v>5.8125455139237374</v>
+      </c>
+      <c r="E169" s="3">
+        <v>22.260861968088193</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A170" s="1" t="s">
         <v>171</v>
       </c>
@@ -3110,8 +4146,14 @@
       <c r="C170" s="1">
         <v>649.5</v>
       </c>
-    </row>
-    <row r="171" spans="1:3">
+      <c r="D170" s="3">
+        <v>6.2856627102307243</v>
+      </c>
+      <c r="E170" s="3">
+        <v>22.33956511283219</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A171" s="1" t="s">
         <v>172</v>
       </c>
@@ -3121,8 +4163,14 @@
       <c r="C171" s="1">
         <v>722.6</v>
       </c>
-    </row>
-    <row r="172" spans="1:3">
+      <c r="D171" s="3">
+        <v>8.1808800180484695</v>
+      </c>
+      <c r="E171" s="3">
+        <v>22.589606745533843</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A172" s="1" t="s">
         <v>173</v>
       </c>
@@ -3132,8 +4180,14 @@
       <c r="C172" s="1">
         <v>606.1</v>
       </c>
-    </row>
-    <row r="173" spans="1:3">
+      <c r="D172" s="3">
+        <v>6.4198548057469793</v>
+      </c>
+      <c r="E172" s="3">
+        <v>26.206594494967305</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A173" s="1" t="s">
         <v>174</v>
       </c>
@@ -3143,8 +4197,14 @@
       <c r="C173" s="1">
         <v>755.2</v>
       </c>
-    </row>
-    <row r="174" spans="1:3">
+      <c r="D173" s="3">
+        <v>6.6145093933686212</v>
+      </c>
+      <c r="E173" s="3">
+        <v>20.790140051880485</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A174" s="1" t="s">
         <v>175</v>
       </c>
@@ -3154,8 +4214,14 @@
       <c r="C174" s="1">
         <v>617</v>
       </c>
-    </row>
-    <row r="175" spans="1:3">
+      <c r="D174" s="3">
+        <v>6.4890426475401455</v>
+      </c>
+      <c r="E174" s="3">
+        <v>20.86914152619272</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A175" s="1" t="s">
         <v>176</v>
       </c>
@@ -3165,8 +4231,14 @@
       <c r="C175" s="1">
         <v>621.70000000000005</v>
       </c>
-    </row>
-    <row r="176" spans="1:3">
+      <c r="D175" s="3">
+        <v>5.9391276959306083</v>
+      </c>
+      <c r="E175" s="3">
+        <v>16.62973489754728</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A176" s="1" t="s">
         <v>177</v>
       </c>
@@ -3176,8 +4248,14 @@
       <c r="C176" s="1">
         <v>601.79999999999995</v>
       </c>
-    </row>
-    <row r="177" spans="1:3">
+      <c r="D176" s="3">
+        <v>6.4619168004634275</v>
+      </c>
+      <c r="E176" s="3">
+        <v>19.793246190490322</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A177" s="1" t="s">
         <v>178</v>
       </c>
@@ -3187,8 +4265,14 @@
       <c r="C177" s="1">
         <v>691.4</v>
       </c>
-    </row>
-    <row r="178" spans="1:3">
+      <c r="D177" s="3">
+        <v>5.1759626446402649</v>
+      </c>
+      <c r="E177" s="3">
+        <v>18.963253790098918</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A178" s="1" t="s">
         <v>179</v>
       </c>
@@ -3198,8 +4282,14 @@
       <c r="C178" s="1">
         <v>673</v>
       </c>
-    </row>
-    <row r="179" spans="1:3">
+      <c r="D178" s="3">
+        <v>7.2763227847058261</v>
+      </c>
+      <c r="E178" s="3">
+        <v>20.181462419484831</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A179" s="1" t="s">
         <v>180</v>
       </c>
@@ -3209,8 +4299,14 @@
       <c r="C179" s="1">
         <v>625.20000000000005</v>
       </c>
-    </row>
-    <row r="180" spans="1:3">
+      <c r="D179" s="3">
+        <v>7.8454339545321545</v>
+      </c>
+      <c r="E179" s="3">
+        <v>20.238825374734688</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A180" s="1" t="s">
         <v>181</v>
       </c>
@@ -3220,8 +4316,14 @@
       <c r="C180" s="1">
         <v>624</v>
       </c>
-    </row>
-    <row r="181" spans="1:3">
+      <c r="D180" s="3">
+        <v>6.9448600061659249</v>
+      </c>
+      <c r="E180" s="3">
+        <v>17.748026131291681</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A181" s="1" t="s">
         <v>182</v>
       </c>
@@ -3231,8 +4333,14 @@
       <c r="C181" s="1">
         <v>696</v>
       </c>
-    </row>
-    <row r="182" spans="1:3">
+      <c r="D181" s="3">
+        <v>7.1663781328336427</v>
+      </c>
+      <c r="E181" s="3">
+        <v>24.351784441872212</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A182" s="1" t="s">
         <v>183</v>
       </c>
@@ -3242,8 +4350,14 @@
       <c r="C182" s="1">
         <v>623.70000000000005</v>
       </c>
-    </row>
-    <row r="183" spans="1:3">
+      <c r="D182" s="3">
+        <v>7.5297993041160112</v>
+      </c>
+      <c r="E182" s="3">
+        <v>21.904972847735849</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A183" s="1" t="s">
         <v>184</v>
       </c>
@@ -3253,8 +4367,14 @@
       <c r="C183" s="1">
         <v>621.5</v>
       </c>
-    </row>
-    <row r="184" spans="1:3">
+      <c r="D183" s="3">
+        <v>6.1719873160548104</v>
+      </c>
+      <c r="E183" s="3">
+        <v>16.688568153658309</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A184" s="1" t="s">
         <v>185</v>
       </c>
@@ -3264,8 +4384,14 @@
       <c r="C184" s="1">
         <v>638.1</v>
       </c>
-    </row>
-    <row r="185" spans="1:3">
+      <c r="D184" s="3">
+        <v>7.1683887282242722</v>
+      </c>
+      <c r="E184" s="3">
+        <v>20.028235489423025</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A185" s="1" t="s">
         <v>186</v>
       </c>
@@ -3275,8 +4401,14 @@
       <c r="C185" s="1">
         <v>636</v>
       </c>
-    </row>
-    <row r="186" spans="1:3">
+      <c r="D185" s="3">
+        <v>7.6746403152225753</v>
+      </c>
+      <c r="E185" s="3">
+        <v>27.40886434353672</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A186" s="1" t="s">
         <v>187</v>
       </c>
@@ -3286,8 +4418,14 @@
       <c r="C186" s="1">
         <v>689.5</v>
       </c>
-    </row>
-    <row r="187" spans="1:3">
+      <c r="D186" s="3">
+        <v>8.1282778068198809</v>
+      </c>
+      <c r="E186" s="3">
+        <v>23.342589421445041</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A187" s="1" t="s">
         <v>188</v>
       </c>
@@ -3297,8 +4435,14 @@
       <c r="C187" s="1">
         <v>609.29999999999995</v>
       </c>
-    </row>
-    <row r="188" spans="1:3">
+      <c r="D187" s="3">
+        <v>8.3761865489985894</v>
+      </c>
+      <c r="E187" s="3">
+        <v>35.193751406281422</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A188" s="1" t="s">
         <v>189</v>
       </c>
@@ -3308,8 +4452,14 @@
       <c r="C188" s="1">
         <v>608.5</v>
       </c>
-    </row>
-    <row r="189" spans="1:3">
+      <c r="D188" s="3">
+        <v>8.5280031810625587</v>
+      </c>
+      <c r="E188" s="3">
+        <v>18.256291966547849</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A189" s="1" t="s">
         <v>190</v>
       </c>
@@ -3319,8 +4469,14 @@
       <c r="C189" s="1">
         <v>666.3</v>
       </c>
-    </row>
-    <row r="190" spans="1:3">
+      <c r="D189" s="3">
+        <v>6.361265370848912</v>
+      </c>
+      <c r="E189" s="3">
+        <v>23.200094730292165</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A190" s="1" t="s">
         <v>191</v>
       </c>
@@ -3330,8 +4486,14 @@
       <c r="C190" s="1">
         <v>622.4</v>
       </c>
-    </row>
-    <row r="191" spans="1:3">
+      <c r="D190" s="3">
+        <v>7.3109156014465384</v>
+      </c>
+      <c r="E190" s="3">
+        <v>20.148665463620546</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A191" s="1" t="s">
         <v>192</v>
       </c>
@@ -3341,8 +4503,14 @@
       <c r="C191" s="1">
         <v>745.9</v>
       </c>
-    </row>
-    <row r="192" spans="1:3">
+      <c r="D191" s="3">
+        <v>7.8702587591438373</v>
+      </c>
+      <c r="E191" s="3">
+        <v>24.700014086956003</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A192" s="1" t="s">
         <v>193</v>
       </c>
@@ -3352,8 +4520,14 @@
       <c r="C192" s="1">
         <v>677.8</v>
       </c>
-    </row>
-    <row r="193" spans="1:3">
+      <c r="D192" s="3">
+        <v>5.638864622301071</v>
+      </c>
+      <c r="E192" s="3">
+        <v>19.777495025175142</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A193" s="1" t="s">
         <v>194</v>
       </c>
@@ -3363,8 +4537,14 @@
       <c r="C193" s="1">
         <v>688.4</v>
       </c>
-    </row>
-    <row r="194" spans="1:3">
+      <c r="D193" s="3">
+        <v>8.3654660931900935</v>
+      </c>
+      <c r="E193" s="3">
+        <v>20.674377343664275</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A194" s="1" t="s">
         <v>195</v>
       </c>
@@ -3374,8 +4554,14 @@
       <c r="C194" s="1">
         <v>702.5</v>
       </c>
-    </row>
-    <row r="195" spans="1:3">
+      <c r="D194" s="3">
+        <v>7.3056190468228124</v>
+      </c>
+      <c r="E194" s="3">
+        <v>20.362934624710647</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A195" s="1" t="s">
         <v>196</v>
       </c>
@@ -3385,8 +4571,14 @@
       <c r="C195" s="1">
         <v>706.2</v>
       </c>
-    </row>
-    <row r="196" spans="1:3">
+      <c r="D195" s="3">
+        <v>6.5135061337850857</v>
+      </c>
+      <c r="E195" s="3">
+        <v>29.373569042479744</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A196" s="1" t="s">
         <v>197</v>
       </c>
@@ -3396,8 +4588,14 @@
       <c r="C196" s="1">
         <v>689.9</v>
       </c>
-    </row>
-    <row r="197" spans="1:3">
+      <c r="D196" s="3">
+        <v>10.848664128435303</v>
+      </c>
+      <c r="E196" s="3">
+        <v>26.316507965734388</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A197" s="1" t="s">
         <v>198</v>
       </c>
@@ -3407,8 +4605,14 @@
       <c r="C197" s="1">
         <v>650.70000000000005</v>
       </c>
-    </row>
-    <row r="198" spans="1:3">
+      <c r="D197" s="3">
+        <v>8.3687573918918474</v>
+      </c>
+      <c r="E197" s="3">
+        <v>18.329397843116396</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A198" s="1" t="s">
         <v>199</v>
       </c>
@@ -3418,8 +4622,14 @@
       <c r="C198" s="1">
         <v>660.5</v>
       </c>
-    </row>
-    <row r="199" spans="1:3">
+      <c r="D198" s="3">
+        <v>7.0142627467831176</v>
+      </c>
+      <c r="E198" s="3">
+        <v>17.145193734287886</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A199" s="1" t="s">
         <v>200</v>
       </c>
@@ -3429,8 +4639,14 @@
       <c r="C199" s="1">
         <v>701.1</v>
       </c>
-    </row>
-    <row r="200" spans="1:3">
+      <c r="D199" s="3">
+        <v>13.53792125120134</v>
+      </c>
+      <c r="E199" s="3">
+        <v>17.804975992796926</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A200" s="1" t="s">
         <v>201</v>
       </c>
@@ -3440,8 +4656,14 @@
       <c r="C200" s="1">
         <v>716.9</v>
       </c>
-    </row>
-    <row r="201" spans="1:3">
+      <c r="D200" s="3">
+        <v>7.5069643898273739</v>
+      </c>
+      <c r="E200" s="3">
+        <v>21.082509489304073</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A201" s="1" t="s">
         <v>202</v>
       </c>
@@ -3451,8 +4673,14 @@
       <c r="C201" s="1">
         <v>723.1</v>
       </c>
-    </row>
-    <row r="202" spans="1:3">
+      <c r="D201" s="3">
+        <v>12.02257297160395</v>
+      </c>
+      <c r="E201" s="3">
+        <v>20.383201354481741</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A202" s="1" t="s">
         <v>203</v>
       </c>
@@ -3462,8 +4690,14 @@
       <c r="C202" s="1">
         <v>647.20000000000005</v>
       </c>
-    </row>
-    <row r="203" spans="1:3">
+      <c r="D202" s="3">
+        <v>9.0013579766437033</v>
+      </c>
+      <c r="E202" s="3">
+        <v>27.341406254717526</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A203" s="1" t="s">
         <v>204</v>
       </c>
@@ -3473,8 +4707,14 @@
       <c r="C203" s="1">
         <v>676.4</v>
       </c>
-    </row>
-    <row r="204" spans="1:3">
+      <c r="D203" s="3">
+        <v>7.0108295829895724</v>
+      </c>
+      <c r="E203" s="3">
+        <v>22.357541673146216</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A204" s="1" t="s">
         <v>205</v>
       </c>
@@ -3484,8 +4724,14 @@
       <c r="C204" s="1">
         <v>684.7</v>
       </c>
-    </row>
-    <row r="205" spans="1:3">
+      <c r="D204" s="3">
+        <v>10.258844687795317</v>
+      </c>
+      <c r="E204" s="3">
+        <v>33.700049209144197</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A205" s="1" t="s">
         <v>206</v>
       </c>
@@ -3495,8 +4741,14 @@
       <c r="C205" s="1">
         <v>677</v>
       </c>
-    </row>
-    <row r="206" spans="1:3">
+      <c r="D205" s="3">
+        <v>8.0383447251733173</v>
+      </c>
+      <c r="E205" s="3">
+        <v>26.890826251385249</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A206" s="1" t="s">
         <v>207</v>
       </c>
@@ -3506,8 +4758,14 @@
       <c r="C206" s="1">
         <v>669</v>
       </c>
-    </row>
-    <row r="207" spans="1:3">
+      <c r="D206" s="3">
+        <v>6.4501557840035844</v>
+      </c>
+      <c r="E206" s="3">
+        <v>18.547784161821141</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A207" s="1" t="s">
         <v>208</v>
       </c>
@@ -3517,8 +4775,14 @@
       <c r="C207" s="1">
         <v>779.7</v>
       </c>
-    </row>
-    <row r="208" spans="1:3">
+      <c r="D207" s="3">
+        <v>8.0482053096761774</v>
+      </c>
+      <c r="E207" s="3">
+        <v>19.424498132740496</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A208" s="1" t="s">
         <v>209</v>
       </c>
@@ -3528,8 +4792,14 @@
       <c r="C208" s="1">
         <v>720</v>
       </c>
-    </row>
-    <row r="209" spans="1:3">
+      <c r="D208" s="3">
+        <v>9.810289776473951</v>
+      </c>
+      <c r="E208" s="3">
+        <v>27.337436968982615</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A209" s="1" t="s">
         <v>210</v>
       </c>
@@ -3539,8 +4809,14 @@
       <c r="C209" s="1">
         <v>761.2</v>
       </c>
-    </row>
-    <row r="210" spans="1:3">
+      <c r="D209" s="3">
+        <v>8.5184190325998088</v>
+      </c>
+      <c r="E209" s="3">
+        <v>22.357691361464958</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A210" s="1" t="s">
         <v>211</v>
       </c>
@@ -3550,8 +4826,14 @@
       <c r="C210" s="1">
         <v>703.3</v>
       </c>
-    </row>
-    <row r="211" spans="1:3">
+      <c r="D210" s="3">
+        <v>8.7617655424176064</v>
+      </c>
+      <c r="E210" s="3">
+        <v>42.689568142198766</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A211" s="1" t="s">
         <v>212</v>
       </c>
@@ -3561,8 +4843,14 @@
       <c r="C211" s="1">
         <v>751.1</v>
       </c>
-    </row>
-    <row r="212" spans="1:3">
+      <c r="D211" s="3">
+        <v>10.940900362062735</v>
+      </c>
+      <c r="E211" s="3">
+        <v>19.935142084885968</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A212" s="1" t="s">
         <v>213</v>
       </c>
@@ -3572,8 +4860,14 @@
       <c r="C212" s="1">
         <v>780.7</v>
       </c>
-    </row>
-    <row r="213" spans="1:3">
+      <c r="D212" s="3">
+        <v>10.002431856670682</v>
+      </c>
+      <c r="E212" s="3">
+        <v>20.773799665127058</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A213" s="1" t="s">
         <v>214</v>
       </c>
@@ -3583,8 +4877,14 @@
       <c r="C213" s="1">
         <v>758.7</v>
       </c>
-    </row>
-    <row r="214" spans="1:3">
+      <c r="D213" s="3">
+        <v>8.0411281343975816</v>
+      </c>
+      <c r="E213" s="3">
+        <v>18.431338118024257</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A214" s="1" t="s">
         <v>215</v>
       </c>
@@ -3594,8 +4894,14 @@
       <c r="C214" s="1">
         <v>848.3</v>
       </c>
-    </row>
-    <row r="215" spans="1:3">
+      <c r="D214" s="3">
+        <v>7.7009225687592675</v>
+      </c>
+      <c r="E214" s="3">
+        <v>18.410441136733255</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A215" s="1" t="s">
         <v>216</v>
       </c>
@@ -3605,8 +4911,14 @@
       <c r="C215" s="1">
         <v>793.7</v>
       </c>
-    </row>
-    <row r="216" spans="1:3">
+      <c r="D215" s="3">
+        <v>9.9561785909433524</v>
+      </c>
+      <c r="E215" s="3">
+        <v>14.57317772340366</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A216" s="1" t="s">
         <v>217</v>
       </c>
@@ -3616,8 +4928,14 @@
       <c r="C216" s="1">
         <v>777.8</v>
       </c>
-    </row>
-    <row r="217" spans="1:3">
+      <c r="D216" s="3">
+        <v>10.016454613396718</v>
+      </c>
+      <c r="E216" s="3">
+        <v>20.145870488856815</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A217" s="1" t="s">
         <v>218</v>
       </c>
@@ -3627,8 +4945,14 @@
       <c r="C217" s="1">
         <v>879</v>
       </c>
-    </row>
-    <row r="218" spans="1:3">
+      <c r="D217" s="3">
+        <v>11.298454934930703</v>
+      </c>
+      <c r="E217" s="3">
+        <v>13.328271022679701</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A218" s="1" t="s">
         <v>219</v>
       </c>
@@ -3638,8 +4962,14 @@
       <c r="C218" s="1">
         <v>951.7</v>
       </c>
-    </row>
-    <row r="219" spans="1:3">
+      <c r="D218" s="3">
+        <v>15.151450023752375</v>
+      </c>
+      <c r="E218" s="3">
+        <v>20.62489603814339</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A219" s="1" t="s">
         <v>220</v>
       </c>
@@ -3649,8 +4979,14 @@
       <c r="C219" s="1">
         <v>834.1</v>
       </c>
-    </row>
-    <row r="220" spans="1:3">
+      <c r="D219" s="3">
+        <v>8.3070211211481251</v>
+      </c>
+      <c r="E219" s="3">
+        <v>26.106777688410261</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A220" s="1" t="s">
         <v>221</v>
       </c>
@@ -3660,8 +4996,14 @@
       <c r="C220" s="1">
         <v>839.6</v>
       </c>
-    </row>
-    <row r="221" spans="1:3">
+      <c r="D220" s="3">
+        <v>11.990596086807045</v>
+      </c>
+      <c r="E220" s="3">
+        <v>18.547977288519974</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A221" s="1" t="s">
         <v>222</v>
       </c>
@@ -3671,8 +5013,14 @@
       <c r="C221" s="1">
         <v>851.5</v>
       </c>
-    </row>
-    <row r="222" spans="1:3">
+      <c r="D221" s="3">
+        <v>10.585330970603593</v>
+      </c>
+      <c r="E221" s="3">
+        <v>21.556796170534028</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A222" s="1" t="s">
         <v>223</v>
       </c>
@@ -3682,8 +5030,14 @@
       <c r="C222" s="1">
         <v>907.2</v>
       </c>
-    </row>
-    <row r="223" spans="1:3">
+      <c r="D222" s="3">
+        <v>8.4692652346354862</v>
+      </c>
+      <c r="E222" s="3">
+        <v>16.665401344126792</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A223" s="1" t="s">
         <v>224</v>
       </c>
@@ -3693,8 +5047,14 @@
       <c r="C223" s="1">
         <v>916.8</v>
       </c>
-    </row>
-    <row r="224" spans="1:3">
+      <c r="D223" s="3">
+        <v>11.45264622790603</v>
+      </c>
+      <c r="E223" s="3">
+        <v>18.74084450102788</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A224" s="1" t="s">
         <v>225</v>
       </c>
@@ -3704,8 +5064,14 @@
       <c r="C224" s="1">
         <v>906.4</v>
       </c>
-    </row>
-    <row r="225" spans="1:3">
+      <c r="D224" s="3">
+        <v>10.46060588077313</v>
+      </c>
+      <c r="E224" s="3">
+        <v>20.257160282660152</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A225" s="1" t="s">
         <v>226</v>
       </c>
@@ -3715,8 +5081,14 @@
       <c r="C225" s="1">
         <v>940.3</v>
       </c>
-    </row>
-    <row r="226" spans="1:3">
+      <c r="D225" s="3">
+        <v>10.9202743928941</v>
+      </c>
+      <c r="E225" s="3">
+        <v>20.511179818835672</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A226" s="1" t="s">
         <v>227</v>
       </c>
@@ -3726,8 +5098,14 @@
       <c r="C226" s="1">
         <v>959.7</v>
       </c>
-    </row>
-    <row r="227" spans="1:3">
+      <c r="D226" s="3">
+        <v>11.382690512456691</v>
+      </c>
+      <c r="E226" s="3">
+        <v>17.543706138224991</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A227" s="1" t="s">
         <v>228</v>
       </c>
@@ -3737,8 +5115,14 @@
       <c r="C227" s="1">
         <v>982.2</v>
       </c>
-    </row>
-    <row r="228" spans="1:3">
+      <c r="D227" s="3">
+        <v>9.9105996595018837</v>
+      </c>
+      <c r="E227" s="3">
+        <v>17.151115386332265</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A228" s="1" t="s">
         <v>229</v>
       </c>
@@ -3748,8 +5132,14 @@
       <c r="C228" s="1">
         <v>994</v>
       </c>
-    </row>
-    <row r="229" spans="1:3">
+      <c r="D228" s="3">
+        <v>12.305310951231149</v>
+      </c>
+      <c r="E228" s="3">
+        <v>13.700952478386569</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A229" s="1" t="s">
         <v>230</v>
       </c>
@@ -3759,8 +5149,14 @@
       <c r="C229" s="1">
         <v>1007.4</v>
       </c>
-    </row>
-    <row r="230" spans="1:3">
+      <c r="D229" s="3">
+        <v>10.507895272255155</v>
+      </c>
+      <c r="E229" s="3">
+        <v>21.021659310234497</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A230" s="1" t="s">
         <v>231</v>
       </c>
@@ -3770,8 +5166,14 @@
       <c r="C230" s="1">
         <v>1015.7</v>
       </c>
-    </row>
-    <row r="231" spans="1:3">
+      <c r="D230" s="3">
+        <v>9.0114136563850593</v>
+      </c>
+      <c r="E230" s="3">
+        <v>18.709701625957109</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A231" s="1" t="s">
         <v>232</v>
       </c>
@@ -3781,8 +5183,14 @@
       <c r="C231" s="1">
         <v>1020.1</v>
       </c>
-    </row>
-    <row r="232" spans="1:3">
+      <c r="D231" s="3">
+        <v>11.147504009768113</v>
+      </c>
+      <c r="E231" s="3">
+        <v>15.506529531309923</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A232" s="1" t="s">
         <v>233</v>
       </c>
@@ -3792,8 +5200,14 @@
       <c r="C232" s="1">
         <v>1032.4000000000001</v>
       </c>
-    </row>
-    <row r="233" spans="1:3">
+      <c r="D232" s="3">
+        <v>14.188558600645763</v>
+      </c>
+      <c r="E232" s="3">
+        <v>16.813689919676904</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A233" s="1" t="s">
         <v>234</v>
       </c>
@@ -3803,8 +5217,14 @@
       <c r="C233" s="1">
         <v>1054.8</v>
       </c>
-    </row>
-    <row r="234" spans="1:3">
+      <c r="D233" s="3">
+        <v>12.06720676279906</v>
+      </c>
+      <c r="E233" s="3">
+        <v>13.840510173664256</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A234" s="1" t="s">
         <v>235</v>
       </c>
@@ -3814,8 +5234,14 @@
       <c r="C234" s="1">
         <v>1089.8</v>
       </c>
-    </row>
-    <row r="235" spans="1:3">
+      <c r="D234" s="3">
+        <v>13.841663665091232</v>
+      </c>
+      <c r="E234" s="3">
+        <v>19.74128324422918</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A235" s="1" t="s">
         <v>236</v>
       </c>
@@ -3825,8 +5251,14 @@
       <c r="C235" s="1">
         <v>1164.5999999999999</v>
       </c>
-    </row>
-    <row r="236" spans="1:3">
+      <c r="D235" s="3">
+        <v>9.5114571087279955</v>
+      </c>
+      <c r="E235" s="3">
+        <v>17.524235034421281</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A236" s="1" t="s">
         <v>237</v>
       </c>
@@ -3836,8 +5268,14 @@
       <c r="C236" s="1">
         <v>1253</v>
       </c>
-    </row>
-    <row r="237" spans="1:3">
+      <c r="D236" s="3">
+        <v>18.751174306747657</v>
+      </c>
+      <c r="E236" s="3">
+        <v>20.825696545128153</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A237" s="1" t="s">
         <v>238</v>
       </c>
@@ -3847,8 +5285,14 @@
       <c r="C237" s="1">
         <v>1269.3</v>
       </c>
-    </row>
-    <row r="238" spans="1:3">
+      <c r="D237" s="3">
+        <v>15.829635042751534</v>
+      </c>
+      <c r="E237" s="3">
+        <v>19.076997012155857</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A238" s="1" t="s">
         <v>239</v>
       </c>
@@ -3858,8 +5302,14 @@
       <c r="C238" s="1">
         <v>1425.8</v>
       </c>
-    </row>
-    <row r="239" spans="1:3">
+      <c r="D238" s="3">
+        <v>12.740258680659963</v>
+      </c>
+      <c r="E238" s="3">
+        <v>16.576430919840391</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A239" s="1" t="s">
         <v>240</v>
       </c>
@@ -3869,8 +5319,14 @@
       <c r="C239" s="1">
         <v>1752.5</v>
       </c>
-    </row>
-    <row r="240" spans="1:3">
+      <c r="D239" s="3">
+        <v>20.805385082789371</v>
+      </c>
+      <c r="E239" s="3">
+        <v>14.573417354344087</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A240" s="1" t="s">
         <v>241</v>
       </c>
@@ -3880,8 +5336,14 @@
       <c r="C240" s="1">
         <v>1755.7</v>
       </c>
-    </row>
-    <row r="241" spans="1:3">
+      <c r="D240" s="3">
+        <v>19.753741847802075</v>
+      </c>
+      <c r="E240" s="3">
+        <v>15.444737077405875</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A241" s="1" t="s">
         <v>242</v>
       </c>
@@ -3891,8 +5353,14 @@
       <c r="C241" s="1">
         <v>1795.2</v>
       </c>
-    </row>
-    <row r="242" spans="1:3">
+      <c r="D241" s="3">
+        <v>26.617221198510492</v>
+      </c>
+      <c r="E241" s="3">
+        <v>22.281184097934101</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A242" s="1" t="s">
         <v>243</v>
       </c>
@@ -3902,8 +5370,14 @@
       <c r="C242" s="1">
         <v>1797.8</v>
       </c>
-    </row>
-    <row r="243" spans="1:3">
+      <c r="D242" s="3">
+        <v>13.237466709509818</v>
+      </c>
+      <c r="E242" s="3">
+        <v>15.045068211076455</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A243" s="1" t="s">
         <v>244</v>
       </c>
@@ -3913,8 +5387,14 @@
       <c r="C243" s="1">
         <v>1867.4</v>
       </c>
-    </row>
-    <row r="244" spans="1:3">
+      <c r="D243" s="3">
+        <v>18.886574853636944</v>
+      </c>
+      <c r="E243" s="3">
+        <v>18.356932168505068</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A244" s="1" t="s">
         <v>245</v>
       </c>
@@ -3924,8 +5404,14 @@
       <c r="C244" s="1">
         <v>1885.8</v>
       </c>
-    </row>
-    <row r="245" spans="1:3">
+      <c r="D244" s="3">
+        <v>14.911911452953177</v>
+      </c>
+      <c r="E244" s="3">
+        <v>14.409813598294249</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A245" s="1" t="s">
         <v>246</v>
       </c>
@@ -3935,8 +5421,14 @@
       <c r="C245" s="1">
         <v>1888.2</v>
       </c>
-    </row>
-    <row r="246" spans="1:3">
+      <c r="D245" s="3">
+        <v>18.03347794620197</v>
+      </c>
+      <c r="E245" s="3">
+        <v>15.964273091643804</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A246" s="1" t="s">
         <v>247</v>
       </c>
@@ -3946,8 +5438,14 @@
       <c r="C246" s="1">
         <v>1888.6</v>
       </c>
-    </row>
-    <row r="247" spans="1:3">
+      <c r="D246" s="3">
+        <v>17.98677889356577</v>
+      </c>
+      <c r="E246" s="3">
+        <v>15.864218553757269</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A247" s="1" t="s">
         <v>248</v>
       </c>
@@ -3957,8 +5455,14 @@
       <c r="C247" s="1">
         <v>1896.7</v>
       </c>
-    </row>
-    <row r="248" spans="1:3">
+      <c r="D247" s="3">
+        <v>19.401295017184793</v>
+      </c>
+      <c r="E247" s="3">
+        <v>14.468060235616235</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A248" s="1" t="s">
         <v>249</v>
       </c>
@@ -3968,8 +5472,14 @@
       <c r="C248" s="1">
         <v>1898.4</v>
       </c>
-    </row>
-    <row r="249" spans="1:3">
+      <c r="D248" s="3">
+        <v>24.201653953392338</v>
+      </c>
+      <c r="E248" s="3">
+        <v>12.619006372043259</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A249" s="1" t="s">
         <v>250</v>
       </c>
@@ -3979,8 +5489,14 @@
       <c r="C249" s="1">
         <v>1898.9</v>
       </c>
-    </row>
-    <row r="250" spans="1:3">
+      <c r="D249" s="3">
+        <v>19.038726681605112</v>
+      </c>
+      <c r="E249" s="3">
+        <v>12.120497889142143</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A250" s="1" t="s">
         <v>251</v>
       </c>
@@ -3990,8 +5506,14 @@
       <c r="C250" s="1">
         <v>1937.1</v>
       </c>
-    </row>
-    <row r="251" spans="1:3">
+      <c r="D250" s="3">
+        <v>22.467316851895475</v>
+      </c>
+      <c r="E250" s="3">
+        <v>11.67535748486398</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A251" s="1" t="s">
         <v>252</v>
       </c>
@@ -4001,8 +5523,14 @@
       <c r="C251" s="1">
         <v>1948.3</v>
       </c>
-    </row>
-    <row r="252" spans="1:3">
+      <c r="D251" s="3">
+        <v>17.706323647540557</v>
+      </c>
+      <c r="E251" s="3">
+        <v>14.708776991854734</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A252" s="1" t="s">
         <v>253</v>
       </c>
@@ -4012,8 +5540,14 @@
       <c r="C252" s="1">
         <v>1977.7</v>
       </c>
-    </row>
-    <row r="253" spans="1:3">
+      <c r="D252" s="3">
+        <v>17.845162418309656</v>
+      </c>
+      <c r="E252" s="3">
+        <v>15.969552726172765</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A253" s="1" t="s">
         <v>254</v>
       </c>
@@ -4023,8 +5557,14 @@
       <c r="C253" s="1">
         <v>1987.9</v>
       </c>
-    </row>
-    <row r="254" spans="1:3">
+      <c r="D253" s="3">
+        <v>19.462453906605219</v>
+      </c>
+      <c r="E253" s="3">
+        <v>15.52796193268307</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A254" s="1" t="s">
         <v>255</v>
       </c>
@@ -4034,8 +5574,14 @@
       <c r="C254" s="1">
         <v>1998.6</v>
       </c>
-    </row>
-    <row r="255" spans="1:3">
+      <c r="D254" s="3">
+        <v>21.225972945704484</v>
+      </c>
+      <c r="E254" s="3">
+        <v>13.916013279364847</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A255" s="1" t="s">
         <v>256</v>
       </c>
@@ -4045,8 +5591,14 @@
       <c r="C255" s="1">
         <v>2019</v>
       </c>
-    </row>
-    <row r="256" spans="1:3">
+      <c r="D255" s="3">
+        <v>17.901214244907237</v>
+      </c>
+      <c r="E255" s="3">
+        <v>13.408823797101491</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A256" s="1" t="s">
         <v>257</v>
       </c>
@@ -4056,8 +5608,14 @@
       <c r="C256" s="1">
         <v>2024</v>
       </c>
-    </row>
-    <row r="257" spans="1:3">
+      <c r="D256" s="3">
+        <v>20.872282061987221</v>
+      </c>
+      <c r="E256" s="3">
+        <v>13.629671526351785</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A257" s="1" t="s">
         <v>258</v>
       </c>
@@ -4067,8 +5625,14 @@
       <c r="C257" s="1">
         <v>2024.6</v>
       </c>
-    </row>
-    <row r="258" spans="1:3">
+      <c r="D257" s="3">
+        <v>13.682701504493139</v>
+      </c>
+      <c r="E257" s="3">
+        <v>15.302857693347278</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A258" s="1" t="s">
         <v>259</v>
       </c>
@@ -4078,8 +5642,14 @@
       <c r="C258" s="1">
         <v>2061.6999999999998</v>
       </c>
-    </row>
-    <row r="259" spans="1:3">
+      <c r="D258" s="3">
+        <v>19.789404842099998</v>
+      </c>
+      <c r="E258" s="3">
+        <v>17.774325501867793</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A259" s="1" t="s">
         <v>260</v>
       </c>
@@ -4089,8 +5659,14 @@
       <c r="C259" s="1">
         <v>2073.5</v>
       </c>
-    </row>
-    <row r="260" spans="1:3">
+      <c r="D259" s="3">
+        <v>28.144273151165976</v>
+      </c>
+      <c r="E259" s="3">
+        <v>15.453540725929315</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A260" s="1" t="s">
         <v>261</v>
       </c>
@@ -4100,8 +5676,14 @@
       <c r="C260" s="1">
         <v>2084</v>
       </c>
-    </row>
-    <row r="261" spans="1:3">
+      <c r="D260" s="3">
+        <v>17.441190050659202</v>
+      </c>
+      <c r="E260" s="3">
+        <v>18.538148736985477</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A261" s="1" t="s">
         <v>262</v>
       </c>
@@ -4111,8 +5693,14 @@
       <c r="C261" s="1">
         <v>2090.8000000000002</v>
       </c>
-    </row>
-    <row r="262" spans="1:3">
+      <c r="D261" s="3">
+        <v>23.89897780693093</v>
+      </c>
+      <c r="E261" s="3">
+        <v>12.736071707429346</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A262" s="1" t="s">
         <v>263</v>
       </c>
@@ -4122,8 +5710,14 @@
       <c r="C262" s="1">
         <v>2091.4</v>
       </c>
-    </row>
-    <row r="263" spans="1:3">
+      <c r="D262" s="3">
+        <v>30.115386769673137</v>
+      </c>
+      <c r="E262" s="3">
+        <v>24.902566779971266</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A263" s="1" t="s">
         <v>264</v>
       </c>
@@ -4133,8 +5727,14 @@
       <c r="C263" s="1">
         <v>2118.1999999999998</v>
       </c>
-    </row>
-    <row r="264" spans="1:3">
+      <c r="D263" s="3">
+        <v>19.411540944166973</v>
+      </c>
+      <c r="E263" s="3">
+        <v>13.386940822522774</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A264" s="1" t="s">
         <v>265</v>
       </c>
@@ -4144,8 +5744,14 @@
       <c r="C264" s="1">
         <v>2147.6</v>
       </c>
-    </row>
-    <row r="265" spans="1:3">
+      <c r="D264" s="3">
+        <v>18.35964462369725</v>
+      </c>
+      <c r="E264" s="3">
+        <v>13.51191199717573</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A265" s="1" t="s">
         <v>266</v>
       </c>
@@ -4155,8 +5761,14 @@
       <c r="C265" s="1">
         <v>2178</v>
       </c>
-    </row>
-    <row r="266" spans="1:3">
+      <c r="D265" s="3">
+        <v>25.442468940055505</v>
+      </c>
+      <c r="E265" s="3">
+        <v>16.274148903991545</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A266" s="1" t="s">
         <v>267</v>
       </c>
@@ -4166,8 +5778,14 @@
       <c r="C266" s="1">
         <v>2187.4</v>
       </c>
-    </row>
-    <row r="267" spans="1:3">
+      <c r="D266" s="3">
+        <v>19.989915163653905</v>
+      </c>
+      <c r="E266" s="3">
+        <v>11.84239430308844</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A267" s="1" t="s">
         <v>268</v>
       </c>
@@ -4177,8 +5795,14 @@
       <c r="C267" s="1">
         <v>2189.8000000000002</v>
       </c>
-    </row>
-    <row r="268" spans="1:3">
+      <c r="D267" s="3">
+        <v>22.145114970531381</v>
+      </c>
+      <c r="E267" s="3">
+        <v>16.282629641302265</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A268" s="1" t="s">
         <v>269</v>
       </c>
@@ -4188,8 +5812,14 @@
       <c r="C268" s="1">
         <v>2197.4</v>
       </c>
-    </row>
-    <row r="269" spans="1:3">
+      <c r="D268" s="3">
+        <v>25.129275965180113</v>
+      </c>
+      <c r="E268" s="3">
+        <v>12.617302690363886</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A269" s="1" t="s">
         <v>270</v>
       </c>
@@ -4199,8 +5829,14 @@
       <c r="C269" s="1">
         <v>2227.9</v>
       </c>
-    </row>
-    <row r="270" spans="1:3">
+      <c r="D269" s="3">
+        <v>21.463932288914066</v>
+      </c>
+      <c r="E269" s="3">
+        <v>16.04314016571584</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A270" s="1" t="s">
         <v>271</v>
       </c>
@@ -4210,8 +5846,14 @@
       <c r="C270" s="1">
         <v>2239.1999999999998</v>
       </c>
-    </row>
-    <row r="271" spans="1:3">
+      <c r="D270" s="3">
+        <v>19.992922957125302</v>
+      </c>
+      <c r="E270" s="3">
+        <v>9.239644630388284</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A271" s="1" t="s">
         <v>272</v>
       </c>
@@ -4221,8 +5863,14 @@
       <c r="C271" s="1">
         <v>2610.1999999999998</v>
       </c>
-    </row>
-    <row r="272" spans="1:3">
+      <c r="D271" s="3">
+        <v>42.293877009599782</v>
+      </c>
+      <c r="E271" s="3">
+        <v>20.88658366115601</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A272" s="1" t="s">
         <v>273</v>
       </c>
@@ -4232,8 +5880,14 @@
       <c r="C272" s="1">
         <v>2676.2</v>
       </c>
-    </row>
-    <row r="273" spans="1:3">
+      <c r="D272" s="3">
+        <v>29.438098973125079</v>
+      </c>
+      <c r="E272" s="3">
+        <v>16.228967371712315</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A273" s="1" t="s">
         <v>274</v>
       </c>
@@ -4243,8 +5897,14 @@
       <c r="C273" s="1">
         <v>2708.5</v>
       </c>
-    </row>
-    <row r="274" spans="1:3">
+      <c r="D273" s="3">
+        <v>18.948815622707116</v>
+      </c>
+      <c r="E273" s="3">
+        <v>13.058597983054369</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A274" s="1" t="s">
         <v>275</v>
       </c>
@@ -4254,8 +5914,14 @@
       <c r="C274" s="1">
         <v>2713.1</v>
       </c>
-    </row>
-    <row r="275" spans="1:3">
+      <c r="D274" s="3">
+        <v>22.754407829770571</v>
+      </c>
+      <c r="E274" s="3">
+        <v>11.308081719520487</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A275" s="1" t="s">
         <v>276</v>
       </c>
@@ -4265,8 +5931,14 @@
       <c r="C275" s="1">
         <v>2722.7</v>
       </c>
-    </row>
-    <row r="276" spans="1:3">
+      <c r="D275" s="3">
+        <v>27.569507126804183</v>
+      </c>
+      <c r="E275" s="3">
+        <v>11.063081435590902</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A276" s="1" t="s">
         <v>277</v>
       </c>
@@ -4276,8 +5948,14 @@
       <c r="C276" s="1">
         <v>2794.3</v>
       </c>
-    </row>
-    <row r="277" spans="1:3">
+      <c r="D276" s="3">
+        <v>22.871140452506779</v>
+      </c>
+      <c r="E276" s="3">
+        <v>15.423338698403995</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A277" s="1" t="s">
         <v>278</v>
       </c>
@@ -4287,8 +5965,14 @@
       <c r="C277" s="1">
         <v>2842.7</v>
       </c>
-    </row>
-    <row r="278" spans="1:3">
+      <c r="D277" s="3">
+        <v>32.276970610972967</v>
+      </c>
+      <c r="E277" s="3">
+        <v>12.12247782046893</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A278" s="1" t="s">
         <v>279</v>
       </c>
@@ -4297,6 +5981,12 @@
       </c>
       <c r="C278" s="1">
         <v>3376.5</v>
+      </c>
+      <c r="D278" s="3">
+        <v>45.103468502272335</v>
+      </c>
+      <c r="E278" s="3">
+        <v>12.971401784800037</v>
       </c>
     </row>
   </sheetData>

--- a/Vasey20/N1.xlsx
+++ b/Vasey20/N1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dyvas\git\dz-caucasus\Vasey20\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{751F1CC6-356A-4DE4-86B9-0A28B30E14C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACCF839B-69AE-476E-BDCD-138369B81C65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1410" yWindow="1410" windowWidth="16875" windowHeight="10432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="284">
   <si>
     <t>Zircon Sample Number</t>
   </si>
@@ -877,6 +877,12 @@
   </si>
   <si>
     <t>206 Error</t>
+  </si>
+  <si>
+    <t>235/207 U-Pb Age</t>
+  </si>
+  <si>
+    <t>235 Error</t>
   </si>
 </sst>
 </file>
@@ -932,7 +938,7 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1251,11 +1257,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E278"/>
+  <dimension ref="A1:G278"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2:E278"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1263,7 +1269,7 @@
     <col min="1" max="3" width="20.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1279,8 +1285,14 @@
       <c r="E1" s="2" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F1" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1296,8 +1308,14 @@
       <c r="E2" s="3">
         <v>17.327417911018841</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F2" s="3">
+        <v>394.4941875007753</v>
+      </c>
+      <c r="G2" s="3">
+        <v>5.362768561155832</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1313,8 +1331,14 @@
       <c r="E3" s="3">
         <v>18.976393197030035</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F3" s="3">
+        <v>458.48736558270969</v>
+      </c>
+      <c r="G3" s="3">
+        <v>7.0205402512718535</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -1330,8 +1354,14 @@
       <c r="E4" s="3">
         <v>21.444809767874744</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F4" s="3">
+        <v>478.26062478368419</v>
+      </c>
+      <c r="G4" s="3">
+        <v>11.156149107036725</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -1347,8 +1377,14 @@
       <c r="E5" s="3">
         <v>20.340265469955028</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F5" s="3">
+        <v>477.105660914135</v>
+      </c>
+      <c r="G5" s="3">
+        <v>6.3323070208661534</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -1364,8 +1400,14 @@
       <c r="E6" s="3">
         <v>16.434066341916093</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F6" s="3">
+        <v>481.86773597152859</v>
+      </c>
+      <c r="G6" s="3">
+        <v>5.6835633219092472</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -1381,8 +1423,14 @@
       <c r="E7" s="3">
         <v>16.019701639644865</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F7" s="3">
+        <v>481.4474196997445</v>
+      </c>
+      <c r="G7" s="3">
+        <v>5.6483070830143163</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -1398,8 +1446,14 @@
       <c r="E8" s="3">
         <v>20.915305960855221</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F8" s="3">
+        <v>477.63577629431251</v>
+      </c>
+      <c r="G8" s="3">
+        <v>6.6605104716183803</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -1415,8 +1469,14 @@
       <c r="E9" s="3">
         <v>16.323363369784659</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F9" s="3">
+        <v>479.87333360262323</v>
+      </c>
+      <c r="G9" s="3">
+        <v>4.9501252264741424</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -1432,8 +1492,14 @@
       <c r="E10" s="3">
         <v>18.419717522674432</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F10" s="3">
+        <v>490.70812982606429</v>
+      </c>
+      <c r="G10" s="3">
+        <v>6.0910197231299321</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -1449,8 +1515,14 @@
       <c r="E11" s="3">
         <v>18.902307062834154</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F11" s="3">
+        <v>497.34262500268005</v>
+      </c>
+      <c r="G11" s="3">
+        <v>7.0931932337161072</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -1466,8 +1538,14 @@
       <c r="E12" s="3">
         <v>18.414683322243718</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F12" s="3">
+        <v>493.97736423113957</v>
+      </c>
+      <c r="G12" s="3">
+        <v>5.6788709245132054</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -1483,8 +1561,14 @@
       <c r="E13" s="3">
         <v>20.507921002984091</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F13" s="3">
+        <v>499.31173352788437</v>
+      </c>
+      <c r="G13" s="3">
+        <v>5.7457560425640679</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
@@ -1500,8 +1584,14 @@
       <c r="E14" s="3">
         <v>16.198725099341118</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F14" s="3">
+        <v>512.11564069607186</v>
+      </c>
+      <c r="G14" s="3">
+        <v>7.3253515559455309</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
@@ -1517,8 +1607,14 @@
       <c r="E15" s="3">
         <v>16.31103014608874</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F15" s="3">
+        <v>506.45699140515057</v>
+      </c>
+      <c r="G15" s="3">
+        <v>5.4135174262110297</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
@@ -1534,8 +1630,14 @@
       <c r="E16" s="3">
         <v>19.877816280013633</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F16" s="3">
+        <v>509.04224255445121</v>
+      </c>
+      <c r="G16" s="3">
+        <v>6.2625771645463715</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
@@ -1551,8 +1653,14 @@
       <c r="E17" s="3">
         <v>27.417470019571169</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F17" s="3">
+        <v>509.12845157232982</v>
+      </c>
+      <c r="G17" s="3">
+        <v>7.8174861864872014</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
@@ -1568,8 +1676,14 @@
       <c r="E18" s="3">
         <v>24.292058703680169</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F18" s="3">
+        <v>506.02828259789635</v>
+      </c>
+      <c r="G18" s="3">
+        <v>7.4881330691344488</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
@@ -1585,8 +1699,14 @@
       <c r="E19" s="3">
         <v>19.921825021356995</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F19" s="3">
+        <v>512.93101731534807</v>
+      </c>
+      <c r="G19" s="3">
+        <v>6.0995839672611964</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
@@ -1602,8 +1722,14 @@
       <c r="E20" s="3">
         <v>20.146554623751683</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F20" s="3">
+        <v>516.16375331517418</v>
+      </c>
+      <c r="G20" s="3">
+        <v>7.6419410482471903</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
         <v>22</v>
       </c>
@@ -1619,8 +1745,14 @@
       <c r="E21" s="3">
         <v>18.852901051288967</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F21" s="3">
+        <v>517.81408917775593</v>
+      </c>
+      <c r="G21" s="3">
+        <v>7.2053628248022505</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
         <v>23</v>
       </c>
@@ -1636,8 +1768,14 @@
       <c r="E22" s="3">
         <v>14.728508438153142</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F22" s="3">
+        <v>529.68151275003322</v>
+      </c>
+      <c r="G22" s="3">
+        <v>5.6830226792347389</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
         <v>24</v>
       </c>
@@ -1653,8 +1791,14 @@
       <c r="E23" s="3">
         <v>19.199110844697145</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F23" s="3">
+        <v>534.64527570556697</v>
+      </c>
+      <c r="G23" s="3">
+        <v>8.1122053580893407</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
         <v>25</v>
       </c>
@@ -1670,8 +1814,14 @@
       <c r="E24" s="3">
         <v>14.671579235727393</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F24" s="3">
+        <v>529.32021214088127</v>
+      </c>
+      <c r="G24" s="3">
+        <v>5.9011893039582333</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
         <v>26</v>
       </c>
@@ -1687,8 +1837,14 @@
       <c r="E25" s="3">
         <v>18.092246133842991</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F25" s="3">
+        <v>535.80940861042438</v>
+      </c>
+      <c r="G25" s="3">
+        <v>6.4544367287305704</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
         <v>27</v>
       </c>
@@ -1704,8 +1860,14 @@
       <c r="E26" s="3">
         <v>16.002554688482462</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F26" s="3">
+        <v>534.64239101668352</v>
+      </c>
+      <c r="G26" s="3">
+        <v>6.3537330764224862</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
         <v>28</v>
       </c>
@@ -1721,8 +1883,14 @@
       <c r="E27" s="3">
         <v>19.070946046658264</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F27" s="3">
+        <v>539.04668508876966</v>
+      </c>
+      <c r="G27" s="3">
+        <v>5.899439647479312</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
         <v>29</v>
       </c>
@@ -1738,8 +1906,14 @@
       <c r="E28" s="3">
         <v>19.95526345261203</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F28" s="3">
+        <v>543.49331848247141</v>
+      </c>
+      <c r="G28" s="3">
+        <v>6.6662884263421347</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
         <v>30</v>
       </c>
@@ -1755,8 +1929,14 @@
       <c r="E29" s="3">
         <v>16.79807945545258</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F29" s="3">
+        <v>534.34523519444099</v>
+      </c>
+      <c r="G29" s="3">
+        <v>5.8855455143008726</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
         <v>31</v>
       </c>
@@ -1772,8 +1952,14 @@
       <c r="E30" s="3">
         <v>19.40303245816466</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F30" s="3">
+        <v>552.84375109331233</v>
+      </c>
+      <c r="G30" s="3">
+        <v>5.4542837945531346</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
         <v>32</v>
       </c>
@@ -1789,8 +1975,14 @@
       <c r="E31" s="3">
         <v>24.43378720089251</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F31" s="3">
+        <v>538.51900012104329</v>
+      </c>
+      <c r="G31" s="3">
+        <v>8.1444045874827111</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
         <v>33</v>
       </c>
@@ -1806,8 +1998,14 @@
       <c r="E32" s="3">
         <v>20.087585421832273</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F32" s="3">
+        <v>547.87736621464978</v>
+      </c>
+      <c r="G32" s="3">
+        <v>5.9287790744726863</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
         <v>34</v>
       </c>
@@ -1823,8 +2021,14 @@
       <c r="E33" s="3">
         <v>24.654208515502944</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F33" s="3">
+        <v>558.70670892138821</v>
+      </c>
+      <c r="G33" s="3">
+        <v>7.2259735173653326</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
         <v>35</v>
       </c>
@@ -1840,8 +2044,14 @@
       <c r="E34" s="3">
         <v>27.438184160687513</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F34" s="3">
+        <v>553.80925943114039</v>
+      </c>
+      <c r="G34" s="3">
+        <v>8.3383733153356161</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
         <v>36</v>
       </c>
@@ -1857,8 +2067,14 @@
       <c r="E35" s="3">
         <v>20.503391818492503</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F35" s="3">
+        <v>548.39068620702255</v>
+      </c>
+      <c r="G35" s="3">
+        <v>6.1649596384959295</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
         <v>37</v>
       </c>
@@ -1874,8 +2090,14 @@
       <c r="E36" s="3">
         <v>19.758871487294869</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F36" s="3">
+        <v>554.50230594705442</v>
+      </c>
+      <c r="G36" s="3">
+        <v>7.2648520869560684</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
         <v>38</v>
       </c>
@@ -1891,8 +2113,14 @@
       <c r="E37" s="3">
         <v>22.001244932417535</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F37" s="3">
+        <v>548.14498582004398</v>
+      </c>
+      <c r="G37" s="3">
+        <v>6.1725980770095816</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
         <v>39</v>
       </c>
@@ -1908,8 +2136,14 @@
       <c r="E38" s="3">
         <v>23.178148146593799</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F38" s="3">
+        <v>550.41820086366488</v>
+      </c>
+      <c r="G38" s="3">
+        <v>7.8064029811986302</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
         <v>40</v>
       </c>
@@ -1925,8 +2159,14 @@
       <c r="E39" s="3">
         <v>18.824047986436256</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F39" s="3">
+        <v>560.02744064305602</v>
+      </c>
+      <c r="G39" s="3">
+        <v>6.8454136007175634</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
         <v>41</v>
       </c>
@@ -1942,8 +2182,14 @@
       <c r="E40" s="3">
         <v>20.271368055148855</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F40" s="3">
+        <v>550.24000642981252</v>
+      </c>
+      <c r="G40" s="3">
+        <v>6.5197302762450136</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
         <v>42</v>
       </c>
@@ -1959,8 +2205,14 @@
       <c r="E41" s="3">
         <v>16.018806469143726</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F41" s="3">
+        <v>549.70272642758266</v>
+      </c>
+      <c r="G41" s="3">
+        <v>5.1052141707916121</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
         <v>43</v>
       </c>
@@ -1976,8 +2228,14 @@
       <c r="E42" s="3">
         <v>21.860660367771317</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F42" s="3">
+        <v>546.59042324949428</v>
+      </c>
+      <c r="G42" s="3">
+        <v>6.1833082282811915</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
         <v>44</v>
       </c>
@@ -1993,8 +2251,14 @@
       <c r="E43" s="3">
         <v>15.400061175647068</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F43" s="3">
+        <v>551.15674281953545</v>
+      </c>
+      <c r="G43" s="3">
+        <v>6.7089232006588873</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
         <v>45</v>
       </c>
@@ -2010,8 +2274,14 @@
       <c r="E44" s="3">
         <v>23.917509270154369</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F44" s="3">
+        <v>558.18340357094826</v>
+      </c>
+      <c r="G44" s="3">
+        <v>10.283533676787783</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
         <v>46</v>
       </c>
@@ -2027,8 +2297,14 @@
       <c r="E45" s="3">
         <v>21.310706675679171</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F45" s="3">
+        <v>562.69479342223053</v>
+      </c>
+      <c r="G45" s="3">
+        <v>6.7556807073653431</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A46" s="1" t="s">
         <v>47</v>
       </c>
@@ -2044,8 +2320,14 @@
       <c r="E46" s="3">
         <v>22.274013276226128</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F46" s="3">
+        <v>553.45557897331469</v>
+      </c>
+      <c r="G46" s="3">
+        <v>6.3109893574933267</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
         <v>48</v>
       </c>
@@ -2061,8 +2343,14 @@
       <c r="E47" s="3">
         <v>18.604166502639657</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F47" s="3">
+        <v>558.78142657239277</v>
+      </c>
+      <c r="G47" s="3">
+        <v>5.169400677779322</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
         <v>49</v>
       </c>
@@ -2078,8 +2366,14 @@
       <c r="E48" s="3">
         <v>12.294044577965337</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F48" s="3">
+        <v>554.85804688449514</v>
+      </c>
+      <c r="G48" s="3">
+        <v>5.3804556502341256</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A49" s="1" t="s">
         <v>50</v>
       </c>
@@ -2095,8 +2389,14 @@
       <c r="E49" s="3">
         <v>16.363304812781053</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F49" s="3">
+        <v>556.41076531011754</v>
+      </c>
+      <c r="G49" s="3">
+        <v>5.7722820047925438</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A50" s="1" t="s">
         <v>51</v>
       </c>
@@ -2112,8 +2412,14 @@
       <c r="E50" s="3">
         <v>21.080385893945959</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F50" s="3">
+        <v>565.26811451136246</v>
+      </c>
+      <c r="G50" s="3">
+        <v>8.3745735034471522</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A51" s="1" t="s">
         <v>52</v>
       </c>
@@ -2129,8 +2435,14 @@
       <c r="E51" s="3">
         <v>20.009050289061122</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F51" s="3">
+        <v>556.93018481897229</v>
+      </c>
+      <c r="G51" s="3">
+        <v>6.7829642296165389</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A52" s="1" t="s">
         <v>53</v>
       </c>
@@ -2146,8 +2458,14 @@
       <c r="E52" s="3">
         <v>26.827800050978055</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F52" s="3">
+        <v>566.31913082130836</v>
+      </c>
+      <c r="G52" s="3">
+        <v>8.5406269733448426</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A53" s="1" t="s">
         <v>54</v>
       </c>
@@ -2163,8 +2481,14 @@
       <c r="E53" s="3">
         <v>21.062991564643312</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F53" s="3">
+        <v>558.64942642731114</v>
+      </c>
+      <c r="G53" s="3">
+        <v>5.9064321258691166</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A54" s="1" t="s">
         <v>55</v>
       </c>
@@ -2180,8 +2504,14 @@
       <c r="E54" s="3">
         <v>20.67483350539959</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F54" s="3">
+        <v>554.62559734406989</v>
+      </c>
+      <c r="G54" s="3">
+        <v>7.638633418751283</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A55" s="1" t="s">
         <v>56</v>
       </c>
@@ -2197,8 +2527,14 @@
       <c r="E55" s="3">
         <v>19.368242537905985</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F55" s="3">
+        <v>555.78335130351081</v>
+      </c>
+      <c r="G55" s="3">
+        <v>6.3886921920563395</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A56" s="1" t="s">
         <v>57</v>
       </c>
@@ -2214,8 +2550,14 @@
       <c r="E56" s="3">
         <v>23.616683841455654</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F56" s="3">
+        <v>564.73248430677324</v>
+      </c>
+      <c r="G56" s="3">
+        <v>6.9415856104560589</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A57" s="1" t="s">
         <v>58</v>
       </c>
@@ -2231,8 +2573,14 @@
       <c r="E57" s="3">
         <v>23.159664641773816</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F57" s="3">
+        <v>555.69096208645476</v>
+      </c>
+      <c r="G57" s="3">
+        <v>8.2443288584061065</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A58" s="1" t="s">
         <v>59</v>
       </c>
@@ -2248,8 +2596,14 @@
       <c r="E58" s="3">
         <v>19.666620022161453</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F58" s="3">
+        <v>558.89960888002474</v>
+      </c>
+      <c r="G58" s="3">
+        <v>5.7114847424545019</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A59" s="1" t="s">
         <v>60</v>
       </c>
@@ -2265,8 +2619,14 @@
       <c r="E59" s="3">
         <v>19.976848721547753</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F59" s="3">
+        <v>565.77263939072634</v>
+      </c>
+      <c r="G59" s="3">
+        <v>6.0666801515390034</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A60" s="1" t="s">
         <v>61</v>
       </c>
@@ -2282,8 +2642,14 @@
       <c r="E60" s="3">
         <v>20.266523873093149</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F60" s="3">
+        <v>559.96156591640397</v>
+      </c>
+      <c r="G60" s="3">
+        <v>6.8414297076924981</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A61" s="1" t="s">
         <v>62</v>
       </c>
@@ -2299,8 +2665,14 @@
       <c r="E61" s="3">
         <v>25.002561869798058</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F61" s="3">
+        <v>562.47127076040181</v>
+      </c>
+      <c r="G61" s="3">
+        <v>7.2006736662401636</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A62" s="1" t="s">
         <v>63</v>
       </c>
@@ -2316,8 +2688,14 @@
       <c r="E62" s="3">
         <v>17.722115746937561</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F62" s="3">
+        <v>572.71047496883853</v>
+      </c>
+      <c r="G62" s="3">
+        <v>6.8539866030507142</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A63" s="1" t="s">
         <v>64</v>
       </c>
@@ -2333,8 +2711,14 @@
       <c r="E63" s="3">
         <v>18.61758110575812</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F63" s="3">
+        <v>560.67360079311516</v>
+      </c>
+      <c r="G63" s="3">
+        <v>6.8766494756470138</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A64" s="1" t="s">
         <v>65</v>
       </c>
@@ -2350,8 +2734,14 @@
       <c r="E64" s="3">
         <v>18.464440982084227</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F64" s="3">
+        <v>564.50204973164603</v>
+      </c>
+      <c r="G64" s="3">
+        <v>5.3106280089610323</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A65" s="1" t="s">
         <v>66</v>
       </c>
@@ -2367,8 +2757,14 @@
       <c r="E65" s="3">
         <v>16.978264924147197</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F65" s="3">
+        <v>563.59870869773852</v>
+      </c>
+      <c r="G65" s="3">
+        <v>5.8174348666726701</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A66" s="1" t="s">
         <v>67</v>
       </c>
@@ -2384,8 +2780,14 @@
       <c r="E66" s="3">
         <v>18.246260721818032</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F66" s="3">
+        <v>564.11750725159732</v>
+      </c>
+      <c r="G66" s="3">
+        <v>5.565276646799532</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A67" s="1" t="s">
         <v>68</v>
       </c>
@@ -2401,8 +2803,14 @@
       <c r="E67" s="3">
         <v>19.273032492899176</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F67" s="3">
+        <v>564.90891078634843</v>
+      </c>
+      <c r="G67" s="3">
+        <v>7.2365454187945488</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A68" s="1" t="s">
         <v>69</v>
       </c>
@@ -2418,8 +2826,14 @@
       <c r="E68" s="3">
         <v>18.759883595137012</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F68" s="3">
+        <v>568.82504664774422</v>
+      </c>
+      <c r="G68" s="3">
+        <v>5.6483096679415326</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A69" s="1" t="s">
         <v>70</v>
       </c>
@@ -2435,8 +2849,14 @@
       <c r="E69" s="3">
         <v>18.144633710794437</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F69" s="3">
+        <v>568.10989125632807</v>
+      </c>
+      <c r="G69" s="3">
+        <v>5.5146519970150507</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A70" s="1" t="s">
         <v>71</v>
       </c>
@@ -2452,8 +2872,14 @@
       <c r="E70" s="3">
         <v>25.485098762429004</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F70" s="3">
+        <v>559.98686908795639</v>
+      </c>
+      <c r="G70" s="3">
+        <v>7.0971633247681325</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A71" s="1" t="s">
         <v>72</v>
       </c>
@@ -2469,8 +2895,14 @@
       <c r="E71" s="3">
         <v>20.950378477781385</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F71" s="3">
+        <v>569.04275630776954</v>
+      </c>
+      <c r="G71" s="3">
+        <v>6.1918302719356006</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A72" s="1" t="s">
         <v>73</v>
       </c>
@@ -2486,8 +2918,14 @@
       <c r="E72" s="3">
         <v>19.80679790445555</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F72" s="3">
+        <v>567.87638153283615</v>
+      </c>
+      <c r="G72" s="3">
+        <v>6.6314077720758178</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A73" s="1" t="s">
         <v>74</v>
       </c>
@@ -2503,8 +2941,14 @@
       <c r="E73" s="3">
         <v>22.69387914109592</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F73" s="3">
+        <v>567.64895957025362</v>
+      </c>
+      <c r="G73" s="3">
+        <v>6.632928778522114</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A74" s="1" t="s">
         <v>75</v>
       </c>
@@ -2520,8 +2964,14 @@
       <c r="E74" s="3">
         <v>17.731097993773517</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F74" s="3">
+        <v>559.82246923120783</v>
+      </c>
+      <c r="G74" s="3">
+        <v>5.2677971260958998</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A75" s="1" t="s">
         <v>76</v>
       </c>
@@ -2537,8 +2987,14 @@
       <c r="E75" s="3">
         <v>19.028122903579742</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F75" s="3">
+        <v>567.53225286724444</v>
+      </c>
+      <c r="G75" s="3">
+        <v>9.8763802339091171</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A76" s="1" t="s">
         <v>77</v>
       </c>
@@ -2554,8 +3010,14 @@
       <c r="E76" s="3">
         <v>22.82605381772197</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F76" s="3">
+        <v>565.0498206097584</v>
+      </c>
+      <c r="G76" s="3">
+        <v>6.8258334838837982</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A77" s="1" t="s">
         <v>78</v>
       </c>
@@ -2571,8 +3033,14 @@
       <c r="E77" s="3">
         <v>24.464386261889842</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F77" s="3">
+        <v>562.53276265574004</v>
+      </c>
+      <c r="G77" s="3">
+        <v>6.8132339594995983</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A78" s="1" t="s">
         <v>79</v>
       </c>
@@ -2588,8 +3056,14 @@
       <c r="E78" s="3">
         <v>20.470496562784831</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F78" s="3">
+        <v>575.16771379044872</v>
+      </c>
+      <c r="G78" s="3">
+        <v>7.9768898338843428</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A79" s="1" t="s">
         <v>80</v>
       </c>
@@ -2605,8 +3079,14 @@
       <c r="E79" s="3">
         <v>21.292188554832762</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F79" s="3">
+        <v>569.41447894231828</v>
+      </c>
+      <c r="G79" s="3">
+        <v>7.0904982262619569</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A80" s="1" t="s">
         <v>81</v>
       </c>
@@ -2622,8 +3102,14 @@
       <c r="E80" s="3">
         <v>25.54864130534105</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F80" s="3">
+        <v>568.58704513503983</v>
+      </c>
+      <c r="G80" s="3">
+        <v>7.2233115143284294</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A81" s="1" t="s">
         <v>82</v>
       </c>
@@ -2639,8 +3125,14 @@
       <c r="E81" s="3">
         <v>17.802097332268033</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F81" s="3">
+        <v>577.04194340698029</v>
+      </c>
+      <c r="G81" s="3">
+        <v>6.66130153290095</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A82" s="1" t="s">
         <v>83</v>
       </c>
@@ -2656,8 +3148,14 @@
       <c r="E82" s="3">
         <v>16.183999286895016</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F82" s="3">
+        <v>566.1472184601588</v>
+      </c>
+      <c r="G82" s="3">
+        <v>6.0785515108589721</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A83" s="1" t="s">
         <v>84</v>
       </c>
@@ -2673,8 +3171,14 @@
       <c r="E83" s="3">
         <v>26.268555364016891</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F83" s="3">
+        <v>569.87893234398825</v>
+      </c>
+      <c r="G83" s="3">
+        <v>7.8573279127641058</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A84" s="1" t="s">
         <v>85</v>
       </c>
@@ -2690,8 +3194,14 @@
       <c r="E84" s="3">
         <v>24.357066655900383</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F84" s="3">
+        <v>566.36522981394523</v>
+      </c>
+      <c r="G84" s="3">
+        <v>6.8743874122454258</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A85" s="1" t="s">
         <v>86</v>
       </c>
@@ -2707,8 +3217,14 @@
       <c r="E85" s="3">
         <v>26.837505753859375</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F85" s="3">
+        <v>583.784398492685</v>
+      </c>
+      <c r="G85" s="3">
+        <v>7.7127403986093555</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A86" s="1" t="s">
         <v>87</v>
       </c>
@@ -2724,8 +3240,14 @@
       <c r="E86" s="3">
         <v>26.302765423857579</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F86" s="3">
+        <v>573.46032638491829</v>
+      </c>
+      <c r="G86" s="3">
+        <v>7.9388977643621388</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A87" s="1" t="s">
         <v>88</v>
       </c>
@@ -2741,8 +3263,14 @@
       <c r="E87" s="3">
         <v>21.839788806955255</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F87" s="3">
+        <v>576.89951701977645</v>
+      </c>
+      <c r="G87" s="3">
+        <v>7.0724531453248005</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A88" s="1" t="s">
         <v>89</v>
       </c>
@@ -2758,8 +3286,14 @@
       <c r="E88" s="3">
         <v>16.885816153784845</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F88" s="3">
+        <v>572.19093158274472</v>
+      </c>
+      <c r="G88" s="3">
+        <v>6.4044238003446026</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A89" s="1" t="s">
         <v>90</v>
       </c>
@@ -2775,8 +3309,14 @@
       <c r="E89" s="3">
         <v>24.364130157366276</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F89" s="3">
+        <v>568.11466748337148</v>
+      </c>
+      <c r="G89" s="3">
+        <v>6.935647334990847</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A90" s="1" t="s">
         <v>91</v>
       </c>
@@ -2792,8 +3332,14 @@
       <c r="E90" s="3">
         <v>19.601387294642109</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F90" s="3">
+        <v>575.78496711546779</v>
+      </c>
+      <c r="G90" s="3">
+        <v>5.8443140792184067</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A91" s="1" t="s">
         <v>92</v>
       </c>
@@ -2809,8 +3355,14 @@
       <c r="E91" s="3">
         <v>23.567481149106527</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F91" s="3">
+        <v>571.52036795894549</v>
+      </c>
+      <c r="G91" s="3">
+        <v>8.0124630356447142</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A92" s="1" t="s">
         <v>93</v>
       </c>
@@ -2826,8 +3378,14 @@
       <c r="E92" s="3">
         <v>22.021192373063855</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F92" s="3">
+        <v>582.97187962541466</v>
+      </c>
+      <c r="G92" s="3">
+        <v>8.7453369179530682</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A93" s="1" t="s">
         <v>94</v>
       </c>
@@ -2843,8 +3401,14 @@
       <c r="E93" s="3">
         <v>26.303168931378764</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F93" s="3">
+        <v>575.64616831304795</v>
+      </c>
+      <c r="G93" s="3">
+        <v>7.0136576374001152</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A94" s="1" t="s">
         <v>95</v>
       </c>
@@ -2860,8 +3424,14 @@
       <c r="E94" s="3">
         <v>19.316886599349061</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F94" s="3">
+        <v>583.32013115286225</v>
+      </c>
+      <c r="G94" s="3">
+        <v>6.0949099683437566</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A95" s="1" t="s">
         <v>96</v>
       </c>
@@ -2877,8 +3447,14 @@
       <c r="E95" s="3">
         <v>22.952123109937418</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F95" s="3">
+        <v>572.47014647366132</v>
+      </c>
+      <c r="G95" s="3">
+        <v>8.0662195862554995</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A96" s="1" t="s">
         <v>97</v>
       </c>
@@ -2894,8 +3470,14 @@
       <c r="E96" s="3">
         <v>16.347379183008229</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F96" s="3">
+        <v>579.47520571907341</v>
+      </c>
+      <c r="G96" s="3">
+        <v>5.9272522844637479</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A97" s="1" t="s">
         <v>98</v>
       </c>
@@ -2911,8 +3493,14 @@
       <c r="E97" s="3">
         <v>24.961611522545581</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F97" s="3">
+        <v>574.46110435280411</v>
+      </c>
+      <c r="G97" s="3">
+        <v>7.1328491799424114</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A98" s="1" t="s">
         <v>99</v>
       </c>
@@ -2928,8 +3516,14 @@
       <c r="E98" s="3">
         <v>28.10690107361404</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F98" s="3">
+        <v>582.39187417155347</v>
+      </c>
+      <c r="G98" s="3">
+        <v>7.7792353867858992</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A99" s="1" t="s">
         <v>100</v>
       </c>
@@ -2945,8 +3539,14 @@
       <c r="E99" s="3">
         <v>24.363373573141587</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F99" s="3">
+        <v>575.90584001893387</v>
+      </c>
+      <c r="G99" s="3">
+        <v>6.7679935513091891</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A100" s="1" t="s">
         <v>101</v>
       </c>
@@ -2962,8 +3562,14 @@
       <c r="E100" s="3">
         <v>21.466627950012878</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F100" s="3">
+        <v>578.14367869633622</v>
+      </c>
+      <c r="G100" s="3">
+        <v>6.2852139759469878</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A101" s="1" t="s">
         <v>102</v>
       </c>
@@ -2979,8 +3585,14 @@
       <c r="E101" s="3">
         <v>19.008702043448579</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F101" s="3">
+        <v>575.51332459695652</v>
+      </c>
+      <c r="G101" s="3">
+        <v>6.4371406148232495</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A102" s="1" t="s">
         <v>103</v>
       </c>
@@ -2996,8 +3608,14 @@
       <c r="E102" s="3">
         <v>24.630892910767898</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F102" s="3">
+        <v>579.89514607180399</v>
+      </c>
+      <c r="G102" s="3">
+        <v>7.3376822252297416</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A103" s="1" t="s">
         <v>104</v>
       </c>
@@ -3013,8 +3631,14 @@
       <c r="E103" s="3">
         <v>22.161792502891842</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F103" s="3">
+        <v>581.72716842955435</v>
+      </c>
+      <c r="G103" s="3">
+        <v>6.6558724007897467</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A104" s="1" t="s">
         <v>105</v>
       </c>
@@ -3030,8 +3654,14 @@
       <c r="E104" s="3">
         <v>21.063383122513187</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F104" s="3">
+        <v>582.76521199521574</v>
+      </c>
+      <c r="G104" s="3">
+        <v>6.7990313929955164</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A105" s="1" t="s">
         <v>106</v>
       </c>
@@ -3047,8 +3677,14 @@
       <c r="E105" s="3">
         <v>23.865199986424329</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F105" s="3">
+        <v>580.6627151248739</v>
+      </c>
+      <c r="G105" s="3">
+        <v>6.8610544482044702</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A106" s="1" t="s">
         <v>107</v>
       </c>
@@ -3064,8 +3700,14 @@
       <c r="E106" s="3">
         <v>27.504854862433717</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F106" s="3">
+        <v>583.38745697279114</v>
+      </c>
+      <c r="G106" s="3">
+        <v>8.0378452665581221</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A107" s="1" t="s">
         <v>108</v>
       </c>
@@ -3081,8 +3723,14 @@
       <c r="E107" s="3">
         <v>26.187526889874221</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F107" s="3">
+        <v>572.64342842416556</v>
+      </c>
+      <c r="G107" s="3">
+        <v>7.1430360993747399</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A108" s="1" t="s">
         <v>109</v>
       </c>
@@ -3098,8 +3746,14 @@
       <c r="E108" s="3">
         <v>16.332648224729553</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F108" s="3">
+        <v>578.73479271560052</v>
+      </c>
+      <c r="G108" s="3">
+        <v>6.4543270658094798</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A109" s="1" t="s">
         <v>110</v>
       </c>
@@ -3115,8 +3769,14 @@
       <c r="E109" s="3">
         <v>19.766497047274413</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F109" s="3">
+        <v>577.79698632054522</v>
+      </c>
+      <c r="G109" s="3">
+        <v>6.3572237148756017</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A110" s="1" t="s">
         <v>111</v>
       </c>
@@ -3132,8 +3792,14 @@
       <c r="E110" s="3">
         <v>34.374455990598335</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F110" s="3">
+        <v>595.60744908726099</v>
+      </c>
+      <c r="G110" s="3">
+        <v>9.4095818366727144</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A111" s="1" t="s">
         <v>112</v>
       </c>
@@ -3149,8 +3815,14 @@
       <c r="E111" s="3">
         <v>21.243767590428263</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F111" s="3">
+        <v>583.42082751376734</v>
+      </c>
+      <c r="G111" s="3">
+        <v>7.5563993165229704</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A112" s="1" t="s">
         <v>113</v>
       </c>
@@ -3166,8 +3838,14 @@
       <c r="E112" s="3">
         <v>19.308195183248984</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F112" s="3">
+        <v>584.8850783794486</v>
+      </c>
+      <c r="G112" s="3">
+        <v>6.8686653930458874</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A113" s="1" t="s">
         <v>114</v>
       </c>
@@ -3183,8 +3861,14 @@
       <c r="E113" s="3">
         <v>23.786895980039048</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F113" s="3">
+        <v>586.0912861285085</v>
+      </c>
+      <c r="G113" s="3">
+        <v>6.6796688716179347</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A114" s="1" t="s">
         <v>115</v>
       </c>
@@ -3200,8 +3884,14 @@
       <c r="E114" s="3">
         <v>15.114893853852834</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F114" s="3">
+        <v>585.29089371101998</v>
+      </c>
+      <c r="G114" s="3">
+        <v>5.3616961439587953</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A115" s="1" t="s">
         <v>116</v>
       </c>
@@ -3217,8 +3907,14 @@
       <c r="E115" s="3">
         <v>22.399530277851852</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F115" s="3">
+        <v>587.05869805525163</v>
+      </c>
+      <c r="G115" s="3">
+        <v>6.998316688771979</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A116" s="1" t="s">
         <v>117</v>
       </c>
@@ -3234,8 +3930,14 @@
       <c r="E116" s="3">
         <v>24.528149911525304</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F116" s="3">
+        <v>590.46933738665689</v>
+      </c>
+      <c r="G116" s="3">
+        <v>7.8736731509276865</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A117" s="1" t="s">
         <v>118</v>
       </c>
@@ -3251,8 +3953,14 @@
       <c r="E117" s="3">
         <v>19.772277971104472</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F117" s="3">
+        <v>582.45712681310374</v>
+      </c>
+      <c r="G117" s="3">
+        <v>6.3550686729154222</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A118" s="1" t="s">
         <v>119</v>
       </c>
@@ -3268,8 +3976,14 @@
       <c r="E118" s="3">
         <v>37.798105801882002</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F118" s="3">
+        <v>583.33467895083015</v>
+      </c>
+      <c r="G118" s="3">
+        <v>9.7787930198154527</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A119" s="1" t="s">
         <v>120</v>
       </c>
@@ -3285,8 +3999,14 @@
       <c r="E119" s="3">
         <v>22.227883066729646</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F119" s="3">
+        <v>590.14116314580406</v>
+      </c>
+      <c r="G119" s="3">
+        <v>7.6276982797222672</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A120" s="1" t="s">
         <v>121</v>
       </c>
@@ -3302,8 +4022,14 @@
       <c r="E120" s="3">
         <v>22.335694514171564</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F120" s="3">
+        <v>586.68793675634686</v>
+      </c>
+      <c r="G120" s="3">
+        <v>6.1885915957836914</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A121" s="1" t="s">
         <v>122</v>
       </c>
@@ -3319,8 +4045,14 @@
       <c r="E121" s="3">
         <v>21.085113746293018</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F121" s="3">
+        <v>584.91143991469107</v>
+      </c>
+      <c r="G121" s="3">
+        <v>6.2265654632444125</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A122" s="1" t="s">
         <v>123</v>
       </c>
@@ -3336,8 +4068,14 @@
       <c r="E122" s="3">
         <v>27.162891439184023</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F122" s="3">
+        <v>593.51690514082384</v>
+      </c>
+      <c r="G122" s="3">
+        <v>7.6594771628384137</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A123" s="1" t="s">
         <v>124</v>
       </c>
@@ -3353,8 +4091,14 @@
       <c r="E123" s="3">
         <v>30.058354624396713</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F123" s="3">
+        <v>592.82330337663677</v>
+      </c>
+      <c r="G123" s="3">
+        <v>8.3080304070511488</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A124" s="1" t="s">
         <v>125</v>
       </c>
@@ -3370,8 +4114,14 @@
       <c r="E124" s="3">
         <v>18.314274267486269</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F124" s="3">
+        <v>592.75786713840637</v>
+      </c>
+      <c r="G124" s="3">
+        <v>7.054849214621413</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A125" s="1" t="s">
         <v>126</v>
       </c>
@@ -3387,8 +4137,14 @@
       <c r="E125" s="3">
         <v>17.487850199439663</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F125" s="3">
+        <v>597.9803361962222</v>
+      </c>
+      <c r="G125" s="3">
+        <v>6.8070098370189385</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A126" s="1" t="s">
         <v>127</v>
       </c>
@@ -3404,8 +4160,14 @@
       <c r="E126" s="3">
         <v>19.547355071019695</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F126" s="3">
+        <v>588.19782176896797</v>
+      </c>
+      <c r="G126" s="3">
+        <v>5.2988416680907449</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A127" s="1" t="s">
         <v>128</v>
       </c>
@@ -3421,8 +4183,14 @@
       <c r="E127" s="3">
         <v>18.519850663954458</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F127" s="3">
+        <v>598.81563404465521</v>
+      </c>
+      <c r="G127" s="3">
+        <v>7.4544834248413281</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A128" s="1" t="s">
         <v>129</v>
       </c>
@@ -3438,8 +4206,14 @@
       <c r="E128" s="3">
         <v>27.040416785692628</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F128" s="3">
+        <v>596.70291924216849</v>
+      </c>
+      <c r="G128" s="3">
+        <v>8.5056482876495352</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A129" s="1" t="s">
         <v>130</v>
       </c>
@@ -3455,8 +4229,14 @@
       <c r="E129" s="3">
         <v>21.109115292605622</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F129" s="3">
+        <v>596.13306723276094</v>
+      </c>
+      <c r="G129" s="3">
+        <v>6.702284408780713</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A130" s="1" t="s">
         <v>131</v>
       </c>
@@ -3472,8 +4252,14 @@
       <c r="E130" s="3">
         <v>21.759031569755393</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F130" s="3">
+        <v>592.26511461668849</v>
+      </c>
+      <c r="G130" s="3">
+        <v>6.4384831601419705</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A131" s="1" t="s">
         <v>132</v>
       </c>
@@ -3489,8 +4275,14 @@
       <c r="E131" s="3">
         <v>24.734921400637461</v>
       </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F131" s="3">
+        <v>594.81464283304695</v>
+      </c>
+      <c r="G131" s="3">
+        <v>8.9424596113073562</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A132" s="1" t="s">
         <v>133</v>
       </c>
@@ -3506,8 +4298,14 @@
       <c r="E132" s="3">
         <v>21.270314566775596</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F132" s="3">
+        <v>606.04417658636851</v>
+      </c>
+      <c r="G132" s="3">
+        <v>8.2054177285563696</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A133" s="1" t="s">
         <v>134</v>
       </c>
@@ -3523,8 +4321,14 @@
       <c r="E133" s="3">
         <v>20.98338867326197</v>
       </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F133" s="3">
+        <v>594.38203436178958</v>
+      </c>
+      <c r="G133" s="3">
+        <v>7.576877269661793</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A134" s="1" t="s">
         <v>135</v>
       </c>
@@ -3540,8 +4344,14 @@
       <c r="E134" s="3">
         <v>21.240426567040913</v>
       </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F134" s="3">
+        <v>589.38963855236909</v>
+      </c>
+      <c r="G134" s="3">
+        <v>7.7237862780214641</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A135" s="1" t="s">
         <v>136</v>
       </c>
@@ -3557,8 +4367,14 @@
       <c r="E135" s="3">
         <v>24.990236851190105</v>
       </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F135" s="3">
+        <v>601.36262017881086</v>
+      </c>
+      <c r="G135" s="3">
+        <v>6.9280930329125567</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A136" s="1" t="s">
         <v>137</v>
       </c>
@@ -3574,8 +4390,14 @@
       <c r="E136" s="3">
         <v>33.273028586144108</v>
       </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F136" s="3">
+        <v>593.51901176471563</v>
+      </c>
+      <c r="G136" s="3">
+        <v>8.9912028312965617</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A137" s="1" t="s">
         <v>138</v>
       </c>
@@ -3591,8 +4413,14 @@
       <c r="E137" s="3">
         <v>17.890427015379089</v>
       </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F137" s="3">
+        <v>593.20999541607944</v>
+      </c>
+      <c r="G137" s="3">
+        <v>7.353793796386924</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A138" s="1" t="s">
         <v>139</v>
       </c>
@@ -3608,8 +4436,14 @@
       <c r="E138" s="3">
         <v>20.35695363117145</v>
       </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F138" s="3">
+        <v>594.57049281512639</v>
+      </c>
+      <c r="G138" s="3">
+        <v>7.8190583070127104</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A139" s="1" t="s">
         <v>140</v>
       </c>
@@ -3625,8 +4459,14 @@
       <c r="E139" s="3">
         <v>28.165055514389394</v>
       </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F139" s="3">
+        <v>602.07197436902629</v>
+      </c>
+      <c r="G139" s="3">
+        <v>7.7047401870466388</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A140" s="1" t="s">
         <v>141</v>
       </c>
@@ -3642,8 +4482,14 @@
       <c r="E140" s="3">
         <v>23.110619042037911</v>
       </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F140" s="3">
+        <v>598.610620368902</v>
+      </c>
+      <c r="G140" s="3">
+        <v>8.884956182878625</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A141" s="1" t="s">
         <v>142</v>
       </c>
@@ -3659,8 +4505,14 @@
       <c r="E141" s="3">
         <v>22.421659228266321</v>
       </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F141" s="3">
+        <v>614.18108802563461</v>
+      </c>
+      <c r="G141" s="3">
+        <v>7.6208319785873755</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A142" s="1" t="s">
         <v>143</v>
       </c>
@@ -3676,8 +4528,14 @@
       <c r="E142" s="3">
         <v>31.460899875200312</v>
       </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F142" s="3">
+        <v>596.01948286298534</v>
+      </c>
+      <c r="G142" s="3">
+        <v>8.8148487248690799</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A143" s="1" t="s">
         <v>144</v>
       </c>
@@ -3693,8 +4551,14 @@
       <c r="E143" s="3">
         <v>33.525368402955849</v>
       </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F143" s="3">
+        <v>601.73816627965721</v>
+      </c>
+      <c r="G143" s="3">
+        <v>9.8618269824197</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A144" s="1" t="s">
         <v>145</v>
       </c>
@@ -3710,8 +4574,14 @@
       <c r="E144" s="3">
         <v>29.455288502558062</v>
       </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F144" s="3">
+        <v>601.05407993246274</v>
+      </c>
+      <c r="G144" s="3">
+        <v>8.6893745906680238</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A145" s="1" t="s">
         <v>146</v>
       </c>
@@ -3727,8 +4597,14 @@
       <c r="E145" s="3">
         <v>20.565790092159318</v>
       </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F145" s="3">
+        <v>598.57874980524684</v>
+      </c>
+      <c r="G145" s="3">
+        <v>7.8278227341971274</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A146" s="1" t="s">
         <v>147</v>
       </c>
@@ -3744,8 +4620,14 @@
       <c r="E146" s="3">
         <v>17.796898155121596</v>
       </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F146" s="3">
+        <v>610.09065777749606</v>
+      </c>
+      <c r="G146" s="3">
+        <v>6.7188719488231072</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A147" s="1" t="s">
         <v>148</v>
       </c>
@@ -3761,8 +4643,14 @@
       <c r="E147" s="3">
         <v>24.849319260712036</v>
       </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F147" s="3">
+        <v>612.06315368437527</v>
+      </c>
+      <c r="G147" s="3">
+        <v>9.4558005516030903</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A148" s="1" t="s">
         <v>149</v>
       </c>
@@ -3778,8 +4666,14 @@
       <c r="E148" s="3">
         <v>29.710051388466866</v>
       </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F148" s="3">
+        <v>609.15209758978961</v>
+      </c>
+      <c r="G148" s="3">
+        <v>8.9263367765310022</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A149" s="1" t="s">
         <v>150</v>
       </c>
@@ -3795,8 +4689,14 @@
       <c r="E149" s="3">
         <v>18.093835376356253</v>
       </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F149" s="3">
+        <v>605.9940289343715</v>
+      </c>
+      <c r="G149" s="3">
+        <v>7.1745038239781138</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A150" s="1" t="s">
         <v>151</v>
       </c>
@@ -3812,8 +4712,14 @@
       <c r="E150" s="3">
         <v>19.152133990709785</v>
       </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F150" s="3">
+        <v>613.76367131593577</v>
+      </c>
+      <c r="G150" s="3">
+        <v>5.8405229009350705</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A151" s="1" t="s">
         <v>152</v>
       </c>
@@ -3829,8 +4735,14 @@
       <c r="E151" s="3">
         <v>20.782647448803516</v>
       </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F151" s="3">
+        <v>614.19122039130605</v>
+      </c>
+      <c r="G151" s="3">
+        <v>6.2557351863571284</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A152" s="1" t="s">
         <v>153</v>
       </c>
@@ -3846,8 +4758,14 @@
       <c r="E152" s="3">
         <v>20.035020323730066</v>
       </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F152" s="3">
+        <v>619.04416989131892</v>
+      </c>
+      <c r="G152" s="3">
+        <v>6.3811059101528258</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A153" s="1" t="s">
         <v>154</v>
       </c>
@@ -3863,8 +4781,14 @@
       <c r="E153" s="3">
         <v>17.634500837544522</v>
       </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F153" s="3">
+        <v>620.17754654699058</v>
+      </c>
+      <c r="G153" s="3">
+        <v>5.7548504395152804</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A154" s="1" t="s">
         <v>155</v>
       </c>
@@ -3880,8 +4804,14 @@
       <c r="E154" s="3">
         <v>16.685358670782819</v>
       </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F154" s="3">
+        <v>610.38130452396024</v>
+      </c>
+      <c r="G154" s="3">
+        <v>6.7516546884622244</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A155" s="1" t="s">
         <v>156</v>
       </c>
@@ -3897,8 +4827,14 @@
       <c r="E155" s="3">
         <v>22.599215386639457</v>
       </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F155" s="3">
+        <v>612.92847918813391</v>
+      </c>
+      <c r="G155" s="3">
+        <v>7.8207412871237807</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A156" s="1" t="s">
         <v>157</v>
       </c>
@@ -3914,8 +4850,14 @@
       <c r="E156" s="3">
         <v>18.249833940936014</v>
       </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F156" s="3">
+        <v>613.87737352958516</v>
+      </c>
+      <c r="G156" s="3">
+        <v>6.2390169402344213</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A157" s="1" t="s">
         <v>158</v>
       </c>
@@ -3931,8 +4873,14 @@
       <c r="E157" s="3">
         <v>33.627676766787772</v>
       </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F157" s="3">
+        <v>608.42357547789015</v>
+      </c>
+      <c r="G157" s="3">
+        <v>9.1092860485351252</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A158" s="1" t="s">
         <v>159</v>
       </c>
@@ -3948,8 +4896,14 @@
       <c r="E158" s="3">
         <v>24.731830043790183</v>
       </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F158" s="3">
+        <v>617.21035237887941</v>
+      </c>
+      <c r="G158" s="3">
+        <v>8.7441361067939738</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A159" s="1" t="s">
         <v>160</v>
       </c>
@@ -3965,8 +4919,14 @@
       <c r="E159" s="3">
         <v>25.972552807289901</v>
       </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F159" s="3">
+        <v>620.1599632887976</v>
+      </c>
+      <c r="G159" s="3">
+        <v>9.5586262208948938</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A160" s="1" t="s">
         <v>161</v>
       </c>
@@ -3982,8 +4942,14 @@
       <c r="E160" s="3">
         <v>15.410461598651182</v>
       </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F160" s="3">
+        <v>621.8783076452645</v>
+      </c>
+      <c r="G160" s="3">
+        <v>6.1514070802336391</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A161" s="1" t="s">
         <v>162</v>
       </c>
@@ -3999,8 +4965,14 @@
       <c r="E161" s="3">
         <v>19.758189645735342</v>
       </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F161" s="3">
+        <v>620.8199200295935</v>
+      </c>
+      <c r="G161" s="3">
+        <v>7.15333452133018</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A162" s="1" t="s">
         <v>163</v>
       </c>
@@ -4016,8 +4988,14 @@
       <c r="E162" s="3">
         <v>20.428257773960979</v>
       </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F162" s="3">
+        <v>619.26442242377152</v>
+      </c>
+      <c r="G162" s="3">
+        <v>7.5523027634361029</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A163" s="1" t="s">
         <v>164</v>
       </c>
@@ -4033,8 +5011,14 @@
       <c r="E163" s="3">
         <v>16.778940769120311</v>
       </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F163" s="3">
+        <v>616.19831600435487</v>
+      </c>
+      <c r="G163" s="3">
+        <v>6.9035894672607583</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A164" s="1" t="s">
         <v>165</v>
       </c>
@@ -4050,8 +5034,14 @@
       <c r="E164" s="3">
         <v>25.842399260811078</v>
       </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F164" s="3">
+        <v>621.30557233766501</v>
+      </c>
+      <c r="G164" s="3">
+        <v>7.7193553072455643</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A165" s="1" t="s">
         <v>166</v>
       </c>
@@ -4067,8 +5057,14 @@
       <c r="E165" s="3">
         <v>27.116782853783263</v>
       </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F165" s="3">
+        <v>639.73617928385568</v>
+      </c>
+      <c r="G165" s="3">
+        <v>8.2033103225036257</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A166" s="1" t="s">
         <v>167</v>
       </c>
@@ -4084,8 +5080,14 @@
       <c r="E166" s="3">
         <v>17.038028652773846</v>
       </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F166" s="3">
+        <v>621.89050405375474</v>
+      </c>
+      <c r="G166" s="3">
+        <v>6.9156910579180249</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A167" s="1" t="s">
         <v>168</v>
       </c>
@@ -4101,8 +5103,14 @@
       <c r="E167" s="3">
         <v>19.782921183286135</v>
       </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F167" s="3">
+        <v>629.00136465760954</v>
+      </c>
+      <c r="G167" s="3">
+        <v>8.580865224239119</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A168" s="1" t="s">
         <v>169</v>
       </c>
@@ -4118,8 +5126,14 @@
       <c r="E168" s="3">
         <v>16.521285078773701</v>
       </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F168" s="3">
+        <v>624.45486047245242</v>
+      </c>
+      <c r="G168" s="3">
+        <v>5.5622785698683401</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A169" s="1" t="s">
         <v>170</v>
       </c>
@@ -4135,8 +5149,14 @@
       <c r="E169" s="3">
         <v>22.260861968088193</v>
       </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F169" s="3">
+        <v>627.46372407811202</v>
+      </c>
+      <c r="G169" s="3">
+        <v>6.669590577497388</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A170" s="1" t="s">
         <v>171</v>
       </c>
@@ -4152,8 +5172,14 @@
       <c r="E170" s="3">
         <v>22.33956511283219</v>
       </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F170" s="3">
+        <v>628.66037327973925</v>
+      </c>
+      <c r="G170" s="3">
+        <v>6.955176139354478</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A171" s="1" t="s">
         <v>172</v>
       </c>
@@ -4169,8 +5195,14 @@
       <c r="E171" s="3">
         <v>22.589606745533843</v>
       </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F171" s="3">
+        <v>644.88500140624456</v>
+      </c>
+      <c r="G171" s="3">
+        <v>8.3121500148534437</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A172" s="1" t="s">
         <v>173</v>
       </c>
@@ -4186,8 +5218,14 @@
       <c r="E172" s="3">
         <v>26.206594494967305</v>
       </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F172" s="3">
+        <v>619.72008402925951</v>
+      </c>
+      <c r="G172" s="3">
+        <v>7.5268693319648605</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A173" s="1" t="s">
         <v>174</v>
       </c>
@@ -4203,8 +5241,14 @@
       <c r="E173" s="3">
         <v>20.790140051880485</v>
       </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F173" s="3">
+        <v>652.86766027713713</v>
+      </c>
+      <c r="G173" s="3">
+        <v>7.1601328279294876</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A174" s="1" t="s">
         <v>175</v>
       </c>
@@ -4220,8 +5264,14 @@
       <c r="E174" s="3">
         <v>20.86914152619272</v>
       </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F174" s="3">
+        <v>622.39696314496041</v>
+      </c>
+      <c r="G174" s="3">
+        <v>6.7833139543790253</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A175" s="1" t="s">
         <v>176</v>
       </c>
@@ -4237,8 +5287,14 @@
       <c r="E175" s="3">
         <v>16.62973489754728</v>
       </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F175" s="3">
+        <v>623.76435403601704</v>
+      </c>
+      <c r="G175" s="3">
+        <v>5.8748544461125789</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A176" s="1" t="s">
         <v>177</v>
       </c>
@@ -4254,8 +5310,14 @@
       <c r="E176" s="3">
         <v>19.793246190490322</v>
       </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F176" s="3">
+        <v>620.03152133598189</v>
+      </c>
+      <c r="G176" s="3">
+        <v>6.5864966835333121</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A177" s="1" t="s">
         <v>178</v>
       </c>
@@ -4271,8 +5333,14 @@
       <c r="E177" s="3">
         <v>18.963253790098918</v>
       </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F177" s="3">
+        <v>640.35093192412955</v>
+      </c>
+      <c r="G177" s="3">
+        <v>5.9011744962811008</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A178" s="1" t="s">
         <v>179</v>
       </c>
@@ -4288,8 +5356,14 @@
       <c r="E178" s="3">
         <v>20.181462419484831</v>
       </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F178" s="3">
+        <v>637.3826118176969</v>
+      </c>
+      <c r="G178" s="3">
+        <v>7.2894851678694863</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A179" s="1" t="s">
         <v>180</v>
       </c>
@@ -4305,8 +5379,14 @@
       <c r="E179" s="3">
         <v>20.238825374734688</v>
       </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F179" s="3">
+        <v>627.84315946932531</v>
+      </c>
+      <c r="G179" s="3">
+        <v>7.5438623372019151</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A180" s="1" t="s">
         <v>181</v>
       </c>
@@ -4322,8 +5402,14 @@
       <c r="E180" s="3">
         <v>17.748026131291681</v>
       </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F180" s="3">
+        <v>628.13123928976233</v>
+      </c>
+      <c r="G180" s="3">
+        <v>6.6534114704825242</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A181" s="1" t="s">
         <v>182</v>
       </c>
@@ -4339,8 +5425,14 @@
       <c r="E181" s="3">
         <v>24.351784441872212</v>
       </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F181" s="3">
+        <v>645.80483199987691</v>
+      </c>
+      <c r="G181" s="3">
+        <v>7.8880616128146812</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A182" s="1" t="s">
         <v>183</v>
       </c>
@@ -4356,8 +5448,14 @@
       <c r="E182" s="3">
         <v>21.904972847735849</v>
       </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F182" s="3">
+        <v>630.14633852270345</v>
+      </c>
+      <c r="G182" s="3">
+        <v>7.5625121631134675</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A183" s="1" t="s">
         <v>184</v>
       </c>
@@ -4373,8 +5471,14 @@
       <c r="E183" s="3">
         <v>16.688568153658309</v>
       </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F183" s="3">
+        <v>630.83545836204712</v>
+      </c>
+      <c r="G183" s="3">
+        <v>6.0238192755348905</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A184" s="1" t="s">
         <v>185</v>
       </c>
@@ -4390,8 +5494,14 @@
       <c r="E184" s="3">
         <v>20.028235489423025</v>
       </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F184" s="3">
+        <v>634.95939195632559</v>
+      </c>
+      <c r="G184" s="3">
+        <v>7.1187166510611632</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A185" s="1" t="s">
         <v>186</v>
       </c>
@@ -4407,8 +5517,14 @@
       <c r="E185" s="3">
         <v>27.40886434353672</v>
       </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F185" s="3">
+        <v>636.88365864404045</v>
+      </c>
+      <c r="G185" s="3">
+        <v>8.4895086497053285</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A186" s="1" t="s">
         <v>187</v>
       </c>
@@ -4424,8 +5540,14 @@
       <c r="E186" s="3">
         <v>23.342589421445041</v>
       </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F186" s="3">
+        <v>649.00057761155972</v>
+      </c>
+      <c r="G186" s="3">
+        <v>8.2948209813502558</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A187" s="1" t="s">
         <v>188</v>
       </c>
@@ -4441,8 +5563,14 @@
       <c r="E187" s="3">
         <v>35.193751406281422</v>
       </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F187" s="3">
+        <v>632.18751350943239</v>
+      </c>
+      <c r="G187" s="3">
+        <v>10.034464070057766</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A188" s="1" t="s">
         <v>189</v>
       </c>
@@ -4458,8 +5586,14 @@
       <c r="E188" s="3">
         <v>18.256291966547849</v>
       </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F188" s="3">
+        <v>632.05470004230858</v>
+      </c>
+      <c r="G188" s="3">
+        <v>7.705320807348528</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A189" s="1" t="s">
         <v>190</v>
       </c>
@@ -4475,8 +5609,14 @@
       <c r="E189" s="3">
         <v>23.200094730292165</v>
       </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F189" s="3">
+        <v>646.28361886590778</v>
+      </c>
+      <c r="G189" s="3">
+        <v>7.1921348511218071</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A190" s="1" t="s">
         <v>191</v>
       </c>
@@ -4492,8 +5632,14 @@
       <c r="E190" s="3">
         <v>20.148665463620546</v>
       </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F190" s="3">
+        <v>638.71986714907109</v>
+      </c>
+      <c r="G190" s="3">
+        <v>7.184391417462507</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A191" s="1" t="s">
         <v>192</v>
       </c>
@@ -4509,8 +5655,14 @@
       <c r="E191" s="3">
         <v>24.700014086956003</v>
       </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F191" s="3">
+        <v>667.97156192959767</v>
+      </c>
+      <c r="G191" s="3">
+        <v>8.4908461623745097</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A192" s="1" t="s">
         <v>193</v>
       </c>
@@ -4526,8 +5678,14 @@
       <c r="E192" s="3">
         <v>19.777495025175142</v>
       </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F192" s="3">
+        <v>655.02052711373994</v>
+      </c>
+      <c r="G192" s="3">
+        <v>6.280745075288678</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A193" s="1" t="s">
         <v>194</v>
       </c>
@@ -4543,8 +5701,14 @@
       <c r="E193" s="3">
         <v>20.674377343664275</v>
       </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F193" s="3">
+        <v>659.78712048968885</v>
+      </c>
+      <c r="G193" s="3">
+        <v>8.0632174097643201</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A194" s="1" t="s">
         <v>195</v>
       </c>
@@ -4560,8 +5724,14 @@
       <c r="E194" s="3">
         <v>20.362934624710647</v>
       </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F194" s="3">
+        <v>666.02949677436845</v>
+      </c>
+      <c r="G194" s="3">
+        <v>7.3914137336645922</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A195" s="1" t="s">
         <v>196</v>
       </c>
@@ -4577,8 +5747,14 @@
       <c r="E195" s="3">
         <v>29.373569042479744</v>
       </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F195" s="3">
+        <v>668.33793343582909</v>
+      </c>
+      <c r="G195" s="3">
+        <v>8.4713638371420643</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A196" s="1" t="s">
         <v>197</v>
       </c>
@@ -4594,8 +5770,14 @@
       <c r="E196" s="3">
         <v>26.316507965734388</v>
       </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F196" s="3">
+        <v>665.57333273475092</v>
+      </c>
+      <c r="G196" s="3">
+        <v>10.389595062432022</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A197" s="1" t="s">
         <v>198</v>
       </c>
@@ -4611,8 +5793,14 @@
       <c r="E197" s="3">
         <v>18.329397843116396</v>
       </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F197" s="3">
+        <v>658.50905773761986</v>
+      </c>
+      <c r="G197" s="3">
+        <v>7.6691264704916762</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A198" s="1" t="s">
         <v>199</v>
       </c>
@@ -4628,8 +5816,14 @@
       <c r="E198" s="3">
         <v>17.145193734287886</v>
       </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F198" s="3">
+        <v>661.52524790135567</v>
+      </c>
+      <c r="G198" s="3">
+        <v>6.6740880768396664</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A199" s="1" t="s">
         <v>200</v>
       </c>
@@ -4645,8 +5839,14 @@
       <c r="E199" s="3">
         <v>17.804975992796926</v>
       </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F199" s="3">
+        <v>671.44631236576254</v>
+      </c>
+      <c r="G199" s="3">
+        <v>11.333750469910797</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A200" s="1" t="s">
         <v>201</v>
       </c>
@@ -4662,8 +5862,14 @@
       <c r="E200" s="3">
         <v>21.082509489304073</v>
       </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F200" s="3">
+        <v>676.21554884032594</v>
+      </c>
+      <c r="G200" s="3">
+        <v>7.6531454399959102</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A201" s="1" t="s">
         <v>202</v>
       </c>
@@ -4679,8 +5885,14 @@
       <c r="E201" s="3">
         <v>20.383201354481741</v>
       </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F201" s="3">
+        <v>677.84765311411365</v>
+      </c>
+      <c r="G201" s="3">
+        <v>10.552691094410875</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A202" s="1" t="s">
         <v>203</v>
       </c>
@@ -4696,8 +5908,14 @@
       <c r="E202" s="3">
         <v>27.341406254717526</v>
       </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F202" s="3">
+        <v>662.09719240804668</v>
+      </c>
+      <c r="G202" s="3">
+        <v>9.2788217426556798</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A203" s="1" t="s">
         <v>204</v>
       </c>
@@ -4713,8 +5931,14 @@
       <c r="E203" s="3">
         <v>22.357541673146216</v>
       </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F203" s="3">
+        <v>669.78103254670862</v>
+      </c>
+      <c r="G203" s="3">
+        <v>7.4616528876788948</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A204" s="1" t="s">
         <v>205</v>
       </c>
@@ -4730,8 +5954,14 @@
       <c r="E204" s="3">
         <v>33.700049209144197</v>
       </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F204" s="3">
+        <v>672.74079106222598</v>
+      </c>
+      <c r="G204" s="3">
+        <v>11.107546582244709</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A205" s="1" t="s">
         <v>206</v>
       </c>
@@ -4747,8 +5977,14 @@
       <c r="E205" s="3">
         <v>26.890826251385249</v>
       </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F205" s="3">
+        <v>672.37912602434812</v>
+      </c>
+      <c r="G205" s="3">
+        <v>8.7622333404728465</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A206" s="1" t="s">
         <v>207</v>
       </c>
@@ -4764,8 +6000,14 @@
       <c r="E206" s="3">
         <v>18.547784161821141</v>
       </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F206" s="3">
+        <v>675.25952454520234</v>
+      </c>
+      <c r="G206" s="3">
+        <v>6.5378392661706357</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A207" s="1" t="s">
         <v>208</v>
       </c>
@@ -4781,8 +6023,14 @@
       <c r="E207" s="3">
         <v>19.424498132740496</v>
       </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F207" s="3">
+        <v>710.88448178343242</v>
+      </c>
+      <c r="G207" s="3">
+        <v>7.869603204146415</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A208" s="1" t="s">
         <v>209</v>
       </c>
@@ -4798,8 +6046,14 @@
       <c r="E208" s="3">
         <v>27.337436968982615</v>
       </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F208" s="3">
+        <v>698.13078280688694</v>
+      </c>
+      <c r="G208" s="3">
+        <v>9.9706341106876266</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A209" s="1" t="s">
         <v>210</v>
       </c>
@@ -4815,8 +6069,14 @@
       <c r="E209" s="3">
         <v>22.357691361464958</v>
       </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F209" s="3">
+        <v>715.15883671811184</v>
+      </c>
+      <c r="G209" s="3">
+        <v>8.5451965180879483</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A210" s="1" t="s">
         <v>211</v>
       </c>
@@ -4832,8 +6092,14 @@
       <c r="E210" s="3">
         <v>42.689568142198766</v>
       </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F210" s="3">
+        <v>718.13883775643671</v>
+      </c>
+      <c r="G210" s="3">
+        <v>12.252583657091236</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A211" s="1" t="s">
         <v>212</v>
       </c>
@@ -4849,8 +6115,14 @@
       <c r="E211" s="3">
         <v>19.935142084885968</v>
       </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F211" s="3">
+        <v>743.27857869638638</v>
+      </c>
+      <c r="G211" s="3">
+        <v>9.6294570332728426</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A212" s="1" t="s">
         <v>213</v>
       </c>
@@ -4866,8 +6138,14 @@
       <c r="E212" s="3">
         <v>20.773799665127058</v>
       </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F212" s="3">
+        <v>754.41842836972444</v>
+      </c>
+      <c r="G212" s="3">
+        <v>9.2136899480236139</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A213" s="1" t="s">
         <v>214</v>
       </c>
@@ -4883,8 +6161,14 @@
       <c r="E213" s="3">
         <v>18.431338118024257</v>
       </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F213" s="3">
+        <v>752.1097813737872</v>
+      </c>
+      <c r="G213" s="3">
+        <v>7.6139558817027932</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A214" s="1" t="s">
         <v>215</v>
       </c>
@@ -4900,8 +6184,14 @@
       <c r="E214" s="3">
         <v>18.410441136733255</v>
       </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F214" s="3">
+        <v>791.72296719094243</v>
+      </c>
+      <c r="G214" s="3">
+        <v>7.586344617040254</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A215" s="1" t="s">
         <v>216</v>
       </c>
@@ -4917,8 +6207,14 @@
       <c r="E215" s="3">
         <v>14.57317772340366</v>
       </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F215" s="3">
+        <v>782.7196138158738</v>
+      </c>
+      <c r="G215" s="3">
+        <v>8.3194248195516707</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A216" s="1" t="s">
         <v>217</v>
       </c>
@@ -4934,8 +6230,14 @@
       <c r="E216" s="3">
         <v>20.145870488856815</v>
       </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F216" s="3">
+        <v>785.86810779830626</v>
+      </c>
+      <c r="G216" s="3">
+        <v>9.0537092380323543</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A217" s="1" t="s">
         <v>218</v>
       </c>
@@ -4951,8 +6253,14 @@
       <c r="E217" s="3">
         <v>13.328271022679701</v>
       </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F217" s="3">
+        <v>819.26492960946007</v>
+      </c>
+      <c r="G217" s="3">
+        <v>9.2115598593434243</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A218" s="1" t="s">
         <v>219</v>
       </c>
@@ -4968,8 +6276,14 @@
       <c r="E218" s="3">
         <v>20.62489603814339</v>
       </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F218" s="3">
+        <v>863.77369675235275</v>
+      </c>
+      <c r="G218" s="3">
+        <v>12.748566950060365</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A219" s="1" t="s">
         <v>220</v>
       </c>
@@ -4985,8 +6299,14 @@
       <c r="E219" s="3">
         <v>26.106777688410261</v>
       </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F219" s="3">
+        <v>842.84329593185441</v>
+      </c>
+      <c r="G219" s="3">
+        <v>9.3515769298601867</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A220" s="1" t="s">
         <v>221</v>
       </c>
@@ -5002,8 +6322,14 @@
       <c r="E220" s="3">
         <v>18.547977288519974</v>
       </c>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F220" s="3">
+        <v>848.29883055660605</v>
+      </c>
+      <c r="G220" s="3">
+        <v>10.049940711290503</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A221" s="1" t="s">
         <v>222</v>
       </c>
@@ -5019,8 +6345,14 @@
       <c r="E221" s="3">
         <v>21.556796170534028</v>
       </c>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F221" s="3">
+        <v>857.01935188778054</v>
+      </c>
+      <c r="G221" s="3">
+        <v>9.6963386069041348</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A222" s="1" t="s">
         <v>223</v>
       </c>
@@ -5036,8 +6368,14 @@
       <c r="E222" s="3">
         <v>16.665401344126792</v>
       </c>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F222" s="3">
+        <v>878.19672459837057</v>
+      </c>
+      <c r="G222" s="3">
+        <v>7.765544564880372</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A223" s="1" t="s">
         <v>224</v>
       </c>
@@ -5053,8 +6391,14 @@
       <c r="E223" s="3">
         <v>18.74084450102788</v>
       </c>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F223" s="3">
+        <v>884.37782275887639</v>
+      </c>
+      <c r="G223" s="3">
+        <v>9.8864948624491262</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A224" s="1" t="s">
         <v>225</v>
       </c>
@@ -5070,8 +6414,14 @@
       <c r="E224" s="3">
         <v>20.257160282660152</v>
       </c>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F224" s="3">
+        <v>916.44802363348413</v>
+      </c>
+      <c r="G224" s="3">
+        <v>9.4511089231238543</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A225" s="1" t="s">
         <v>226</v>
       </c>
@@ -5087,8 +6437,14 @@
       <c r="E225" s="3">
         <v>20.511179818835672</v>
       </c>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F225" s="3">
+        <v>947.14382527531495</v>
+      </c>
+      <c r="G225" s="3">
+        <v>9.7955465404498909</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A226" s="1" t="s">
         <v>227</v>
       </c>
@@ -5104,8 +6460,14 @@
       <c r="E226" s="3">
         <v>17.543706138224991</v>
       </c>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F226" s="3">
+        <v>925.94773118350281</v>
+      </c>
+      <c r="G226" s="3">
+        <v>9.6617847168160438</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A227" s="1" t="s">
         <v>228</v>
       </c>
@@ -5121,8 +6483,14 @@
       <c r="E227" s="3">
         <v>17.151115386332265</v>
       </c>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F227" s="3">
+        <v>970.32382427014807</v>
+      </c>
+      <c r="G227" s="3">
+        <v>8.6858091319143114</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A228" s="1" t="s">
         <v>229</v>
       </c>
@@ -5138,8 +6506,14 @@
       <c r="E228" s="3">
         <v>13.700952478386569</v>
       </c>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F228" s="3">
+        <v>990.76086263706486</v>
+      </c>
+      <c r="G228" s="3">
+        <v>9.5025675302076138</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A229" s="1" t="s">
         <v>230</v>
       </c>
@@ -5155,8 +6529,14 @@
       <c r="E229" s="3">
         <v>21.021659310234497</v>
       </c>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F229" s="3">
+        <v>988.3540592514554</v>
+      </c>
+      <c r="G229" s="3">
+        <v>9.8125470144926226</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A230" s="1" t="s">
         <v>231</v>
       </c>
@@ -5172,8 +6552,14 @@
       <c r="E230" s="3">
         <v>18.709701625957109</v>
       </c>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F230" s="3">
+        <v>985.16434553982424</v>
+      </c>
+      <c r="G230" s="3">
+        <v>8.5798007394288334</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A231" s="1" t="s">
         <v>232</v>
       </c>
@@ -5189,8 +6575,14 @@
       <c r="E231" s="3">
         <v>15.506529531309923</v>
       </c>
-    </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F231" s="3">
+        <v>1011.5833313023608</v>
+      </c>
+      <c r="G231" s="3">
+        <v>9.0904557750837967</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A232" s="1" t="s">
         <v>233</v>
       </c>
@@ -5206,8 +6598,14 @@
       <c r="E232" s="3">
         <v>16.813689919676904</v>
       </c>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F232" s="3">
+        <v>1034.2788806666665</v>
+      </c>
+      <c r="G232" s="3">
+        <v>11.032655507890752</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A233" s="1" t="s">
         <v>234</v>
       </c>
@@ -5223,8 +6621,14 @@
       <c r="E233" s="3">
         <v>13.840510173664256</v>
       </c>
-    </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F233" s="3">
+        <v>998.26403771082471</v>
+      </c>
+      <c r="G233" s="3">
+        <v>9.5479353930393813</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A234" s="1" t="s">
         <v>235</v>
       </c>
@@ -5240,8 +6644,14 @@
       <c r="E234" s="3">
         <v>19.74128324422918</v>
       </c>
-    </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F234" s="3">
+        <v>1068.5532376005983</v>
+      </c>
+      <c r="G234" s="3">
+        <v>11.418001792713426</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A235" s="1" t="s">
         <v>236</v>
       </c>
@@ -5257,8 +6667,14 @@
       <c r="E235" s="3">
         <v>17.524235034421281</v>
       </c>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F235" s="3">
+        <v>1012.7116881503332</v>
+      </c>
+      <c r="G235" s="3">
+        <v>8.9599592822860927</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A236" s="1" t="s">
         <v>237</v>
       </c>
@@ -5274,8 +6690,14 @@
       <c r="E236" s="3">
         <v>20.825696545128153</v>
       </c>
-    </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F236" s="3">
+        <v>1248.1451155859872</v>
+      </c>
+      <c r="G236" s="3">
+        <v>14.1454567819153</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A237" s="1" t="s">
         <v>238</v>
       </c>
@@ -5291,8 +6713,14 @@
       <c r="E237" s="3">
         <v>19.076997012155857</v>
       </c>
-    </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F237" s="3">
+        <v>1199.3794394283896</v>
+      </c>
+      <c r="G237" s="3">
+        <v>12.540802225116977</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A238" s="1" t="s">
         <v>239</v>
       </c>
@@ -5308,8 +6736,14 @@
       <c r="E238" s="3">
         <v>16.576430919840391</v>
       </c>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F238" s="3">
+        <v>1374.3937323384323</v>
+      </c>
+      <c r="G238" s="3">
+        <v>10.27090711200492</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A239" s="1" t="s">
         <v>240</v>
       </c>
@@ -5325,8 +6759,14 @@
       <c r="E239" s="3">
         <v>14.573417354344087</v>
       </c>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F239" s="3">
+        <v>1710.6738449339448</v>
+      </c>
+      <c r="G239" s="3">
+        <v>13.387681286940165</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A240" s="1" t="s">
         <v>241</v>
       </c>
@@ -5342,8 +6782,14 @@
       <c r="E240" s="3">
         <v>15.444737077405875</v>
       </c>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F240" s="3">
+        <v>1607.1388580468288</v>
+      </c>
+      <c r="G240" s="3">
+        <v>13.744021286604948</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A241" s="1" t="s">
         <v>242</v>
       </c>
@@ -5359,8 +6805,14 @@
       <c r="E241" s="3">
         <v>22.281184097934101</v>
       </c>
-    </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F241" s="3">
+        <v>1662.0458754386189</v>
+      </c>
+      <c r="G241" s="3">
+        <v>18.639906858388713</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A242" s="1" t="s">
         <v>243</v>
       </c>
@@ -5376,8 +6828,14 @@
       <c r="E242" s="3">
         <v>15.045068211076455</v>
       </c>
-    </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F242" s="3">
+        <v>1630.7344196626213</v>
+      </c>
+      <c r="G242" s="3">
+        <v>10.446789322892982</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A243" s="1" t="s">
         <v>244</v>
       </c>
@@ -5393,8 +6851,14 @@
       <c r="E243" s="3">
         <v>18.356932168505068</v>
       </c>
-    </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F243" s="3">
+        <v>1813.7861068353723</v>
+      </c>
+      <c r="G243" s="3">
+        <v>13.438245931818415</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A244" s="1" t="s">
         <v>245</v>
       </c>
@@ -5410,8 +6874,14 @@
       <c r="E244" s="3">
         <v>14.409813598294249</v>
       </c>
-    </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F244" s="3">
+        <v>1827.281089461907</v>
+      </c>
+      <c r="G244" s="3">
+        <v>10.595573182037469</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A245" s="1" t="s">
         <v>246</v>
       </c>
@@ -5427,8 +6897,14 @@
       <c r="E245" s="3">
         <v>15.964273091643804</v>
       </c>
-    </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F245" s="3">
+        <v>1846.1408633440637</v>
+      </c>
+      <c r="G245" s="3">
+        <v>12.307941608780538</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A246" s="1" t="s">
         <v>247</v>
       </c>
@@ -5444,8 +6920,14 @@
       <c r="E246" s="3">
         <v>15.864218553757269</v>
       </c>
-    </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F246" s="3">
+        <v>1873.517551678136</v>
+      </c>
+      <c r="G246" s="3">
+        <v>12.140265637190282</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A247" s="1" t="s">
         <v>248</v>
       </c>
@@ -5461,8 +6943,14 @@
       <c r="E247" s="3">
         <v>14.468060235616235</v>
       </c>
-    </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F247" s="3">
+        <v>1848.2217579873482</v>
+      </c>
+      <c r="G247" s="3">
+        <v>12.522255695107674</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A248" s="1" t="s">
         <v>249</v>
       </c>
@@ -5478,8 +6966,14 @@
       <c r="E248" s="3">
         <v>12.619006372043259</v>
       </c>
-    </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F248" s="3">
+        <v>1846.3444154701938</v>
+      </c>
+      <c r="G248" s="3">
+        <v>14.401432322645519</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A249" s="1" t="s">
         <v>250</v>
       </c>
@@ -5495,8 +6989,14 @@
       <c r="E249" s="3">
         <v>12.120497889142143</v>
       </c>
-    </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F249" s="3">
+        <v>1884.5278843538231</v>
+      </c>
+      <c r="G249" s="3">
+        <v>11.584397617435798</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A250" s="1" t="s">
         <v>251</v>
       </c>
@@ -5512,8 +7012,14 @@
       <c r="E250" s="3">
         <v>11.67535748486398</v>
       </c>
-    </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F250" s="3">
+        <v>1938.6270653816935</v>
+      </c>
+      <c r="G250" s="3">
+        <v>12.899512397029298</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A251" s="1" t="s">
         <v>252</v>
       </c>
@@ -5529,8 +7035,14 @@
       <c r="E251" s="3">
         <v>14.708776991854734</v>
       </c>
-    </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F251" s="3">
+        <v>1964.368989986616</v>
+      </c>
+      <c r="G251" s="3">
+        <v>11.512517133637402</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A252" s="1" t="s">
         <v>253</v>
       </c>
@@ -5546,8 +7058,14 @@
       <c r="E252" s="3">
         <v>15.969552726172765</v>
       </c>
-    </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F252" s="3">
+        <v>1963.5570989033956</v>
+      </c>
+      <c r="G252" s="3">
+        <v>12.062495048577716</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A253" s="1" t="s">
         <v>254</v>
       </c>
@@ -5563,8 +7081,14 @@
       <c r="E253" s="3">
         <v>15.52796193268307</v>
       </c>
-    </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F253" s="3">
+        <v>1874.1218011974759</v>
+      </c>
+      <c r="G253" s="3">
+        <v>13.074880192597675</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A254" s="1" t="s">
         <v>255</v>
       </c>
@@ -5580,8 +7104,14 @@
       <c r="E254" s="3">
         <v>13.916013279364847</v>
       </c>
-    </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F254" s="3">
+        <v>2000.5585735465572</v>
+      </c>
+      <c r="G254" s="3">
+        <v>12.766063539138372</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A255" s="1" t="s">
         <v>256</v>
       </c>
@@ -5597,8 +7127,14 @@
       <c r="E255" s="3">
         <v>13.408823797101491</v>
       </c>
-    </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F255" s="3">
+        <v>1945.2426622386624</v>
+      </c>
+      <c r="G255" s="3">
+        <v>11.555633262115521</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A256" s="1" t="s">
         <v>257</v>
       </c>
@@ -5614,8 +7150,14 @@
       <c r="E256" s="3">
         <v>13.629671526351785</v>
       </c>
-    </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F256" s="3">
+        <v>2027.2307503443471</v>
+      </c>
+      <c r="G256" s="3">
+        <v>12.496957522001821</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A257" s="1" t="s">
         <v>258</v>
       </c>
@@ -5631,8 +7173,14 @@
       <c r="E257" s="3">
         <v>15.302857693347278</v>
       </c>
-    </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F257" s="3">
+        <v>2007.4997913186176</v>
+      </c>
+      <c r="G257" s="3">
+        <v>10.293327129336831</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A258" s="1" t="s">
         <v>259</v>
       </c>
@@ -5648,8 +7196,14 @@
       <c r="E258" s="3">
         <v>17.774325501867793</v>
       </c>
-    </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F258" s="3">
+        <v>1845.0122852926772</v>
+      </c>
+      <c r="G258" s="3">
+        <v>14.346291308084233</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A259" s="1" t="s">
         <v>260</v>
       </c>
@@ -5665,8 +7219,14 @@
       <c r="E259" s="3">
         <v>15.453540725929315</v>
       </c>
-    </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F259" s="3">
+        <v>2022.4694879995229</v>
+      </c>
+      <c r="G259" s="3">
+        <v>16.433724043557277</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A260" s="1" t="s">
         <v>261</v>
       </c>
@@ -5682,8 +7242,14 @@
       <c r="E260" s="3">
         <v>18.538148736985477</v>
       </c>
-    </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F260" s="3">
+        <v>1909.8583313600809</v>
+      </c>
+      <c r="G260" s="3">
+        <v>13.334474260221555</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A261" s="1" t="s">
         <v>262</v>
       </c>
@@ -5699,8 +7265,14 @@
       <c r="E261" s="3">
         <v>12.736071707429346</v>
       </c>
-    </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F261" s="3">
+        <v>1917.0956179857217</v>
+      </c>
+      <c r="G261" s="3">
+        <v>14.752913321993447</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A262" s="1" t="s">
         <v>263</v>
       </c>
@@ -5716,8 +7288,14 @@
       <c r="E262" s="3">
         <v>24.902566779971266</v>
       </c>
-    </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F262" s="3">
+        <v>1882.1227121523509</v>
+      </c>
+      <c r="G262" s="3">
+        <v>21.108815183744014</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A263" s="1" t="s">
         <v>264</v>
       </c>
@@ -5733,8 +7311,14 @@
       <c r="E263" s="3">
         <v>13.386940822522774</v>
       </c>
-    </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F263" s="3">
+        <v>2098.1522154656013</v>
+      </c>
+      <c r="G263" s="3">
+        <v>11.824700980419948</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A264" s="1" t="s">
         <v>265</v>
       </c>
@@ -5750,8 +7334,14 @@
       <c r="E264" s="3">
         <v>13.51191199717573</v>
       </c>
-    </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F264" s="3">
+        <v>2005.201301100326</v>
+      </c>
+      <c r="G264" s="3">
+        <v>11.98340315957455</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A265" s="1" t="s">
         <v>266</v>
       </c>
@@ -5767,8 +7357,14 @@
       <c r="E265" s="3">
         <v>16.274148903991545</v>
       </c>
-    </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F265" s="3">
+        <v>2153.2022391091077</v>
+      </c>
+      <c r="G265" s="3">
+        <v>15.074400104015922</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A266" s="1" t="s">
         <v>267</v>
       </c>
@@ -5784,8 +7380,14 @@
       <c r="E266" s="3">
         <v>11.84239430308844</v>
       </c>
-    </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F266" s="3">
+        <v>2144.0772059962151</v>
+      </c>
+      <c r="G266" s="3">
+        <v>11.666067381563153</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A267" s="1" t="s">
         <v>268</v>
       </c>
@@ -5801,8 +7403,14 @@
       <c r="E267" s="3">
         <v>16.282629641302265</v>
       </c>
-    </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F267" s="3">
+        <v>1986.8526948692543</v>
+      </c>
+      <c r="G267" s="3">
+        <v>14.770206441376104</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A268" s="1" t="s">
         <v>269</v>
       </c>
@@ -5818,8 +7426,14 @@
       <c r="E268" s="3">
         <v>12.617302690363886</v>
       </c>
-    </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F268" s="3">
+        <v>2052.2976471078837</v>
+      </c>
+      <c r="G268" s="3">
+        <v>14.8361672586841</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A269" s="1" t="s">
         <v>270</v>
       </c>
@@ -5835,8 +7449,14 @@
       <c r="E269" s="3">
         <v>16.04314016571584</v>
       </c>
-    </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F269" s="3">
+        <v>2222.3648336384222</v>
+      </c>
+      <c r="G269" s="3">
+        <v>13.276336237063788</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A270" s="1" t="s">
         <v>271</v>
       </c>
@@ -5852,8 +7472,14 @@
       <c r="E270" s="3">
         <v>9.239644630388284</v>
       </c>
-    </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F270" s="3">
+        <v>2117.3229161519871</v>
+      </c>
+      <c r="G270" s="3">
+        <v>11.401738743780925</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A271" s="1" t="s">
         <v>272</v>
       </c>
@@ -5869,8 +7495,14 @@
       <c r="E271" s="3">
         <v>20.88658366115601</v>
       </c>
-    </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F271" s="3">
+        <v>2627.6758501284394</v>
+      </c>
+      <c r="G271" s="3">
+        <v>21.745378390852693</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A272" s="1" t="s">
         <v>273</v>
       </c>
@@ -5886,8 +7518,14 @@
       <c r="E272" s="3">
         <v>16.228967371712315</v>
       </c>
-    </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F272" s="3">
+        <v>2632.0167147021648</v>
+      </c>
+      <c r="G272" s="3">
+        <v>15.95653159939161</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A273" s="1" t="s">
         <v>274</v>
       </c>
@@ -5903,8 +7541,14 @@
       <c r="E273" s="3">
         <v>13.058597983054369</v>
       </c>
-    </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F273" s="3">
+        <v>2672.0115191170157</v>
+      </c>
+      <c r="G273" s="3">
+        <v>11.146127655920736</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A274" s="1" t="s">
         <v>275</v>
       </c>
@@ -5920,8 +7564,14 @@
       <c r="E274" s="3">
         <v>11.308081719520487</v>
       </c>
-    </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F274" s="3">
+        <v>2536.3620011819035</v>
+      </c>
+      <c r="G274" s="3">
+        <v>12.615698677346245</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A275" s="1" t="s">
         <v>276</v>
       </c>
@@ -5937,8 +7587,14 @@
       <c r="E275" s="3">
         <v>11.063081435590902</v>
       </c>
-    </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F275" s="3">
+        <v>2476.3406410289267</v>
+      </c>
+      <c r="G275" s="3">
+        <v>15.115230471783889</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A276" s="1" t="s">
         <v>277</v>
       </c>
@@ -5954,8 +7610,14 @@
       <c r="E276" s="3">
         <v>15.423338698403995</v>
       </c>
-    </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F276" s="3">
+        <v>2760.4214948501585</v>
+      </c>
+      <c r="G276" s="3">
+        <v>13.257698950631266</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A277" s="1" t="s">
         <v>278</v>
       </c>
@@ -5971,8 +7633,14 @@
       <c r="E277" s="3">
         <v>12.12247782046893</v>
       </c>
-    </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F277" s="3">
+        <v>2822.9449353290925</v>
+      </c>
+      <c r="G277" s="3">
+        <v>15.294360010703031</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A278" s="1" t="s">
         <v>279</v>
       </c>
@@ -5987,6 +7655,12 @@
       </c>
       <c r="E278" s="3">
         <v>12.971401784800037</v>
+      </c>
+      <c r="F278" s="3">
+        <v>3347.8139121900522</v>
+      </c>
+      <c r="G278" s="3">
+        <v>18.914273448921904</v>
       </c>
     </row>
   </sheetData>

--- a/Vasey20/N1.xlsx
+++ b/Vasey20/N1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dyvas\git\dz-caucasus\Vasey20\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACCF839B-69AE-476E-BDCD-138369B81C65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E8993B8-FC0E-471E-AD2B-E81D9FDA2800}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21983" yWindow="3533" windowWidth="16875" windowHeight="10432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="289">
   <si>
     <t>Zircon Sample Number</t>
   </si>
@@ -883,14 +883,30 @@
   </si>
   <si>
     <t>235 Error</t>
+  </si>
+  <si>
+    <t>68_ratio</t>
+  </si>
+  <si>
+    <t>68_1s</t>
+  </si>
+  <si>
+    <t>75_ratio</t>
+  </si>
+  <si>
+    <t>75_1s</t>
+  </si>
+  <si>
+    <t>rho</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -936,11 +952,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1257,11 +1279,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G278"/>
+  <dimension ref="A1:L278"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
+      <selection pane="bottomLeft" activeCell="H2" sqref="H2:L278"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1269,7 +1291,7 @@
     <col min="1" max="3" width="20.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1291,8 +1313,23 @@
       <c r="G1" s="2" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H1" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1314,8 +1351,23 @@
       <c r="G2" s="3">
         <v>5.362768561155832</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H2" s="4">
+        <v>0.47479294041813214</v>
+      </c>
+      <c r="I2" s="3">
+        <v>1.6405214113002162</v>
+      </c>
+      <c r="J2" s="4">
+        <v>6.2016243188686239E-2</v>
+      </c>
+      <c r="K2" s="3">
+        <v>1.4443776981232666</v>
+      </c>
+      <c r="L2" s="5">
+        <v>0.88043818762383996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1337,8 +1389,23 @@
       <c r="G3" s="3">
         <v>7.0205402512718535</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H3" s="4">
+        <v>0.57073126058239687</v>
+      </c>
+      <c r="I3" s="3">
+        <v>1.9028472578979587</v>
+      </c>
+      <c r="J3" s="4">
+        <v>7.2242794784288675E-2</v>
+      </c>
+      <c r="K3" s="3">
+        <v>1.6958132333868408</v>
+      </c>
+      <c r="L3" s="5">
+        <v>0.89119777026148461</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -1360,8 +1427,23 @@
       <c r="G4" s="3">
         <v>11.156149107036725</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H4" s="4">
+        <v>0.60161897385019958</v>
+      </c>
+      <c r="I4" s="3">
+        <v>2.92485677867514</v>
+      </c>
+      <c r="J4" s="4">
+        <v>7.3903284579561787E-2</v>
+      </c>
+      <c r="K4" s="3">
+        <v>2.7536021810938096</v>
+      </c>
+      <c r="L4" s="5">
+        <v>0.94144855268472216</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -1383,8 +1465,23 @@
       <c r="G5" s="3">
         <v>6.3323070208661534</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H5" s="4">
+        <v>0.59979822217316625</v>
+      </c>
+      <c r="I5" s="3">
+        <v>1.6633607837647608</v>
+      </c>
+      <c r="J5" s="4">
+        <v>7.5270884760012979E-2</v>
+      </c>
+      <c r="K5" s="3">
+        <v>1.3808479825983055</v>
+      </c>
+      <c r="L5" s="5">
+        <v>0.83015542753927896</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -1406,8 +1503,23 @@
       <c r="G6" s="3">
         <v>5.6835633219092472</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H6" s="4">
+        <v>0.60731878491193736</v>
+      </c>
+      <c r="I6" s="3">
+        <v>1.4813973466552361</v>
+      </c>
+      <c r="J6" s="4">
+        <v>7.608678037879664E-2</v>
+      </c>
+      <c r="K6" s="3">
+        <v>1.2773968834907328</v>
+      </c>
+      <c r="L6" s="5">
+        <v>0.8622918667803039</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -1429,8 +1541,23 @@
       <c r="G7" s="3">
         <v>5.6483070830143163</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H7" s="4">
+        <v>0.60665357543434428</v>
+      </c>
+      <c r="I7" s="3">
+        <v>1.4732124929947994</v>
+      </c>
+      <c r="J7" s="4">
+        <v>7.6272007492807145E-2</v>
+      </c>
+      <c r="K7" s="3">
+        <v>1.279960931844351</v>
+      </c>
+      <c r="L7" s="5">
+        <v>0.86882302310809245</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -1452,8 +1579,23 @@
       <c r="G8" s="3">
         <v>6.6605104716183803</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H8" s="4">
+        <v>0.60063366950755492</v>
+      </c>
+      <c r="I8" s="3">
+        <v>1.748049192825105</v>
+      </c>
+      <c r="J8" s="4">
+        <v>7.6293394147209245E-2</v>
+      </c>
+      <c r="K8" s="3">
+        <v>1.4678955791496044</v>
+      </c>
+      <c r="L8" s="5">
+        <v>0.83973356423526557</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -1475,8 +1617,23 @@
       <c r="G9" s="3">
         <v>4.9501252264741424</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H9" s="4">
+        <v>0.60416480848569698</v>
+      </c>
+      <c r="I9" s="3">
+        <v>1.2944235161349065</v>
+      </c>
+      <c r="J9" s="4">
+        <v>7.6556276493677425E-2</v>
+      </c>
+      <c r="K9" s="3">
+        <v>1.0604328696512466</v>
+      </c>
+      <c r="L9" s="5">
+        <v>0.81923177108034473</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -1498,8 +1655,23 @@
       <c r="G10" s="3">
         <v>6.0910197231299321</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H10" s="4">
+        <v>0.62137394121085276</v>
+      </c>
+      <c r="I10" s="3">
+        <v>1.5652547786049906</v>
+      </c>
+      <c r="J10" s="4">
+        <v>7.7766594242279496E-2</v>
+      </c>
+      <c r="K10" s="3">
+        <v>1.3202551058405254</v>
+      </c>
+      <c r="L10" s="5">
+        <v>0.84347617006937536</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -1521,8 +1693,23 @@
       <c r="G11" s="3">
         <v>7.0931932337161072</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H11" s="4">
+        <v>0.63200265639546371</v>
+      </c>
+      <c r="I11" s="3">
+        <v>1.8038763864182015</v>
+      </c>
+      <c r="J11" s="4">
+        <v>7.8282251695176289E-2</v>
+      </c>
+      <c r="K11" s="3">
+        <v>1.5825138703732706</v>
+      </c>
+      <c r="L11" s="5">
+        <v>0.8772850968549617</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -1544,8 +1731,23 @@
       <c r="G12" s="3">
         <v>5.6788709245132054</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H12" s="4">
+        <v>0.62660270082921465</v>
+      </c>
+      <c r="I12" s="3">
+        <v>1.4518334068249967</v>
+      </c>
+      <c r="J12" s="4">
+        <v>7.9255082288234205E-2</v>
+      </c>
+      <c r="K12" s="3">
+        <v>1.1863677437964317</v>
+      </c>
+      <c r="L12" s="5">
+        <v>0.81715142950931974</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -1567,8 +1769,23 @@
       <c r="G13" s="3">
         <v>5.7457560425640679</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H13" s="4">
+        <v>0.63517063164280096</v>
+      </c>
+      <c r="I13" s="3">
+        <v>1.4567509340082716</v>
+      </c>
+      <c r="J13" s="4">
+        <v>7.965051820414476E-2</v>
+      </c>
+      <c r="K13" s="3">
+        <v>1.1166613516766799</v>
+      </c>
+      <c r="L13" s="5">
+        <v>0.766542396238024</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
@@ -1590,8 +1807,23 @@
       <c r="G14" s="3">
         <v>7.3253515559455309</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H14" s="4">
+        <v>0.65592056818289213</v>
+      </c>
+      <c r="I14" s="3">
+        <v>1.821290732521202</v>
+      </c>
+      <c r="J14" s="4">
+        <v>7.9957889721626541E-2</v>
+      </c>
+      <c r="K14" s="3">
+        <v>1.6609267937560463</v>
+      </c>
+      <c r="L14" s="5">
+        <v>0.91195038996153854</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
@@ -1613,8 +1845,23 @@
       <c r="G15" s="3">
         <v>5.4135174262110297</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H15" s="4">
+        <v>0.64671792071131096</v>
+      </c>
+      <c r="I15" s="3">
+        <v>1.3575312313819738</v>
+      </c>
+      <c r="J15" s="4">
+        <v>8.0793563403128807E-2</v>
+      </c>
+      <c r="K15" s="3">
+        <v>1.1356433456693238</v>
+      </c>
+      <c r="L15" s="5">
+        <v>0.83655043760078562</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
@@ -1636,8 +1883,23 @@
       <c r="G16" s="3">
         <v>6.2625771645463715</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H16" s="4">
+        <v>0.65091594583626233</v>
+      </c>
+      <c r="I16" s="3">
+        <v>1.5642916386184469</v>
+      </c>
+      <c r="J16" s="4">
+        <v>8.093662038923595E-2</v>
+      </c>
+      <c r="K16" s="3">
+        <v>1.2729420516108196</v>
+      </c>
+      <c r="L16" s="5">
+        <v>0.81374982783584904</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
@@ -1659,8 +1921,23 @@
       <c r="G17" s="3">
         <v>7.8174861864872014</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H17" s="4">
+        <v>0.6510561194228337</v>
+      </c>
+      <c r="I17" s="3">
+        <v>1.9524145738094316</v>
+      </c>
+      <c r="J17" s="4">
+        <v>8.0998188678186048E-2</v>
+      </c>
+      <c r="K17" s="3">
+        <v>1.4966817151357803</v>
+      </c>
+      <c r="L17" s="5">
+        <v>0.76657987253985038</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
@@ -1682,8 +1959,23 @@
       <c r="G18" s="3">
         <v>7.4881330691344488</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H18" s="4">
+        <v>0.6460228003222056</v>
+      </c>
+      <c r="I18" s="3">
+        <v>1.8789869781717481</v>
+      </c>
+      <c r="J18" s="4">
+        <v>8.1019159526847934E-2</v>
+      </c>
+      <c r="K18" s="3">
+        <v>1.5178866257038159</v>
+      </c>
+      <c r="L18" s="5">
+        <v>0.80782179085707018</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
@@ -1705,8 +1997,23 @@
       <c r="G19" s="3">
         <v>6.0995839672611964</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H19" s="4">
+        <v>0.65725084563466063</v>
+      </c>
+      <c r="I19" s="3">
+        <v>1.5146844790746341</v>
+      </c>
+      <c r="J19" s="4">
+        <v>8.2665738634944252E-2</v>
+      </c>
+      <c r="K19" s="3">
+        <v>1.2129319126240183</v>
+      </c>
+      <c r="L19" s="5">
+        <v>0.8007818983957864</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
@@ -1728,8 +2035,23 @@
       <c r="G20" s="3">
         <v>7.6419410482471903</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H20" s="4">
+        <v>0.66253554280879146</v>
+      </c>
+      <c r="I20" s="3">
+        <v>1.8885449650880612</v>
+      </c>
+      <c r="J20" s="4">
+        <v>8.3289004007817732E-2</v>
+      </c>
+      <c r="K20" s="3">
+        <v>1.6505818621180055</v>
+      </c>
+      <c r="L20" s="5">
+        <v>0.87399659136050278</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
         <v>22</v>
       </c>
@@ -1751,8 +2073,23 @@
       <c r="G21" s="3">
         <v>7.2053628248022505</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H21" s="4">
+        <v>0.66523991430330576</v>
+      </c>
+      <c r="I21" s="3">
+        <v>1.7763034819503558</v>
+      </c>
+      <c r="J21" s="4">
+        <v>8.3487776995177038E-2</v>
+      </c>
+      <c r="K21" s="3">
+        <v>1.5550981926440237</v>
+      </c>
+      <c r="L21" s="5">
+        <v>0.87546875207188601</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
         <v>23</v>
       </c>
@@ -1774,8 +2111,23 @@
       <c r="G22" s="3">
         <v>5.6830226792347389</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H22" s="4">
+        <v>0.68481680669552925</v>
+      </c>
+      <c r="I22" s="3">
+        <v>1.3769660086671607</v>
+      </c>
+      <c r="J22" s="4">
+        <v>8.3862225684398189E-2</v>
+      </c>
+      <c r="K22" s="3">
+        <v>1.1985478587132794</v>
+      </c>
+      <c r="L22" s="5">
+        <v>0.87042661268989352</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
         <v>24</v>
       </c>
@@ -1797,8 +2149,23 @@
       <c r="G23" s="3">
         <v>8.1122053580893407</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H23" s="4">
+        <v>0.69307330277744661</v>
+      </c>
+      <c r="I23" s="3">
+        <v>1.951625018471814</v>
+      </c>
+      <c r="J23" s="4">
+        <v>8.489034752950915E-2</v>
+      </c>
+      <c r="K23" s="3">
+        <v>1.7404157936791418</v>
+      </c>
+      <c r="L23" s="5">
+        <v>0.89177776325184854</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
         <v>25</v>
       </c>
@@ -1820,8 +2187,23 @@
       <c r="G24" s="3">
         <v>5.9011893039582333</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H24" s="4">
+        <v>0.68421741019286519</v>
+      </c>
+      <c r="I24" s="3">
+        <v>1.4305688947308792</v>
+      </c>
+      <c r="J24" s="4">
+        <v>8.5046647474271403E-2</v>
+      </c>
+      <c r="K24" s="3">
+        <v>1.2633413560994555</v>
+      </c>
+      <c r="L24" s="5">
+        <v>0.88310416978353012</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
         <v>26</v>
       </c>
@@ -1843,8 +2225,23 @@
       <c r="G25" s="3">
         <v>6.4544367287305704</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H25" s="4">
+        <v>0.69501551819870544</v>
+      </c>
+      <c r="I25" s="3">
+        <v>1.5502500881410823</v>
+      </c>
+      <c r="J25" s="4">
+        <v>8.5336423134041439E-2</v>
+      </c>
+      <c r="K25" s="3">
+        <v>1.3079935661030331</v>
+      </c>
+      <c r="L25" s="5">
+        <v>0.84373068326766498</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
         <v>27</v>
       </c>
@@ -1866,8 +2263,23 @@
       <c r="G26" s="3">
         <v>6.3537330764224862</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H26" s="4">
+        <v>0.69306849278698834</v>
+      </c>
+      <c r="I26" s="3">
+        <v>1.5285926201371298</v>
+      </c>
+      <c r="J26" s="4">
+        <v>8.5595312061939779E-2</v>
+      </c>
+      <c r="K26" s="3">
+        <v>1.3406957129031858</v>
+      </c>
+      <c r="L26" s="5">
+        <v>0.87707849379968383</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
         <v>28</v>
       </c>
@@ -1889,8 +2301,23 @@
       <c r="G27" s="3">
         <v>5.899439647479312</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H27" s="4">
+        <v>0.70042824440089668</v>
+      </c>
+      <c r="I27" s="3">
+        <v>1.4104919914528977</v>
+      </c>
+      <c r="J27" s="4">
+        <v>8.5919095119082897E-2</v>
+      </c>
+      <c r="K27" s="3">
+        <v>1.1048843100060375</v>
+      </c>
+      <c r="L27" s="5">
+        <v>0.78333256530434858</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
         <v>29</v>
       </c>
@@ -1912,8 +2339,23 @@
       <c r="G28" s="3">
         <v>6.6662884263421347</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H28" s="4">
+        <v>0.70789120273983663</v>
+      </c>
+      <c r="I28" s="3">
+        <v>1.5839506114445101</v>
+      </c>
+      <c r="J28" s="4">
+        <v>8.6397138933957118E-2</v>
+      </c>
+      <c r="K28" s="3">
+        <v>1.2900822292511571</v>
+      </c>
+      <c r="L28" s="5">
+        <v>0.81447124672318238</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
         <v>30</v>
       </c>
@@ -1935,8 +2377,23 @@
       <c r="G29" s="3">
         <v>5.8855455143008726</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H29" s="4">
+        <v>0.69257308216554048</v>
+      </c>
+      <c r="I29" s="3">
+        <v>1.4165560711203673</v>
+      </c>
+      <c r="J29" s="4">
+        <v>8.7205102893673003E-2</v>
+      </c>
+      <c r="K29" s="3">
+        <v>1.1930256619466941</v>
+      </c>
+      <c r="L29" s="5">
+        <v>0.84220150989372355</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
         <v>31</v>
       </c>
@@ -1958,8 +2415,23 @@
       <c r="G30" s="3">
         <v>5.4542837945531346</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H30" s="4">
+        <v>0.72369142476213777</v>
+      </c>
+      <c r="I30" s="3">
+        <v>1.2794099909165062</v>
+      </c>
+      <c r="J30" s="4">
+        <v>8.7444872775629234E-2</v>
+      </c>
+      <c r="K30" s="3">
+        <v>0.91149296191504647</v>
+      </c>
+      <c r="L30" s="5">
+        <v>0.71243226830056072</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
         <v>32</v>
       </c>
@@ -1981,8 +2453,23 @@
       <c r="G31" s="3">
         <v>8.1444045874827111</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H31" s="4">
+        <v>0.69954477751211774</v>
+      </c>
+      <c r="I31" s="3">
+        <v>1.9486651047055956</v>
+      </c>
+      <c r="J31" s="4">
+        <v>8.7482956468561773E-2</v>
+      </c>
+      <c r="K31" s="3">
+        <v>1.5978937149991539</v>
+      </c>
+      <c r="L31" s="5">
+        <v>0.81999401084393309</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
         <v>33</v>
       </c>
@@ -2004,8 +2491,23 @@
       <c r="G32" s="3">
         <v>5.9287790744726863</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H32" s="4">
+        <v>0.71528118614878056</v>
+      </c>
+      <c r="I32" s="3">
+        <v>1.4001963565984925</v>
+      </c>
+      <c r="J32" s="4">
+        <v>8.7773896332367499E-2</v>
+      </c>
+      <c r="K32" s="3">
+        <v>1.0522589161281459</v>
+      </c>
+      <c r="L32" s="5">
+        <v>0.75150810896580689</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
         <v>34</v>
       </c>
@@ -2027,8 +2529,23 @@
       <c r="G33" s="3">
         <v>7.2259735173653326</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H33" s="4">
+        <v>0.73367303991166666</v>
+      </c>
+      <c r="I33" s="3">
+        <v>1.6816041035838618</v>
+      </c>
+      <c r="J33" s="4">
+        <v>8.8280804485294406E-2</v>
+      </c>
+      <c r="K33" s="3">
+        <v>1.2350302330797862</v>
+      </c>
+      <c r="L33" s="5">
+        <v>0.73443578690588918</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
         <v>35</v>
       </c>
@@ -2050,8 +2567,23 @@
       <c r="G34" s="3">
         <v>8.3383733153356161</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H34" s="4">
+        <v>0.7253312294981199</v>
+      </c>
+      <c r="I34" s="3">
+        <v>1.9533396623220221</v>
+      </c>
+      <c r="J34" s="4">
+        <v>8.8569629966084834E-2</v>
+      </c>
+      <c r="K34" s="3">
+        <v>1.4897803652844503</v>
+      </c>
+      <c r="L34" s="5">
+        <v>0.76268372266269446</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
         <v>36</v>
       </c>
@@ -2073,8 +2605,23 @@
       <c r="G35" s="3">
         <v>6.1649596384959295</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H35" s="4">
+        <v>0.71614855410658285</v>
+      </c>
+      <c r="I35" s="3">
+        <v>1.4549455805781002</v>
+      </c>
+      <c r="J35" s="4">
+        <v>8.8615688788714175E-2</v>
+      </c>
+      <c r="K35" s="3">
+        <v>1.1104490245514258</v>
+      </c>
+      <c r="L35" s="5">
+        <v>0.76322375171599632</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
         <v>37</v>
       </c>
@@ -2096,8 +2643,23 @@
       <c r="G36" s="3">
         <v>7.2648520869560684</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H36" s="4">
+        <v>0.72650925089501006</v>
+      </c>
+      <c r="I36" s="3">
+        <v>1.7002673536706974</v>
+      </c>
+      <c r="J36" s="4">
+        <v>8.863005370680957E-2</v>
+      </c>
+      <c r="K36" s="3">
+        <v>1.4361914471665722</v>
+      </c>
+      <c r="L36" s="5">
+        <v>0.84468565726795075</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
         <v>38</v>
       </c>
@@ -2119,8 +2681,23 @@
       <c r="G37" s="3">
         <v>6.1725980770095816</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H37" s="4">
+        <v>0.7157333341060228</v>
+      </c>
+      <c r="I37" s="3">
+        <v>1.4572406701605216</v>
+      </c>
+      <c r="J37" s="4">
+        <v>8.8676242230434257E-2</v>
+      </c>
+      <c r="K37" s="3">
+        <v>1.0517903504866752</v>
+      </c>
+      <c r="L37" s="5">
+        <v>0.7217684573481028</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
         <v>39</v>
       </c>
@@ -2142,8 +2719,23 @@
       <c r="G38" s="3">
         <v>7.8064029811986302</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H38" s="4">
+        <v>0.71957877937376113</v>
+      </c>
+      <c r="I38" s="3">
+        <v>1.837199121022453</v>
+      </c>
+      <c r="J38" s="4">
+        <v>8.8844476201854011E-2</v>
+      </c>
+      <c r="K38" s="3">
+        <v>1.4984946948236013</v>
+      </c>
+      <c r="L38" s="5">
+        <v>0.81564087293360277</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
         <v>40</v>
       </c>
@@ -2165,8 +2757,23 @@
       <c r="G39" s="3">
         <v>6.8454136007175634</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H39" s="4">
+        <v>0.73592953489715907</v>
+      </c>
+      <c r="I39" s="3">
+        <v>1.5902267790065343</v>
+      </c>
+      <c r="J39" s="4">
+        <v>8.8862571129998749E-2</v>
+      </c>
+      <c r="K39" s="3">
+        <v>1.330947951703586</v>
+      </c>
+      <c r="L39" s="5">
+        <v>0.83695481001462679</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
         <v>41</v>
       </c>
@@ -2188,8 +2795,23 @@
       <c r="G40" s="3">
         <v>6.5197302762450136</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H40" s="4">
+        <v>0.71927702873872346</v>
+      </c>
+      <c r="I40" s="3">
+        <v>1.5347704187363764</v>
+      </c>
+      <c r="J40" s="4">
+        <v>8.8959881447547184E-2</v>
+      </c>
+      <c r="K40" s="3">
+        <v>1.2216229771417551</v>
+      </c>
+      <c r="L40" s="5">
+        <v>0.79596463564078501</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
         <v>42</v>
       </c>
@@ -2211,8 +2833,23 @@
       <c r="G41" s="3">
         <v>5.1052141707916121</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H41" s="4">
+        <v>0.71836753077754334</v>
+      </c>
+      <c r="I41" s="3">
+        <v>1.202679086616508</v>
+      </c>
+      <c r="J41" s="4">
+        <v>8.9216503937374625E-2</v>
+      </c>
+      <c r="K41" s="3">
+        <v>0.95310800982654331</v>
+      </c>
+      <c r="L41" s="5">
+        <v>0.79248738955619336</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
         <v>43</v>
       </c>
@@ -2234,8 +2871,23 @@
       <c r="G42" s="3">
         <v>6.1833082282811915</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H42" s="4">
+        <v>0.7131085373972913</v>
+      </c>
+      <c r="I42" s="3">
+        <v>1.4629007426059319</v>
+      </c>
+      <c r="J42" s="4">
+        <v>8.9305179768723972E-2</v>
+      </c>
+      <c r="K42" s="3">
+        <v>1.0708097207731713</v>
+      </c>
+      <c r="L42" s="5">
+        <v>0.73197701633925527</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
         <v>44</v>
       </c>
@@ -2257,8 +2909,23 @@
       <c r="G43" s="3">
         <v>6.7089232006588873</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H43" s="4">
+        <v>0.72082997521085701</v>
+      </c>
+      <c r="I43" s="3">
+        <v>1.5773269151211207</v>
+      </c>
+      <c r="J43" s="4">
+        <v>8.9442050329877024E-2</v>
+      </c>
+      <c r="K43" s="3">
+        <v>1.410573622403767</v>
+      </c>
+      <c r="L43" s="5">
+        <v>0.89428108331965617</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
         <v>45</v>
       </c>
@@ -2280,8 +2947,23 @@
       <c r="G44" s="3">
         <v>10.283533676787783</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H44" s="4">
+        <v>0.73277977442982611</v>
+      </c>
+      <c r="I44" s="3">
+        <v>2.3947904183522075</v>
+      </c>
+      <c r="J44" s="4">
+        <v>8.9517770743420946E-2</v>
+      </c>
+      <c r="K44" s="3">
+        <v>2.1261497521723811</v>
+      </c>
+      <c r="L44" s="5">
+        <v>0.88782289083790866</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
         <v>46</v>
       </c>
@@ -2303,8 +2985,23 @@
       <c r="G45" s="3">
         <v>6.7556807073653431</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H45" s="4">
+        <v>0.74049571669138414</v>
+      </c>
+      <c r="I45" s="3">
+        <v>1.5638071862016518</v>
+      </c>
+      <c r="J45" s="4">
+        <v>8.9597701128776824E-2</v>
+      </c>
+      <c r="K45" s="3">
+        <v>1.2149969752651779</v>
+      </c>
+      <c r="L45" s="5">
+        <v>0.77694807005990107</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A46" s="1" t="s">
         <v>47</v>
       </c>
@@ -2326,8 +3023,23 @@
       <c r="G46" s="3">
         <v>6.3109893574933267</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H46" s="4">
+        <v>0.72473036298409599</v>
+      </c>
+      <c r="I46" s="3">
+        <v>1.479131196651664</v>
+      </c>
+      <c r="J46" s="4">
+        <v>8.9664610358606511E-2</v>
+      </c>
+      <c r="K46" s="3">
+        <v>1.0696157318862785</v>
+      </c>
+      <c r="L46" s="5">
+        <v>0.72313783544528487</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
         <v>48</v>
       </c>
@@ -2349,8 +3061,23 @@
       <c r="G47" s="3">
         <v>5.169400677779322</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H47" s="4">
+        <v>0.7338006181126715</v>
+      </c>
+      <c r="I47" s="3">
+        <v>1.202894703731737</v>
+      </c>
+      <c r="J47" s="4">
+        <v>8.9784521044765586E-2</v>
+      </c>
+      <c r="K47" s="3">
+        <v>0.84511599551405114</v>
+      </c>
+      <c r="L47" s="5">
+        <v>0.70256855641000837</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
         <v>49</v>
       </c>
@@ -2372,8 +3099,23 @@
       <c r="G48" s="3">
         <v>5.3804556502341256</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H48" s="4">
+        <v>0.72711424190918461</v>
+      </c>
+      <c r="I48" s="3">
+        <v>1.2586456947381117</v>
+      </c>
+      <c r="J48" s="4">
+        <v>8.981033663075258E-2</v>
+      </c>
+      <c r="K48" s="3">
+        <v>1.1255526641897189</v>
+      </c>
+      <c r="L48" s="5">
+        <v>0.89425695324363241</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A49" s="1" t="s">
         <v>50</v>
       </c>
@@ -2395,8 +3137,23 @@
       <c r="G49" s="3">
         <v>5.7722820047925438</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H49" s="4">
+        <v>0.72975735632911054</v>
+      </c>
+      <c r="I49" s="3">
+        <v>1.3474717097689031</v>
+      </c>
+      <c r="J49" s="4">
+        <v>8.9863722236518867E-2</v>
+      </c>
+      <c r="K49" s="3">
+        <v>1.1191268721130305</v>
+      </c>
+      <c r="L49" s="5">
+        <v>0.83053830666690975</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A50" s="1" t="s">
         <v>51</v>
       </c>
@@ -2418,8 +3175,23 @@
       <c r="G50" s="3">
         <v>8.3745735034471522</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H50" s="4">
+        <v>0.74491231058245788</v>
+      </c>
+      <c r="I50" s="3">
+        <v>1.9319300407185505</v>
+      </c>
+      <c r="J50" s="4">
+        <v>8.9928188617082613E-2</v>
+      </c>
+      <c r="K50" s="3">
+        <v>1.6674932241433067</v>
+      </c>
+      <c r="L50" s="5">
+        <v>0.86312298530391363</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A51" s="1" t="s">
         <v>52</v>
       </c>
@@ -2441,8 +3213,23 @@
       <c r="G51" s="3">
         <v>6.7829642296165389</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H51" s="4">
+        <v>0.73064244059262917</v>
+      </c>
+      <c r="I51" s="3">
+        <v>1.5822882766294923</v>
+      </c>
+      <c r="J51" s="4">
+        <v>9.0014209389044031E-2</v>
+      </c>
+      <c r="K51" s="3">
+        <v>1.2885425803302382</v>
+      </c>
+      <c r="L51" s="5">
+        <v>0.81435386924247721</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A52" s="1" t="s">
         <v>53</v>
       </c>
@@ -2464,8 +3251,23 @@
       <c r="G52" s="3">
         <v>8.5406269733448426</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H52" s="4">
+        <v>0.74671939290930422</v>
+      </c>
+      <c r="I52" s="3">
+        <v>1.9675025900529064</v>
+      </c>
+      <c r="J52" s="4">
+        <v>9.0132707375943005E-2</v>
+      </c>
+      <c r="K52" s="3">
+        <v>1.5276882336825575</v>
+      </c>
+      <c r="L52" s="5">
+        <v>0.7764605959890899</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A53" s="1" t="s">
         <v>54</v>
       </c>
@@ -2487,8 +3289,23 @@
       <c r="G53" s="3">
         <v>5.9064321258691166</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H53" s="4">
+        <v>0.73357523808788272</v>
+      </c>
+      <c r="I53" s="3">
+        <v>1.3746383008181096</v>
+      </c>
+      <c r="J53" s="4">
+        <v>9.0157582164241232E-2</v>
+      </c>
+      <c r="K53" s="3">
+        <v>0.97648863882884285</v>
+      </c>
+      <c r="L53" s="5">
+        <v>0.71036041862625965</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A54" s="1" t="s">
         <v>55</v>
       </c>
@@ -2510,8 +3327,23 @@
       <c r="G54" s="3">
         <v>7.638633418751283</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H54" s="4">
+        <v>0.72671890247495008</v>
+      </c>
+      <c r="I54" s="3">
+        <v>1.7874452647743997</v>
+      </c>
+      <c r="J54" s="4">
+        <v>9.0168650005475304E-2</v>
+      </c>
+      <c r="K54" s="3">
+        <v>1.5163556839581325</v>
+      </c>
+      <c r="L54" s="5">
+        <v>0.84833684915633911</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A55" s="1" t="s">
         <v>56</v>
       </c>
@@ -2533,8 +3365,23 @@
       <c r="G55" s="3">
         <v>6.3886921920563395</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H55" s="4">
+        <v>0.72868885438902953</v>
+      </c>
+      <c r="I55" s="3">
+        <v>1.4926260872055215</v>
+      </c>
+      <c r="J55" s="4">
+        <v>9.0249735350276805E-2</v>
+      </c>
+      <c r="K55" s="3">
+        <v>1.2000300813146043</v>
+      </c>
+      <c r="L55" s="5">
+        <v>0.80397233547035729</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A56" s="1" t="s">
         <v>57</v>
       </c>
@@ -2556,8 +3403,23 @@
       <c r="G56" s="3">
         <v>6.9415856104560589</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H56" s="4">
+        <v>0.74399208519265458</v>
+      </c>
+      <c r="I56" s="3">
+        <v>1.6025006040132028</v>
+      </c>
+      <c r="J56" s="4">
+        <v>9.0277704649936452E-2</v>
+      </c>
+      <c r="K56" s="3">
+        <v>1.1742003594833768</v>
+      </c>
+      <c r="L56" s="5">
+        <v>0.73273005735085672</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A57" s="1" t="s">
         <v>58</v>
       </c>
@@ -2579,8 +3441,23 @@
       <c r="G57" s="3">
         <v>8.2443288584061065</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H57" s="4">
+        <v>0.72853156897498805</v>
+      </c>
+      <c r="I57" s="3">
+        <v>1.9263925630692307</v>
+      </c>
+      <c r="J57" s="4">
+        <v>9.0330552208871095E-2</v>
+      </c>
+      <c r="K57" s="3">
+        <v>1.6086293611598277</v>
+      </c>
+      <c r="L57" s="5">
+        <v>0.8350475349618639</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A58" s="1" t="s">
         <v>59</v>
       </c>
@@ -2602,8 +3479,23 @@
       <c r="G58" s="3">
         <v>5.7114847424545019</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H58" s="4">
+        <v>0.73400243011104738</v>
+      </c>
+      <c r="I58" s="3">
+        <v>1.3288217680530552</v>
+      </c>
+      <c r="J58" s="4">
+        <v>9.0371701446856065E-2</v>
+      </c>
+      <c r="K58" s="3">
+        <v>0.9742777302976191</v>
+      </c>
+      <c r="L58" s="5">
+        <v>0.73318917082845358</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A59" s="1" t="s">
         <v>60</v>
       </c>
@@ -2625,8 +3517,23 @@
       <c r="G59" s="3">
         <v>6.0666801515390034</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H59" s="4">
+        <v>0.74577954036490923</v>
+      </c>
+      <c r="I59" s="3">
+        <v>1.3986046079820726</v>
+      </c>
+      <c r="J59" s="4">
+        <v>9.0524397315404098E-2</v>
+      </c>
+      <c r="K59" s="3">
+        <v>1.0516554830436227</v>
+      </c>
+      <c r="L59" s="5">
+        <v>0.75193194491255577</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A60" s="1" t="s">
         <v>61</v>
       </c>
@@ -2648,8 +3555,23 @@
       <c r="G60" s="3">
         <v>6.8414297076924981</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H60" s="4">
+        <v>0.73581691712807229</v>
+      </c>
+      <c r="I60" s="3">
+        <v>1.5894414506307939</v>
+      </c>
+      <c r="J60" s="4">
+        <v>9.0622484287009628E-2</v>
+      </c>
+      <c r="K60" s="3">
+        <v>1.2887592098085949</v>
+      </c>
+      <c r="L60" s="5">
+        <v>0.81082521743542779</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A61" s="1" t="s">
         <v>62</v>
       </c>
@@ -2671,8 +3593,23 @@
       <c r="G61" s="3">
         <v>7.2006736662401636</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H61" s="4">
+        <v>0.74011261258456151</v>
+      </c>
+      <c r="I61" s="3">
+        <v>1.6673066709340443</v>
+      </c>
+      <c r="J61" s="4">
+        <v>9.0627136464176236E-2</v>
+      </c>
+      <c r="K61" s="3">
+        <v>1.2066683249432502</v>
+      </c>
+      <c r="L61" s="5">
+        <v>0.72372308344886571</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A62" s="1" t="s">
         <v>63</v>
       </c>
@@ -2694,8 +3631,23 @@
       <c r="G62" s="3">
         <v>6.8539866030507142</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H62" s="4">
+        <v>0.757748820859381</v>
+      </c>
+      <c r="I62" s="3">
+        <v>1.5658072169379125</v>
+      </c>
+      <c r="J62" s="4">
+        <v>9.0758068083561169E-2</v>
+      </c>
+      <c r="K62" s="3">
+        <v>1.3334394921989861</v>
+      </c>
+      <c r="L62" s="5">
+        <v>0.85159876501697063</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A63" s="1" t="s">
         <v>64</v>
       </c>
@@ -2717,8 +3669,23 @@
       <c r="G63" s="3">
         <v>6.8766494756470138</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H63" s="4">
+        <v>0.73703458137769262</v>
+      </c>
+      <c r="I63" s="3">
+        <v>1.5961030826196774</v>
+      </c>
+      <c r="J63" s="4">
+        <v>9.0770468718376504E-2</v>
+      </c>
+      <c r="K63" s="3">
+        <v>1.3477661490216197</v>
+      </c>
+      <c r="L63" s="5">
+        <v>0.84441046677858456</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A64" s="1" t="s">
         <v>65</v>
       </c>
@@ -2740,8 +3707,23 @@
       <c r="G64" s="3">
         <v>5.3106280089610323</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H64" s="4">
+        <v>0.74359634244733552</v>
+      </c>
+      <c r="I64" s="3">
+        <v>1.2263677332130518</v>
+      </c>
+      <c r="J64" s="4">
+        <v>9.0783911181428811E-2</v>
+      </c>
+      <c r="K64" s="3">
+        <v>0.88378888988740878</v>
+      </c>
+      <c r="L64" s="5">
+        <v>0.72065569400778728</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A65" s="1" t="s">
         <v>66</v>
       </c>
@@ -2763,8 +3745,23 @@
       <c r="G65" s="3">
         <v>5.8174348666726701</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H65" s="4">
+        <v>0.74204583232792187</v>
+      </c>
+      <c r="I65" s="3">
+        <v>1.3450106203137009</v>
+      </c>
+      <c r="J65" s="4">
+        <v>9.0840358280138131E-2</v>
+      </c>
+      <c r="K65" s="3">
+        <v>1.0951455578832925</v>
+      </c>
+      <c r="L65" s="5">
+        <v>0.81422818626359139</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A66" s="1" t="s">
         <v>67</v>
       </c>
@@ -2786,8 +3783,23 @@
       <c r="G66" s="3">
         <v>5.565276646799532</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H66" s="4">
+        <v>0.74293613848457329</v>
+      </c>
+      <c r="I66" s="3">
+        <v>1.2858268456058366</v>
+      </c>
+      <c r="J66" s="4">
+        <v>9.088908289013127E-2</v>
+      </c>
+      <c r="K66" s="3">
+        <v>0.97308127790492205</v>
+      </c>
+      <c r="L66" s="5">
+        <v>0.75677474088390184</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A67" s="1" t="s">
         <v>68</v>
       </c>
@@ -2809,8 +3821,23 @@
       <c r="G67" s="3">
         <v>7.2365454187945488</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H67" s="4">
+        <v>0.74429513645529877</v>
+      </c>
+      <c r="I67" s="3">
+        <v>1.6702012995487627</v>
+      </c>
+      <c r="J67" s="4">
+        <v>9.0948812747634042E-2</v>
+      </c>
+      <c r="K67" s="3">
+        <v>1.4147697936583667</v>
+      </c>
+      <c r="L67" s="5">
+        <v>0.8470654369869034</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A68" s="1" t="s">
         <v>69</v>
       </c>
@@ -2832,8 +3859,23 @@
       <c r="G68" s="3">
         <v>5.6483096679415326</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H68" s="4">
+        <v>0.75103553495726072</v>
+      </c>
+      <c r="I68" s="3">
+        <v>1.2969361095997198</v>
+      </c>
+      <c r="J68" s="4">
+        <v>9.1012906477076577E-2</v>
+      </c>
+      <c r="K68" s="3">
+        <v>0.96440272507003821</v>
+      </c>
+      <c r="L68" s="5">
+        <v>0.74360079724180617</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A69" s="1" t="s">
         <v>70</v>
       </c>
@@ -2855,8 +3897,23 @@
       <c r="G69" s="3">
         <v>5.5146519970150507</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H69" s="4">
+        <v>0.74980267844500037</v>
+      </c>
+      <c r="I69" s="3">
+        <v>1.2674359460166142</v>
+      </c>
+      <c r="J69" s="4">
+        <v>9.1021308419903524E-2</v>
+      </c>
+      <c r="K69" s="3">
+        <v>0.95067740490076169</v>
+      </c>
+      <c r="L69" s="5">
+        <v>0.75007925085967209</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A70" s="1" t="s">
         <v>71</v>
       </c>
@@ -2878,8 +3935,23 @@
       <c r="G70" s="3">
         <v>7.0971633247681325</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H70" s="4">
+        <v>0.73586017392693448</v>
+      </c>
+      <c r="I70" s="3">
+        <v>1.6487972593499682</v>
+      </c>
+      <c r="J70" s="4">
+        <v>9.103959424169715E-2</v>
+      </c>
+      <c r="K70" s="3">
+        <v>1.1638430276055085</v>
+      </c>
+      <c r="L70" s="5">
+        <v>0.70587394599645858</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A71" s="1" t="s">
         <v>72</v>
       </c>
@@ -2901,8 +3973,23 @@
       <c r="G71" s="3">
         <v>6.1918302719356006</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H71" s="4">
+        <v>0.75141101711778213</v>
+      </c>
+      <c r="I71" s="3">
+        <v>1.421327857480335</v>
+      </c>
+      <c r="J71" s="4">
+        <v>9.106161028579722E-2</v>
+      </c>
+      <c r="K71" s="3">
+        <v>1.0410511389633428</v>
+      </c>
+      <c r="L71" s="5">
+        <v>0.73244968322007742</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A72" s="1" t="s">
         <v>73</v>
       </c>
@@ -2924,8 +4011,23 @@
       <c r="G72" s="3">
         <v>6.6314077720758178</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H72" s="4">
+        <v>0.74940031900136295</v>
+      </c>
+      <c r="I72" s="3">
+        <v>1.5245615985156675</v>
+      </c>
+      <c r="J72" s="4">
+        <v>9.1111689869699156E-2</v>
+      </c>
+      <c r="K72" s="3">
+        <v>1.2205996211549952</v>
+      </c>
+      <c r="L72" s="5">
+        <v>0.80062335450623057</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A73" s="1" t="s">
         <v>74</v>
       </c>
@@ -2947,8 +4049,23 @@
       <c r="G73" s="3">
         <v>6.632928778522114</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H73" s="4">
+        <v>0.74900853828256841</v>
+      </c>
+      <c r="I73" s="3">
+        <v>1.5253672123348001</v>
+      </c>
+      <c r="J73" s="4">
+        <v>9.115397473954058E-2</v>
+      </c>
+      <c r="K73" s="3">
+        <v>1.109181132776331</v>
+      </c>
+      <c r="L73" s="5">
+        <v>0.72715679464393734</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A74" s="1" t="s">
         <v>75</v>
       </c>
@@ -2970,8 +4087,23 @@
       <c r="G74" s="3">
         <v>5.2677971260958998</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H74" s="4">
+        <v>0.73557914494794108</v>
+      </c>
+      <c r="I74" s="3">
+        <v>1.2240812599390187</v>
+      </c>
+      <c r="J74" s="4">
+        <v>9.1206165143497109E-2</v>
+      </c>
+      <c r="K74" s="3">
+        <v>0.91614432070996954</v>
+      </c>
+      <c r="L74" s="5">
+        <v>0.74843423446872326</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A75" s="1" t="s">
         <v>76</v>
       </c>
@@ -2993,8 +4125,23 @@
       <c r="G75" s="3">
         <v>9.8763802339091171</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H75" s="4">
+        <v>0.74880752124851324</v>
+      </c>
+      <c r="I75" s="3">
+        <v>2.2715693987582886</v>
+      </c>
+      <c r="J75" s="4">
+        <v>9.1215684848056033E-2</v>
+      </c>
+      <c r="K75" s="3">
+        <v>2.0950769077457072</v>
+      </c>
+      <c r="L75" s="5">
+        <v>0.92230372045465225</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A76" s="1" t="s">
         <v>77</v>
       </c>
@@ -3016,8 +4163,23 @@
       <c r="G76" s="3">
         <v>6.8258334838837982</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H76" s="4">
+        <v>0.74453721787895</v>
+      </c>
+      <c r="I76" s="3">
+        <v>1.5751178882149852</v>
+      </c>
+      <c r="J76" s="4">
+        <v>9.1239818888553981E-2</v>
+      </c>
+      <c r="K76" s="3">
+        <v>1.1747785909441779</v>
+      </c>
+      <c r="L76" s="5">
+        <v>0.74583534333135226</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A77" s="1" t="s">
         <v>78</v>
       </c>
@@ -3039,8 +4201,23 @@
       <c r="G77" s="3">
         <v>6.8132339594995983</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H77" s="4">
+        <v>0.740217997505487</v>
+      </c>
+      <c r="I77" s="3">
+        <v>1.5774692036705076</v>
+      </c>
+      <c r="J77" s="4">
+        <v>9.1278102475568987E-2</v>
+      </c>
+      <c r="K77" s="3">
+        <v>1.1088727865688373</v>
+      </c>
+      <c r="L77" s="5">
+        <v>0.70294417411679133</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A78" s="1" t="s">
         <v>79</v>
       </c>
@@ -3062,8 +4239,23 @@
       <c r="G78" s="3">
         <v>7.9768898338843428</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H78" s="4">
+        <v>0.76200774473390831</v>
+      </c>
+      <c r="I78" s="3">
+        <v>1.8165325182623064</v>
+      </c>
+      <c r="J78" s="4">
+        <v>9.1302402309844086E-2</v>
+      </c>
+      <c r="K78" s="3">
+        <v>1.5494874356652577</v>
+      </c>
+      <c r="L78" s="5">
+        <v>0.85299185128130606</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A79" s="1" t="s">
         <v>80</v>
       </c>
@@ -3085,8 +4277,23 @@
       <c r="G79" s="3">
         <v>7.0904982262619569</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H79" s="4">
+        <v>0.75205231037130704</v>
+      </c>
+      <c r="I79" s="3">
+        <v>1.6268173729341626</v>
+      </c>
+      <c r="J79" s="4">
+        <v>9.1376936364218189E-2</v>
+      </c>
+      <c r="K79" s="3">
+        <v>1.2964893791185834</v>
+      </c>
+      <c r="L79" s="5">
+        <v>0.79694832418724881</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A80" s="1" t="s">
         <v>81</v>
       </c>
@@ -3108,8 +4315,23 @@
       <c r="G80" s="3">
         <v>7.2233115143284294</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H80" s="4">
+        <v>0.75062514769850086</v>
+      </c>
+      <c r="I80" s="3">
+        <v>1.6590870006843335</v>
+      </c>
+      <c r="J80" s="4">
+        <v>9.1478139728916233E-2</v>
+      </c>
+      <c r="K80" s="3">
+        <v>1.1683370313079042</v>
+      </c>
+      <c r="L80" s="5">
+        <v>0.70420480108999284</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A81" s="1" t="s">
         <v>82</v>
       </c>
@@ -3131,8 +4353,23 @@
       <c r="G81" s="3">
         <v>6.66130153290095</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H81" s="4">
+        <v>0.76526312388825246</v>
+      </c>
+      <c r="I81" s="3">
+        <v>1.5132880916530886</v>
+      </c>
+      <c r="J81" s="4">
+        <v>9.1549232958824861E-2</v>
+      </c>
+      <c r="K81" s="3">
+        <v>1.2687501236925698</v>
+      </c>
+      <c r="L81" s="5">
+        <v>0.83840620347881678</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A82" s="1" t="s">
         <v>83</v>
       </c>
@@ -3154,8 +4391,23 @@
       <c r="G82" s="3">
         <v>6.0785515108589721</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H82" s="4">
+        <v>0.74642368457001207</v>
+      </c>
+      <c r="I82" s="3">
+        <v>1.4006486392739617</v>
+      </c>
+      <c r="J82" s="4">
+        <v>9.16528158210108E-2</v>
+      </c>
+      <c r="K82" s="3">
+        <v>1.1869220422601696</v>
+      </c>
+      <c r="L82" s="5">
+        <v>0.84740884257412397</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A83" s="1" t="s">
         <v>84</v>
       </c>
@@ -3177,8 +4429,23 @@
       <c r="G83" s="3">
         <v>7.8573279127641058</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H83" s="4">
+        <v>0.75285391208405428</v>
+      </c>
+      <c r="I83" s="3">
+        <v>1.8016536652206308</v>
+      </c>
+      <c r="J83" s="4">
+        <v>9.1743373882054322E-2</v>
+      </c>
+      <c r="K83" s="3">
+        <v>1.3336255601289029</v>
+      </c>
+      <c r="L83" s="5">
+        <v>0.74022304390316163</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A84" s="1" t="s">
         <v>85</v>
       </c>
@@ -3200,8 +4467,23 @@
       <c r="G84" s="3">
         <v>6.8743874122454258</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H84" s="4">
+        <v>0.74679869680557798</v>
+      </c>
+      <c r="I84" s="3">
+        <v>1.5835681753063844</v>
+      </c>
+      <c r="J84" s="4">
+        <v>9.1919640649732529E-2</v>
+      </c>
+      <c r="K84" s="3">
+        <v>1.1211360658183469</v>
+      </c>
+      <c r="L84" s="5">
+        <v>0.70798092769288734</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A85" s="1" t="s">
         <v>86</v>
       </c>
@@ -3223,8 +4505,23 @@
       <c r="G85" s="3">
         <v>7.7127403986093555</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H85" s="4">
+        <v>0.77702401753100914</v>
+      </c>
+      <c r="I85" s="3">
+        <v>1.737117939193455</v>
+      </c>
+      <c r="J85" s="4">
+        <v>9.2055435179058565E-2</v>
+      </c>
+      <c r="K85" s="3">
+        <v>1.2077442488178913</v>
+      </c>
+      <c r="L85" s="5">
+        <v>0.69525748457738445</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A86" s="1" t="s">
         <v>87</v>
       </c>
@@ -3246,8 +4543,23 @@
       <c r="G86" s="3">
         <v>7.9388977643621388</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H86" s="4">
+        <v>0.75904738226666058</v>
+      </c>
+      <c r="I86" s="3">
+        <v>1.8118827905980803</v>
+      </c>
+      <c r="J86" s="4">
+        <v>9.2074913376717651E-2</v>
+      </c>
+      <c r="K86" s="3">
+        <v>1.3445848435788581</v>
+      </c>
+      <c r="L86" s="5">
+        <v>0.74209261799712056</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A87" s="1" t="s">
         <v>88</v>
       </c>
@@ -3269,8 +4581,23 @@
       <c r="G87" s="3">
         <v>7.0724531453248005</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H87" s="4">
+        <v>0.76501553021801671</v>
+      </c>
+      <c r="I87" s="3">
+        <v>1.6069835250532152</v>
+      </c>
+      <c r="J87" s="4">
+        <v>9.2309680904354471E-2</v>
+      </c>
+      <c r="K87" s="3">
+        <v>1.2499682189470385</v>
+      </c>
+      <c r="L87" s="5">
+        <v>0.77783511744816791</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A88" s="1" t="s">
         <v>89</v>
       </c>
@@ -3292,8 +4619,23 @@
       <c r="G88" s="3">
         <v>6.4044238003446026</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H88" s="4">
+        <v>0.75684965952831207</v>
+      </c>
+      <c r="I88" s="3">
+        <v>1.4640953853703789</v>
+      </c>
+      <c r="J88" s="4">
+        <v>9.2404565131667948E-2</v>
+      </c>
+      <c r="K88" s="3">
+        <v>1.2408810162782611</v>
+      </c>
+      <c r="L88" s="5">
+        <v>0.84754110195105203</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A89" s="1" t="s">
         <v>90</v>
       </c>
@@ -3315,8 +4657,23 @@
       <c r="G89" s="3">
         <v>6.935647334990847</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H89" s="4">
+        <v>0.74981090930379113</v>
+      </c>
+      <c r="I89" s="3">
+        <v>1.5940050831664747</v>
+      </c>
+      <c r="J89" s="4">
+        <v>9.247848135772431E-2</v>
+      </c>
+      <c r="K89" s="3">
+        <v>1.1364770115803335</v>
+      </c>
+      <c r="L89" s="5">
+        <v>0.71296950278397686</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A90" s="1" t="s">
         <v>91</v>
       </c>
@@ -3338,8 +4695,23 @@
       <c r="G90" s="3">
         <v>5.8443140792184067</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H90" s="4">
+        <v>0.76307919829154736</v>
+      </c>
+      <c r="I90" s="3">
+        <v>1.3298450692598958</v>
+      </c>
+      <c r="J90" s="4">
+        <v>9.2492464006917866E-2</v>
+      </c>
+      <c r="K90" s="3">
+        <v>0.97403677448871795</v>
+      </c>
+      <c r="L90" s="5">
+        <v>0.73244379890869737</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A91" s="1" t="s">
         <v>92</v>
       </c>
@@ -3361,8 +4733,23 @@
       <c r="G91" s="3">
         <v>8.0124630356447142</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H91" s="4">
+        <v>0.75568981098498389</v>
+      </c>
+      <c r="I91" s="3">
+        <v>1.833290703201051</v>
+      </c>
+      <c r="J91" s="4">
+        <v>9.2575398963636799E-2</v>
+      </c>
+      <c r="K91" s="3">
+        <v>1.4788557945694087</v>
+      </c>
+      <c r="L91" s="5">
+        <v>0.80666737249429421</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A92" s="1" t="s">
         <v>93</v>
       </c>
@@ -3384,8 +4771,23 @@
       <c r="G92" s="3">
         <v>8.7453369179530682</v>
       </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H92" s="4">
+        <v>0.77560259534553955</v>
+      </c>
+      <c r="I92" s="3">
+        <v>1.9717071604757934</v>
+      </c>
+      <c r="J92" s="4">
+        <v>9.2617399080115251E-2</v>
+      </c>
+      <c r="K92" s="3">
+        <v>1.6860730732497307</v>
+      </c>
+      <c r="L92" s="5">
+        <v>0.85513361570531776</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A93" s="1" t="s">
         <v>94</v>
       </c>
@@ -3407,8 +4809,23 @@
       <c r="G93" s="3">
         <v>7.0136576374001152</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H93" s="4">
+        <v>0.76283820888798415</v>
+      </c>
+      <c r="I93" s="3">
+        <v>1.5962016748325396</v>
+      </c>
+      <c r="J93" s="4">
+        <v>9.2619553053062104E-2</v>
+      </c>
+      <c r="K93" s="3">
+        <v>1.0357195044061185</v>
+      </c>
+      <c r="L93" s="5">
+        <v>0.64886506557185386</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A94" s="1" t="s">
         <v>95</v>
       </c>
@@ -3430,8 +4847,23 @@
       <c r="G94" s="3">
         <v>6.0949099683437566</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H94" s="4">
+        <v>0.7762116880092863</v>
+      </c>
+      <c r="I94" s="3">
+        <v>1.3735570857158319</v>
+      </c>
+      <c r="J94" s="4">
+        <v>9.2663274576157986E-2</v>
+      </c>
+      <c r="K94" s="3">
+        <v>1.0404365892348424</v>
+      </c>
+      <c r="L94" s="5">
+        <v>0.75747604526579748</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A95" s="1" t="s">
         <v>96</v>
       </c>
@@ -3453,8 +4885,23 @@
       <c r="G95" s="3">
         <v>8.0662195862554995</v>
       </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H95" s="4">
+        <v>0.75733283288439179</v>
+      </c>
+      <c r="I95" s="3">
+        <v>1.8433093758989845</v>
+      </c>
+      <c r="J95" s="4">
+        <v>9.301912169393084E-2</v>
+      </c>
+      <c r="K95" s="3">
+        <v>1.5118883150228561</v>
+      </c>
+      <c r="L95" s="5">
+        <v>0.82020323597904243</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A96" s="1" t="s">
         <v>97</v>
       </c>
@@ -3476,8 +4923,23 @@
       <c r="G96" s="3">
         <v>5.9272522844637479</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H96" s="4">
+        <v>0.76949847035470231</v>
+      </c>
+      <c r="I96" s="3">
+        <v>1.3423352645346949</v>
+      </c>
+      <c r="J96" s="4">
+        <v>9.3068347716881411E-2</v>
+      </c>
+      <c r="K96" s="3">
+        <v>1.109347497756983</v>
+      </c>
+      <c r="L96" s="5">
+        <v>0.82643101694979704</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A97" s="1" t="s">
         <v>98</v>
       </c>
@@ -3499,8 +4961,23 @@
       <c r="G97" s="3">
         <v>7.1328491799424114</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H97" s="4">
+        <v>0.7607819825155665</v>
+      </c>
+      <c r="I97" s="3">
+        <v>1.6258158516476495</v>
+      </c>
+      <c r="J97" s="4">
+        <v>9.3077880054112397E-2</v>
+      </c>
+      <c r="K97" s="3">
+        <v>1.1501928587338219</v>
+      </c>
+      <c r="L97" s="5">
+        <v>0.70745580292391841</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A98" s="1" t="s">
         <v>99</v>
       </c>
@@ -3522,8 +4999,23 @@
       <c r="G98" s="3">
         <v>7.7792353867858992</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H98" s="4">
+        <v>0.77458862814898144</v>
+      </c>
+      <c r="I98" s="3">
+        <v>1.755193824745632</v>
+      </c>
+      <c r="J98" s="4">
+        <v>9.3158132501239332E-2</v>
+      </c>
+      <c r="K98" s="3">
+        <v>1.1784618018102702</v>
+      </c>
+      <c r="L98" s="5">
+        <v>0.67141405421766265</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A99" s="1" t="s">
         <v>100</v>
       </c>
@@ -3545,8 +5037,23 @@
       <c r="G99" s="3">
         <v>6.7679935513091891</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H99" s="4">
+        <v>0.76328909069220818</v>
+      </c>
+      <c r="I99" s="3">
+        <v>1.5397778190031097</v>
+      </c>
+      <c r="J99" s="4">
+        <v>9.3189411226266325E-2</v>
+      </c>
+      <c r="K99" s="3">
+        <v>1.05415588331249</v>
+      </c>
+      <c r="L99" s="5">
+        <v>0.6846155791456825</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A100" s="1" t="s">
         <v>101</v>
       </c>
@@ -3568,8 +5075,23 @@
       <c r="G100" s="3">
         <v>6.2852139759469878</v>
       </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H100" s="4">
+        <v>0.76717955156491335</v>
+      </c>
+      <c r="I100" s="3">
+        <v>1.4258317098109068</v>
+      </c>
+      <c r="J100" s="4">
+        <v>9.3380363172711867E-2</v>
+      </c>
+      <c r="K100" s="3">
+        <v>1.0255868145589924</v>
+      </c>
+      <c r="L100" s="5">
+        <v>0.7192902272421795</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A101" s="1" t="s">
         <v>102</v>
       </c>
@@ -3591,8 +5113,23 @@
       <c r="G101" s="3">
         <v>6.4371406148232495</v>
       </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H101" s="4">
+        <v>0.76260758985282606</v>
+      </c>
+      <c r="I101" s="3">
+        <v>1.4652501677910339</v>
+      </c>
+      <c r="J101" s="4">
+        <v>9.3499614407661649E-2</v>
+      </c>
+      <c r="K101" s="3">
+        <v>1.1756920359243959</v>
+      </c>
+      <c r="L101" s="5">
+        <v>0.80238314368994956</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A102" s="1" t="s">
         <v>103</v>
       </c>
@@ -3614,8 +5151,23 @@
       <c r="G102" s="3">
         <v>7.3376822252297416</v>
       </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H102" s="4">
+        <v>0.77023044780129513</v>
+      </c>
+      <c r="I102" s="3">
+        <v>1.6608505427928828</v>
+      </c>
+      <c r="J102" s="4">
+        <v>9.3526364921711624E-2</v>
+      </c>
+      <c r="K102" s="3">
+        <v>1.2102886201266281</v>
+      </c>
+      <c r="L102" s="5">
+        <v>0.72871615412872093</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A103" s="1" t="s">
         <v>104</v>
       </c>
@@ -3637,8 +5189,23 @@
       <c r="G103" s="3">
         <v>6.6558724007897467</v>
       </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H103" s="4">
+        <v>0.77342729968867752</v>
+      </c>
+      <c r="I103" s="3">
+        <v>1.5030130410436788</v>
+      </c>
+      <c r="J103" s="4">
+        <v>9.3542619230181631E-2</v>
+      </c>
+      <c r="K103" s="3">
+        <v>1.0997659000920033</v>
+      </c>
+      <c r="L103" s="5">
+        <v>0.73170749026125237</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A104" s="1" t="s">
         <v>105</v>
       </c>
@@ -3660,8 +5227,23 @@
       <c r="G104" s="3">
         <v>6.7990313929955164</v>
       </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H104" s="4">
+        <v>0.77524123197921579</v>
+      </c>
+      <c r="I104" s="3">
+        <v>1.5333142019485857</v>
+      </c>
+      <c r="J104" s="4">
+        <v>9.3561510517107663E-2</v>
+      </c>
+      <c r="K104" s="3">
+        <v>1.1838093407571206</v>
+      </c>
+      <c r="L104" s="5">
+        <v>0.77205920303398812</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A105" s="1" t="s">
         <v>106</v>
       </c>
@@ -3683,8 +5265,23 @@
       <c r="G105" s="3">
         <v>6.8610544482044702</v>
       </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H105" s="4">
+        <v>0.77156914240499097</v>
+      </c>
+      <c r="I105" s="3">
+        <v>1.5514493507104481</v>
+      </c>
+      <c r="J105" s="4">
+        <v>9.3612904397159524E-2</v>
+      </c>
+      <c r="K105" s="3">
+        <v>1.0921240919068997</v>
+      </c>
+      <c r="L105" s="5">
+        <v>0.7039379605958701</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A106" s="1" t="s">
         <v>107</v>
       </c>
@@ -3706,8 +5303,23 @@
       <c r="G106" s="3">
         <v>8.0378452665581221</v>
       </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H106" s="4">
+        <v>0.77632946511080014</v>
+      </c>
+      <c r="I106" s="3">
+        <v>1.811248793678903</v>
+      </c>
+      <c r="J106" s="4">
+        <v>9.3755482647606761E-2</v>
+      </c>
+      <c r="K106" s="3">
+        <v>1.290239917279425</v>
+      </c>
+      <c r="L106" s="5">
+        <v>0.71234825485170639</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A107" s="1" t="s">
         <v>108</v>
       </c>
@@ -3729,8 +5341,23 @@
       <c r="G107" s="3">
         <v>7.1430360993747399</v>
       </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H107" s="4">
+        <v>0.75763275914882511</v>
+      </c>
+      <c r="I107" s="3">
+        <v>1.6319812460855947</v>
+      </c>
+      <c r="J107" s="4">
+        <v>9.378226884149396E-2</v>
+      </c>
+      <c r="K107" s="3">
+        <v>1.1057056531596789</v>
+      </c>
+      <c r="L107" s="5">
+        <v>0.67752350452052068</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A108" s="1" t="s">
         <v>109</v>
       </c>
@@ -3752,8 +5379,23 @@
       <c r="G108" s="3">
         <v>6.4543270658094798</v>
       </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H108" s="4">
+        <v>0.76820862992696437</v>
+      </c>
+      <c r="I108" s="3">
+        <v>1.4630849171067182</v>
+      </c>
+      <c r="J108" s="4">
+        <v>9.3813555277616048E-2</v>
+      </c>
+      <c r="K108" s="3">
+        <v>1.2550369288587979</v>
+      </c>
+      <c r="L108" s="5">
+        <v>0.85780183650629138</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A109" s="1" t="s">
         <v>110</v>
       </c>
@@ -3775,8 +5417,23 @@
       <c r="G109" s="3">
         <v>6.3572237148756017</v>
       </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H109" s="4">
+        <v>0.76657626880133145</v>
+      </c>
+      <c r="I109" s="3">
+        <v>1.4428092934233339</v>
+      </c>
+      <c r="J109" s="4">
+        <v>9.3821308256850935E-2</v>
+      </c>
+      <c r="K109" s="3">
+        <v>1.1204263248416297</v>
+      </c>
+      <c r="L109" s="5">
+        <v>0.77655884942576814</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A110" s="1" t="s">
         <v>111</v>
       </c>
@@ -3798,8 +5455,23 @@
       <c r="G110" s="3">
         <v>9.4095818366727144</v>
       </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H110" s="4">
+        <v>0.79783649764567011</v>
+      </c>
+      <c r="I110" s="3">
+        <v>2.0881624136962893</v>
+      </c>
+      <c r="J110" s="4">
+        <v>9.4130301060659144E-2</v>
+      </c>
+      <c r="K110" s="3">
+        <v>1.3389700637363788</v>
+      </c>
+      <c r="L110" s="5">
+        <v>0.64121931079405203</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A111" s="1" t="s">
         <v>112</v>
       </c>
@@ -3821,8 +5493,23 @@
       <c r="G111" s="3">
         <v>7.5563993165229704</v>
       </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H111" s="4">
+        <v>0.7763878450976367</v>
+      </c>
+      <c r="I111" s="3">
+        <v>1.7026917717344168</v>
+      </c>
+      <c r="J111" s="4">
+        <v>9.4306682601267872E-2</v>
+      </c>
+      <c r="K111" s="3">
+        <v>1.3922243837817556</v>
+      </c>
+      <c r="L111" s="5">
+        <v>0.8176608396736369</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A112" s="1" t="s">
         <v>113</v>
       </c>
@@ -3844,8 +5531,23 @@
       <c r="G112" s="3">
         <v>6.8686653930458874</v>
       </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H112" s="4">
+        <v>0.77895136415385546</v>
+      </c>
+      <c r="I112" s="3">
+        <v>1.544861527051022</v>
+      </c>
+      <c r="J112" s="4">
+        <v>9.4313891031268499E-2</v>
+      </c>
+      <c r="K112" s="3">
+        <v>1.2612593721227405</v>
+      </c>
+      <c r="L112" s="5">
+        <v>0.81642228124507155</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A113" s="1" t="s">
         <v>114</v>
       </c>
@@ -3867,8 +5569,23 @@
       <c r="G113" s="3">
         <v>6.6796688716179347</v>
       </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H113" s="4">
+        <v>0.78106589614619293</v>
+      </c>
+      <c r="I113" s="3">
+        <v>1.5000684284462384</v>
+      </c>
+      <c r="J113" s="4">
+        <v>9.4343514322047017E-2</v>
+      </c>
+      <c r="K113" s="3">
+        <v>1.01977836801119</v>
+      </c>
+      <c r="L113" s="5">
+        <v>0.67982123260034877</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A114" s="1" t="s">
         <v>115</v>
       </c>
@@ -3890,8 +5607,23 @@
       <c r="G114" s="3">
         <v>5.3616961439587953</v>
       </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H114" s="4">
+        <v>0.77966249481496752</v>
+      </c>
+      <c r="I114" s="3">
+        <v>1.2053113765201382</v>
+      </c>
+      <c r="J114" s="4">
+        <v>9.441374561505092E-2</v>
+      </c>
+      <c r="K114" s="3">
+        <v>0.98190258670133723</v>
+      </c>
+      <c r="L114" s="5">
+        <v>0.81464641073594934</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A115" s="1" t="s">
         <v>116</v>
       </c>
@@ -3913,8 +5645,23 @@
       <c r="G115" s="3">
         <v>6.998316688771979</v>
       </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H115" s="4">
+        <v>0.78276362534903576</v>
+      </c>
+      <c r="I115" s="3">
+        <v>1.5697118331246944</v>
+      </c>
+      <c r="J115" s="4">
+        <v>9.4569388457059131E-2</v>
+      </c>
+      <c r="K115" s="3">
+        <v>1.1798353272543047</v>
+      </c>
+      <c r="L115" s="5">
+        <v>0.75162542726438175</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A116" s="1" t="s">
         <v>117</v>
       </c>
@@ -3936,8 +5683,23 @@
       <c r="G116" s="3">
         <v>7.8736731509276865</v>
       </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H116" s="4">
+        <v>0.78876194001179234</v>
+      </c>
+      <c r="I116" s="3">
+        <v>1.7585121217320252</v>
+      </c>
+      <c r="J116" s="4">
+        <v>9.464225358187231E-2</v>
+      </c>
+      <c r="K116" s="3">
+        <v>1.3424691495003651</v>
+      </c>
+      <c r="L116" s="5">
+        <v>0.76341193950833641</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A117" s="1" t="s">
         <v>118</v>
       </c>
@@ -3959,8 +5721,23 @@
       <c r="G117" s="3">
         <v>6.3550686729154222</v>
       </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H117" s="4">
+        <v>0.77470267409069771</v>
+      </c>
+      <c r="I117" s="3">
+        <v>1.4337558900504708</v>
+      </c>
+      <c r="J117" s="4">
+        <v>9.4717804882825565E-2</v>
+      </c>
+      <c r="K117" s="3">
+        <v>1.1079551775793408</v>
+      </c>
+      <c r="L117" s="5">
+        <v>0.77276416806234638</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A118" s="1" t="s">
         <v>119</v>
       </c>
@@ -3982,8 +5759,23 @@
       <c r="G118" s="3">
         <v>9.7787930198154527</v>
       </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H118" s="4">
+        <v>0.77623713668485117</v>
+      </c>
+      <c r="I118" s="3">
+        <v>2.2036795730148202</v>
+      </c>
+      <c r="J118" s="4">
+        <v>9.4776122426415366E-2</v>
+      </c>
+      <c r="K118" s="3">
+        <v>1.350872021165985</v>
+      </c>
+      <c r="L118" s="5">
+        <v>0.61300746156932329</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A119" s="1" t="s">
         <v>120</v>
       </c>
@@ -4005,8 +5797,23 @@
       <c r="G119" s="3">
         <v>7.6276982797222672</v>
       </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H119" s="4">
+        <v>0.78818390127456328</v>
+      </c>
+      <c r="I119" s="3">
+        <v>1.7042764635446244</v>
+      </c>
+      <c r="J119" s="4">
+        <v>9.4976020323173468E-2</v>
+      </c>
+      <c r="K119" s="3">
+        <v>1.3597603295292751</v>
+      </c>
+      <c r="L119" s="5">
+        <v>0.79785196745672915</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A120" s="1" t="s">
         <v>121</v>
       </c>
@@ -4028,8 +5835,23 @@
       <c r="G120" s="3">
         <v>6.1885915957836914</v>
       </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H120" s="4">
+        <v>0.78211277826875647</v>
+      </c>
+      <c r="I120" s="3">
+        <v>1.3887444541845677</v>
+      </c>
+      <c r="J120" s="4">
+        <v>9.5025886812831126E-2</v>
+      </c>
+      <c r="K120" s="3">
+        <v>0.93089477418566158</v>
+      </c>
+      <c r="L120" s="5">
+        <v>0.67031394536315692</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A121" s="1" t="s">
         <v>122</v>
       </c>
@@ -4051,8 +5873,23 @@
       <c r="G121" s="3">
         <v>6.2265654632444125</v>
       </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H121" s="4">
+        <v>0.77899755016975847</v>
+      </c>
+      <c r="I121" s="3">
+        <v>1.4004011608158626</v>
+      </c>
+      <c r="J121" s="4">
+        <v>9.5361388561465213E-2</v>
+      </c>
+      <c r="K121" s="3">
+        <v>1.0096272889444384</v>
+      </c>
+      <c r="L121" s="5">
+        <v>0.72095576410136464</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A122" s="1" t="s">
         <v>123</v>
       </c>
@@ -4074,8 +5911,23 @@
       <c r="G122" s="3">
         <v>7.6594771628384137</v>
       </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H122" s="4">
+        <v>0.79413878991040832</v>
+      </c>
+      <c r="I122" s="3">
+        <v>1.7042001669225839</v>
+      </c>
+      <c r="J122" s="4">
+        <v>9.5423826985076399E-2</v>
+      </c>
+      <c r="K122" s="3">
+        <v>1.1506988830438956</v>
+      </c>
+      <c r="L122" s="5">
+        <v>0.67521345519042431</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A123" s="1" t="s">
         <v>124</v>
       </c>
@@ -4097,8 +5949,23 @@
       <c r="G123" s="3">
         <v>8.3080304070511488</v>
       </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H123" s="4">
+        <v>0.79291364350318694</v>
+      </c>
+      <c r="I123" s="3">
+        <v>1.8500861689560639</v>
+      </c>
+      <c r="J123" s="4">
+        <v>9.5473768348459789E-2</v>
+      </c>
+      <c r="K123" s="3">
+        <v>1.2198106280098886</v>
+      </c>
+      <c r="L123" s="5">
+        <v>0.65932638623971951</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A124" s="1" t="s">
         <v>125</v>
       </c>
@@ -4120,8 +5987,23 @@
       <c r="G124" s="3">
         <v>7.054849214621413</v>
       </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H124" s="4">
+        <v>0.79279810312301002</v>
+      </c>
+      <c r="I124" s="3">
+        <v>1.5711571221688212</v>
+      </c>
+      <c r="J124" s="4">
+        <v>9.5483458764020659E-2</v>
+      </c>
+      <c r="K124" s="3">
+        <v>1.3232993957787698</v>
+      </c>
+      <c r="L124" s="5">
+        <v>0.84224510528399021</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A125" s="1" t="s">
         <v>126</v>
       </c>
@@ -4143,8 +6025,23 @@
       <c r="G125" s="3">
         <v>6.8070098370189385</v>
       </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H125" s="4">
+        <v>0.8020428429091907</v>
+      </c>
+      <c r="I125" s="3">
+        <v>1.506216863929509</v>
+      </c>
+      <c r="J125" s="4">
+        <v>9.5514994444812928E-2</v>
+      </c>
+      <c r="K125" s="3">
+        <v>1.2686899449338771</v>
+      </c>
+      <c r="L125" s="5">
+        <v>0.8423023107204114</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A126" s="1" t="s">
         <v>127</v>
       </c>
@@ -4166,8 +6063,23 @@
       <c r="G126" s="3">
         <v>5.2988416680907449</v>
       </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H126" s="4">
+        <v>0.78476476952546181</v>
+      </c>
+      <c r="I126" s="3">
+        <v>1.1868301654763438</v>
+      </c>
+      <c r="J126" s="4">
+        <v>9.568942588047688E-2</v>
+      </c>
+      <c r="K126" s="3">
+        <v>0.77194831223478999</v>
+      </c>
+      <c r="L126" s="5">
+        <v>0.65042862465916729</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A127" s="1" t="s">
         <v>128</v>
       </c>
@@ -4189,8 +6101,23 @@
       <c r="G127" s="3">
         <v>7.4544834248413281</v>
       </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H127" s="4">
+        <v>0.80352589092059801</v>
+      </c>
+      <c r="I127" s="3">
+        <v>1.6477918347799203</v>
+      </c>
+      <c r="J127" s="4">
+        <v>9.5826268592211952E-2</v>
+      </c>
+      <c r="K127" s="3">
+        <v>1.4058165682445807</v>
+      </c>
+      <c r="L127" s="5">
+        <v>0.85315179901491744</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A128" s="1" t="s">
         <v>129</v>
       </c>
@@ -4212,8 +6139,23 @@
       <c r="G128" s="3">
         <v>8.5056482876495352</v>
       </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H128" s="4">
+        <v>0.79977718299644274</v>
+      </c>
+      <c r="I128" s="3">
+        <v>1.885024865663778</v>
+      </c>
+      <c r="J128" s="4">
+        <v>9.585370834897454E-2</v>
+      </c>
+      <c r="K128" s="3">
+        <v>1.4083209368416916</v>
+      </c>
+      <c r="L128" s="5">
+        <v>0.7471100050161813</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A129" s="1" t="s">
         <v>130</v>
       </c>
@@ -4235,8 +6177,23 @@
       <c r="G129" s="3">
         <v>6.702284408780713</v>
       </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H129" s="4">
+        <v>0.79876739767461891</v>
+      </c>
+      <c r="I129" s="3">
+        <v>1.4864192187007266</v>
+      </c>
+      <c r="J129" s="4">
+        <v>9.6010717872087134E-2</v>
+      </c>
+      <c r="K129" s="3">
+        <v>1.1201419895560942</v>
+      </c>
+      <c r="L129" s="5">
+        <v>0.75358416755079771</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A130" s="1" t="s">
         <v>131</v>
       </c>
@@ -4258,8 +6215,23 @@
       <c r="G130" s="3">
         <v>6.4384831601419705</v>
       </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H130" s="4">
+        <v>0.79192829200565074</v>
+      </c>
+      <c r="I130" s="3">
+        <v>1.4347710349892573</v>
+      </c>
+      <c r="J130" s="4">
+        <v>9.6063882719456178E-2</v>
+      </c>
+      <c r="K130" s="3">
+        <v>1.0240902082568846</v>
+      </c>
+      <c r="L130" s="5">
+        <v>0.71376559972480358</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A131" s="1" t="s">
         <v>132</v>
       </c>
@@ -4281,8 +6253,23 @@
       <c r="G131" s="3">
         <v>8.9424596113073562</v>
       </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H131" s="4">
+        <v>0.79643330334197959</v>
+      </c>
+      <c r="I131" s="3">
+        <v>1.986449524037889</v>
+      </c>
+      <c r="J131" s="4">
+        <v>9.6387679160511386E-2</v>
+      </c>
+      <c r="K131" s="3">
+        <v>1.6242604257533537</v>
+      </c>
+      <c r="L131" s="5">
+        <v>0.81767012254693106</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A132" s="1" t="s">
         <v>133</v>
       </c>
@@ -4304,8 +6291,23 @@
       <c r="G132" s="3">
         <v>8.2054177285563696</v>
       </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H132" s="4">
+        <v>0.81641105658655633</v>
+      </c>
+      <c r="I132" s="3">
+        <v>1.7979043787666462</v>
+      </c>
+      <c r="J132" s="4">
+        <v>9.6390869916955904E-2</v>
+      </c>
+      <c r="K132" s="3">
+        <v>1.4994799880469112</v>
+      </c>
+      <c r="L132" s="5">
+        <v>0.83401542693585706</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A133" s="1" t="s">
         <v>134</v>
       </c>
@@ -4327,8 +6329,23 @@
       <c r="G133" s="3">
         <v>7.576877269661793</v>
       </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H133" s="4">
+        <v>0.79566808795700716</v>
+      </c>
+      <c r="I133" s="3">
+        <v>1.6840167448950214</v>
+      </c>
+      <c r="J133" s="4">
+        <v>9.6587934575292633E-2</v>
+      </c>
+      <c r="K133" s="3">
+        <v>1.3773468467174554</v>
+      </c>
+      <c r="L133" s="5">
+        <v>0.8178937952326103</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A134" s="1" t="s">
         <v>135</v>
       </c>
@@ -4350,8 +6367,23 @@
       <c r="G134" s="3">
         <v>7.7237862780214641</v>
       </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H134" s="4">
+        <v>0.78686088630537043</v>
+      </c>
+      <c r="I134" s="3">
+        <v>1.7273675056023756</v>
+      </c>
+      <c r="J134" s="4">
+        <v>9.6697546423903546E-2</v>
+      </c>
+      <c r="K134" s="3">
+        <v>1.4259290808266194</v>
+      </c>
+      <c r="L134" s="5">
+        <v>0.82549259274699782</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A135" s="1" t="s">
         <v>136</v>
       </c>
@@ -4373,8 +6405,23 @@
       <c r="G135" s="3">
         <v>6.9280930329125567</v>
       </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H135" s="4">
+        <v>0.80805553269254105</v>
+      </c>
+      <c r="I135" s="3">
+        <v>1.5266785992949934</v>
+      </c>
+      <c r="J135" s="4">
+        <v>9.6700024268107851E-2</v>
+      </c>
+      <c r="K135" s="3">
+        <v>0.99361954070625247</v>
+      </c>
+      <c r="L135" s="5">
+        <v>0.6508374068812498</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A136" s="1" t="s">
         <v>137</v>
       </c>
@@ -4396,8 +6443,23 @@
       <c r="G136" s="3">
         <v>8.9912028312965617</v>
       </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H136" s="4">
+        <v>0.79414251222933874</v>
+      </c>
+      <c r="I136" s="3">
+        <v>2.0004837356666489</v>
+      </c>
+      <c r="J136" s="4">
+        <v>9.6725896142366902E-2</v>
+      </c>
+      <c r="K136" s="3">
+        <v>1.2836107342401262</v>
+      </c>
+      <c r="L136" s="5">
+        <v>0.641650172583068</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A137" s="1" t="s">
         <v>138</v>
       </c>
@@ -4419,8 +6481,23 @@
       <c r="G137" s="3">
         <v>7.353793796386924</v>
       </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H137" s="4">
+        <v>0.79359657539269213</v>
+      </c>
+      <c r="I137" s="3">
+        <v>1.6368124698661242</v>
+      </c>
+      <c r="J137" s="4">
+        <v>9.6741819494082809E-2</v>
+      </c>
+      <c r="K137" s="3">
+        <v>1.4135769114843584</v>
+      </c>
+      <c r="L137" s="5">
+        <v>0.86361567834339359</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A138" s="1" t="s">
         <v>139</v>
       </c>
@@ -4442,8 +6519,23 @@
       <c r="G138" s="3">
         <v>7.8190583070127104</v>
       </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H138" s="4">
+        <v>0.7960014008248153</v>
+      </c>
+      <c r="I138" s="3">
+        <v>1.7374359188925381</v>
+      </c>
+      <c r="J138" s="4">
+        <v>9.7038727644875283E-2</v>
+      </c>
+      <c r="K138" s="3">
+        <v>1.4625508083493248</v>
+      </c>
+      <c r="L138" s="5">
+        <v>0.84178690704263304</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A139" s="1" t="s">
         <v>140</v>
       </c>
@@ -4465,8 +6557,23 @@
       <c r="G139" s="3">
         <v>7.7047401870466388</v>
       </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H139" s="4">
+        <v>0.80931909511719646</v>
+      </c>
+      <c r="I139" s="3">
+        <v>1.6963487060344904</v>
+      </c>
+      <c r="J139" s="4">
+        <v>9.718184538445078E-2</v>
+      </c>
+      <c r="K139" s="3">
+        <v>1.084461153666175</v>
+      </c>
+      <c r="L139" s="5">
+        <v>0.63929140854611877</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A140" s="1" t="s">
         <v>141</v>
       </c>
@@ -4488,8 +6595,23 @@
       <c r="G140" s="3">
         <v>8.884956182878625</v>
       </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H140" s="4">
+        <v>0.80316178188203791</v>
+      </c>
+      <c r="I140" s="3">
+        <v>1.9644725048172755</v>
+      </c>
+      <c r="J140" s="4">
+        <v>9.7321868105228443E-2</v>
+      </c>
+      <c r="K140" s="3">
+        <v>1.6493654740565848</v>
+      </c>
+      <c r="L140" s="5">
+        <v>0.83959712849735202</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A141" s="1" t="s">
         <v>142</v>
       </c>
@@ -4511,8 +6633,23 @@
       <c r="G141" s="3">
         <v>7.6208319785873755</v>
       </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H141" s="4">
+        <v>0.83102559545264754</v>
+      </c>
+      <c r="I141" s="3">
+        <v>1.6536528216945345</v>
+      </c>
+      <c r="J141" s="4">
+        <v>9.7331479916147212E-2</v>
+      </c>
+      <c r="K141" s="3">
+        <v>1.2787825935745614</v>
+      </c>
+      <c r="L141" s="5">
+        <v>0.77330778068891415</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A142" s="1" t="s">
         <v>143</v>
       </c>
@@ -4534,8 +6671,23 @@
       <c r="G142" s="3">
         <v>8.8148487248690799</v>
       </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H142" s="4">
+        <v>0.79856619239205884</v>
+      </c>
+      <c r="I142" s="3">
+        <v>1.955192615698444</v>
+      </c>
+      <c r="J142" s="4">
+        <v>9.7512348258579684E-2</v>
+      </c>
+      <c r="K142" s="3">
+        <v>1.3128192365720452</v>
+      </c>
+      <c r="L142" s="5">
+        <v>0.67145263644680508</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A143" s="1" t="s">
         <v>144</v>
       </c>
@@ -4557,8 +6709,23 @@
       <c r="G143" s="3">
         <v>9.8618269824197</v>
       </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H143" s="4">
+        <v>0.808724377604366</v>
+      </c>
+      <c r="I143" s="3">
+        <v>2.1721292818209941</v>
+      </c>
+      <c r="J143" s="4">
+        <v>9.7514893438283221E-2</v>
+      </c>
+      <c r="K143" s="3">
+        <v>1.5220042173225836</v>
+      </c>
+      <c r="L143" s="5">
+        <v>0.7006968830357182</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A144" s="1" t="s">
         <v>145</v>
       </c>
@@ -4580,8 +6747,23 @@
       <c r="G144" s="3">
         <v>8.6893745906680238</v>
       </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H144" s="4">
+        <v>0.8075062098047131</v>
+      </c>
+      <c r="I144" s="3">
+        <v>1.9154990216015164</v>
+      </c>
+      <c r="J144" s="4">
+        <v>9.7636494184864156E-2</v>
+      </c>
+      <c r="K144" s="3">
+        <v>1.3478230471717791</v>
+      </c>
+      <c r="L144" s="5">
+        <v>0.70364068682472458</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A145" s="1" t="s">
         <v>146</v>
       </c>
@@ -4603,8 +6785,23 @@
       <c r="G145" s="3">
         <v>7.8278227341971274</v>
       </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H145" s="4">
+        <v>0.80310518562480904</v>
+      </c>
+      <c r="I145" s="3">
+        <v>1.7308167926832785</v>
+      </c>
+      <c r="J145" s="4">
+        <v>9.779401353507701E-2</v>
+      </c>
+      <c r="K145" s="3">
+        <v>1.4475352138008286</v>
+      </c>
+      <c r="L145" s="5">
+        <v>0.8363306965358942</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A146" s="1" t="s">
         <v>147</v>
       </c>
@@ -4626,8 +6823,23 @@
       <c r="G146" s="3">
         <v>6.7188719488231072</v>
       </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H146" s="4">
+        <v>0.82366421912270027</v>
+      </c>
+      <c r="I146" s="3">
+        <v>1.4650579110536066</v>
+      </c>
+      <c r="J146" s="4">
+        <v>9.8038869201405088E-2</v>
+      </c>
+      <c r="K146" s="3">
+        <v>1.2099544563698521</v>
+      </c>
+      <c r="L146" s="5">
+        <v>0.82587483214209956</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A147" s="1" t="s">
         <v>148</v>
       </c>
@@ -4649,8 +6861,23 @@
       <c r="G147" s="3">
         <v>9.4558005516030903</v>
       </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H147" s="4">
+        <v>0.82721033545173706</v>
+      </c>
+      <c r="I147" s="3">
+        <v>2.0569722333827647</v>
+      </c>
+      <c r="J147" s="4">
+        <v>9.8165531197623807E-2</v>
+      </c>
+      <c r="K147" s="3">
+        <v>1.7016412237088268</v>
+      </c>
+      <c r="L147" s="5">
+        <v>0.82725532026770077</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A148" s="1" t="s">
         <v>149</v>
       </c>
@@ -4672,8 +6899,23 @@
       <c r="G148" s="3">
         <v>8.9263367765310022</v>
       </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H148" s="4">
+        <v>0.82197931034825689</v>
+      </c>
+      <c r="I148" s="3">
+        <v>1.9485642228787612</v>
+      </c>
+      <c r="J148" s="4">
+        <v>9.8389326378248085E-2</v>
+      </c>
+      <c r="K148" s="3">
+        <v>1.378017647285253</v>
+      </c>
+      <c r="L148" s="5">
+        <v>0.7071964224250219</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A149" s="1" t="s">
         <v>150</v>
       </c>
@@ -4695,8 +6937,23 @@
       <c r="G149" s="3">
         <v>7.1745038239781138</v>
       </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H149" s="4">
+        <v>0.81632135004679041</v>
+      </c>
+      <c r="I149" s="3">
+        <v>1.5721220753171652</v>
+      </c>
+      <c r="J149" s="4">
+        <v>9.8547372537225592E-2</v>
+      </c>
+      <c r="K149" s="3">
+        <v>1.3305942031262521</v>
+      </c>
+      <c r="L149" s="5">
+        <v>0.846368245836007</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A150" s="1" t="s">
         <v>151</v>
       </c>
@@ -4718,8 +6975,23 @@
       <c r="G150" s="3">
         <v>5.8405229009350705</v>
       </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H150" s="4">
+        <v>0.83027302862653063</v>
+      </c>
+      <c r="I150" s="3">
+        <v>1.267978765292247</v>
+      </c>
+      <c r="J150" s="4">
+        <v>9.8801828015527352E-2</v>
+      </c>
+      <c r="K150" s="3">
+        <v>0.9036622474588909</v>
+      </c>
+      <c r="L150" s="5">
+        <v>0.71267932255207156</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A151" s="1" t="s">
         <v>152</v>
       </c>
@@ -4741,8 +7013,23 @@
       <c r="G151" s="3">
         <v>6.2557351863571284</v>
       </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H151" s="4">
+        <v>0.83104386709249289</v>
+      </c>
+      <c r="I151" s="3">
+        <v>1.3574309614055566</v>
+      </c>
+      <c r="J151" s="4">
+        <v>9.909015809566657E-2</v>
+      </c>
+      <c r="K151" s="3">
+        <v>0.95449809082430326</v>
+      </c>
+      <c r="L151" s="5">
+        <v>0.70316510965387502</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A152" s="1" t="s">
         <v>153</v>
       </c>
@@ -4764,8 +7051,23 @@
       <c r="G152" s="3">
         <v>6.3811059101528258</v>
       </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H152" s="4">
+        <v>0.8398161547228371</v>
+      </c>
+      <c r="I152" s="3">
+        <v>1.3767355542874702</v>
+      </c>
+      <c r="J152" s="4">
+        <v>9.9214453538610414E-2</v>
+      </c>
+      <c r="K152" s="3">
+        <v>1.0114776564237331</v>
+      </c>
+      <c r="L152" s="5">
+        <v>0.73469276890086821</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A153" s="1" t="s">
         <v>154</v>
       </c>
@@ -4787,8 +7089,23 @@
       <c r="G153" s="3">
         <v>5.7548504395152804</v>
       </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H153" s="4">
+        <v>0.84187091510701395</v>
+      </c>
+      <c r="I153" s="3">
+        <v>1.239975672584257</v>
+      </c>
+      <c r="J153" s="4">
+        <v>9.9310329568630784E-2</v>
+      </c>
+      <c r="K153" s="3">
+        <v>0.92822541104650691</v>
+      </c>
+      <c r="L153" s="5">
+        <v>0.74858356625011413</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A154" s="1" t="s">
         <v>155</v>
       </c>
@@ -4810,8 +7127,23 @@
       <c r="G154" s="3">
         <v>6.7516546884622244</v>
       </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H154" s="4">
+        <v>0.82418630577561891</v>
+      </c>
+      <c r="I154" s="3">
+        <v>1.4716946390386907</v>
+      </c>
+      <c r="J154" s="4">
+        <v>9.9386479694589649E-2</v>
+      </c>
+      <c r="K154" s="3">
+        <v>1.2530830609762846</v>
+      </c>
+      <c r="L154" s="5">
+        <v>0.85145588475799383</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A155" s="1" t="s">
         <v>156</v>
       </c>
@@ -4833,8 +7165,23 @@
       <c r="G155" s="3">
         <v>7.8207412871237807</v>
       </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H155" s="4">
+        <v>0.82876817672462533</v>
+      </c>
+      <c r="I155" s="3">
+        <v>1.6995541640980283</v>
+      </c>
+      <c r="J155" s="4">
+        <v>9.9431884144028593E-2</v>
+      </c>
+      <c r="K155" s="3">
+        <v>1.3385669541820389</v>
+      </c>
+      <c r="L155" s="5">
+        <v>0.78759887884622415</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A156" s="1" t="s">
         <v>157</v>
       </c>
@@ -4856,8 +7203,23 @@
       <c r="G156" s="3">
         <v>6.2390169402344213</v>
       </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H156" s="4">
+        <v>0.8304779933898544</v>
+      </c>
+      <c r="I156" s="3">
+        <v>1.354307151794635</v>
+      </c>
+      <c r="J156" s="4">
+        <v>9.9498093289475287E-2</v>
+      </c>
+      <c r="K156" s="3">
+        <v>1.0582299596148139</v>
+      </c>
+      <c r="L156" s="5">
+        <v>0.78138106131428176</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A157" s="1" t="s">
         <v>158</v>
       </c>
@@ -4879,8 +7241,23 @@
       <c r="G157" s="3">
         <v>9.1092860485351252</v>
       </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H157" s="4">
+        <v>0.82067253637072624</v>
+      </c>
+      <c r="I157" s="3">
+        <v>1.9902366492338746</v>
+      </c>
+      <c r="J157" s="4">
+        <v>9.9506876206758091E-2</v>
+      </c>
+      <c r="K157" s="3">
+        <v>1.2467521506130246</v>
+      </c>
+      <c r="L157" s="5">
+        <v>0.62643412334555859</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A158" s="1" t="s">
         <v>159</v>
       </c>
@@ -4902,8 +7279,23 @@
       <c r="G158" s="3">
         <v>8.7441361067939738</v>
       </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H158" s="4">
+        <v>0.83649638074461474</v>
+      </c>
+      <c r="I158" s="3">
+        <v>1.8906114036983186</v>
+      </c>
+      <c r="J158" s="4">
+        <v>9.9781922563903336E-2</v>
+      </c>
+      <c r="K158" s="3">
+        <v>1.5021702748314187</v>
+      </c>
+      <c r="L158" s="5">
+        <v>0.7945420576078982</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A159" s="1" t="s">
         <v>160</v>
       </c>
@@ -4925,8 +7317,23 @@
       <c r="G159" s="3">
         <v>9.5586262208948938</v>
       </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H159" s="4">
+        <v>0.84183901994061039</v>
+      </c>
+      <c r="I159" s="3">
+        <v>2.0595643102721621</v>
+      </c>
+      <c r="J159" s="4">
+        <v>9.9782678572793645E-2</v>
+      </c>
+      <c r="K159" s="3">
+        <v>1.6674965410744733</v>
+      </c>
+      <c r="L159" s="5">
+        <v>0.80963557814522491</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A160" s="1" t="s">
         <v>161</v>
       </c>
@@ -4948,8 +7355,23 @@
       <c r="G160" s="3">
         <v>6.1514070802336391</v>
       </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H160" s="4">
+        <v>0.84495862411009848</v>
+      </c>
+      <c r="I160" s="3">
+        <v>1.3227885659959511</v>
+      </c>
+      <c r="J160" s="4">
+        <v>9.997113309910427E-2</v>
+      </c>
+      <c r="K160" s="3">
+        <v>1.1110011307066245</v>
+      </c>
+      <c r="L160" s="5">
+        <v>0.83989320687099545</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A161" s="1" t="s">
         <v>162</v>
       </c>
@@ -4971,8 +7393,23 @@
       <c r="G161" s="3">
         <v>7.15333452133018</v>
       </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H161" s="4">
+        <v>0.84303652779900595</v>
+      </c>
+      <c r="I161" s="3">
+        <v>1.5401357066551569</v>
+      </c>
+      <c r="J161" s="4">
+        <v>0.10051455040447008</v>
+      </c>
+      <c r="K161" s="3">
+        <v>1.2372837356239614</v>
+      </c>
+      <c r="L161" s="5">
+        <v>0.80336020408946673</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A162" s="1" t="s">
         <v>163</v>
       </c>
@@ -4994,8 +7431,23 @@
       <c r="G162" s="3">
         <v>7.5523027634361029</v>
       </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H162" s="4">
+        <v>0.84021528303106152</v>
+      </c>
+      <c r="I162" s="3">
+        <v>1.6289941663338745</v>
+      </c>
+      <c r="J162" s="4">
+        <v>0.10053300026127479</v>
+      </c>
+      <c r="K162" s="3">
+        <v>1.3257384027796035</v>
+      </c>
+      <c r="L162" s="5">
+        <v>0.81383864361112956</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A163" s="1" t="s">
         <v>164</v>
       </c>
@@ -5017,8 +7469,23 @@
       <c r="G163" s="3">
         <v>6.9035894672607583</v>
       </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H163" s="4">
+        <v>0.83466684931500046</v>
+      </c>
+      <c r="I163" s="3">
+        <v>1.4944534904855218</v>
+      </c>
+      <c r="J163" s="4">
+        <v>0.10079941755008677</v>
+      </c>
+      <c r="K163" s="3">
+        <v>1.276812924364308</v>
+      </c>
+      <c r="L163" s="5">
+        <v>0.8543677889564123</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A164" s="1" t="s">
         <v>165</v>
       </c>
@@ -5040,8 +7507,23 @@
       <c r="G164" s="3">
         <v>7.7193553072455643</v>
       </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H164" s="4">
+        <v>0.84391825320267011</v>
+      </c>
+      <c r="I164" s="3">
+        <v>1.6610550912129702</v>
+      </c>
+      <c r="J164" s="4">
+        <v>0.10091996255293302</v>
+      </c>
+      <c r="K164" s="3">
+        <v>1.1498310471504414</v>
+      </c>
+      <c r="L164" s="5">
+        <v>0.69222932654857794</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A165" s="1" t="s">
         <v>166</v>
       </c>
@@ -5063,8 +7545,23 @@
       <c r="G165" s="3">
         <v>8.2033103225036257</v>
       </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H165" s="4">
+        <v>0.87769352673631507</v>
+      </c>
+      <c r="I165" s="3">
+        <v>1.7283496061057144</v>
+      </c>
+      <c r="J165" s="4">
+        <v>0.10103224071525468</v>
+      </c>
+      <c r="K165" s="3">
+        <v>1.1677846761001136</v>
+      </c>
+      <c r="L165" s="5">
+        <v>0.6756646178381378</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A166" s="1" t="s">
         <v>167</v>
       </c>
@@ -5086,8 +7583,23 @@
       <c r="G166" s="3">
         <v>6.9156910579180249</v>
       </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H166" s="4">
+        <v>0.84498078520890496</v>
+      </c>
+      <c r="I166" s="3">
+        <v>1.487113006697476</v>
+      </c>
+      <c r="J166" s="4">
+        <v>0.10132616884773113</v>
+      </c>
+      <c r="K166" s="3">
+        <v>1.2607407941660747</v>
+      </c>
+      <c r="L166" s="5">
+        <v>0.84777739720391532</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A167" s="1" t="s">
         <v>168</v>
       </c>
@@ -5109,8 +7621,23 @@
       <c r="G167" s="3">
         <v>8.580865224239119</v>
       </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H167" s="4">
+        <v>0.85794677573516698</v>
+      </c>
+      <c r="I167" s="3">
+        <v>1.8300533634269114</v>
+      </c>
+      <c r="J167" s="4">
+        <v>0.10137585610894179</v>
+      </c>
+      <c r="K167" s="3">
+        <v>1.5807061049632243</v>
+      </c>
+      <c r="L167" s="5">
+        <v>0.8637486406424969</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A168" s="1" t="s">
         <v>169</v>
       </c>
@@ -5132,8 +7659,23 @@
       <c r="G168" s="3">
         <v>5.5622785698683401</v>
       </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H168" s="4">
+        <v>0.84964618479336573</v>
+      </c>
+      <c r="I168" s="3">
+        <v>1.1925292219410695</v>
+      </c>
+      <c r="J168" s="4">
+        <v>0.10140792870396327</v>
+      </c>
+      <c r="K168" s="3">
+        <v>0.91390071875112999</v>
+      </c>
+      <c r="L168" s="5">
+        <v>0.76635498899019161</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A169" s="1" t="s">
         <v>170</v>
       </c>
@@ -5155,8 +7697,23 @@
       <c r="G169" s="3">
         <v>6.669590577497388</v>
       </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H169" s="4">
+        <v>0.85513533200736613</v>
+      </c>
+      <c r="I169" s="3">
+        <v>1.424963579411062</v>
+      </c>
+      <c r="J169" s="4">
+        <v>0.10144245575494922</v>
+      </c>
+      <c r="K169" s="3">
+        <v>0.97901670390096995</v>
+      </c>
+      <c r="L169" s="5">
+        <v>0.68704682564981623</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A170" s="1" t="s">
         <v>171</v>
       </c>
@@ -5178,8 +7735,23 @@
       <c r="G170" s="3">
         <v>6.955176139354478</v>
       </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H170" s="4">
+        <v>0.8573229348497976</v>
+      </c>
+      <c r="I170" s="3">
+        <v>1.4839333985420984</v>
+      </c>
+      <c r="J170" s="4">
+        <v>0.10144863271153186</v>
+      </c>
+      <c r="K170" s="3">
+        <v>1.0586460462075102</v>
+      </c>
+      <c r="L170" s="5">
+        <v>0.71340536391160503</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A171" s="1" t="s">
         <v>172</v>
       </c>
@@ -5201,8 +7773,23 @@
       <c r="G171" s="3">
         <v>8.3121500148534437</v>
       </c>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H171" s="4">
+        <v>0.88723914947102722</v>
+      </c>
+      <c r="I171" s="3">
+        <v>1.741245475680179</v>
+      </c>
+      <c r="J171" s="4">
+        <v>0.10145078317785945</v>
+      </c>
+      <c r="K171" s="3">
+        <v>1.377816167967149</v>
+      </c>
+      <c r="L171" s="5">
+        <v>0.79128198017510165</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A172" s="1" t="s">
         <v>173</v>
       </c>
@@ -5224,8 +7811,23 @@
       <c r="G172" s="3">
         <v>7.5268693319648605</v>
       </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H172" s="4">
+        <v>0.84104128029501413</v>
+      </c>
+      <c r="I172" s="3">
+        <v>1.6226420454555808</v>
+      </c>
+      <c r="J172" s="4">
+        <v>0.10154500473341492</v>
+      </c>
+      <c r="K172" s="3">
+        <v>1.080315328077222</v>
+      </c>
+      <c r="L172" s="5">
+        <v>0.66577550551138798</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A173" s="1" t="s">
         <v>174</v>
       </c>
@@ -5247,8 +7849,23 @@
       <c r="G173" s="3">
         <v>7.1601328279294876</v>
       </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H173" s="4">
+        <v>0.90213457335415759</v>
+      </c>
+      <c r="I173" s="3">
+        <v>1.4868045523686744</v>
+      </c>
+      <c r="J173" s="4">
+        <v>0.10157552560960294</v>
+      </c>
+      <c r="K173" s="3">
+        <v>1.1127676197669503</v>
+      </c>
+      <c r="L173" s="5">
+        <v>0.74842898348284304</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A174" s="1" t="s">
         <v>175</v>
       </c>
@@ -5270,8 +7887,23 @@
       <c r="G174" s="3">
         <v>6.7833139543790253</v>
       </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H174" s="4">
+        <v>0.84590126577263769</v>
+      </c>
+      <c r="I174" s="3">
+        <v>1.4577878941712792</v>
+      </c>
+      <c r="J174" s="4">
+        <v>0.10161752628932939</v>
+      </c>
+      <c r="K174" s="3">
+        <v>1.0912505975051854</v>
+      </c>
+      <c r="L174" s="5">
+        <v>0.74856609927162143</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A175" s="1" t="s">
         <v>176</v>
       </c>
@@ -5293,8 +7925,23 @@
       <c r="G175" s="3">
         <v>5.8748544461125789</v>
       </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H175" s="4">
+        <v>0.84838876926366003</v>
+      </c>
+      <c r="I175" s="3">
+        <v>1.2605519962970939</v>
+      </c>
+      <c r="J175" s="4">
+        <v>0.10169308265642565</v>
+      </c>
+      <c r="K175" s="3">
+        <v>0.99809882613043654</v>
+      </c>
+      <c r="L175" s="5">
+        <v>0.79179504618800256</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A176" s="1" t="s">
         <v>177</v>
       </c>
@@ -5316,8 +7963,23 @@
       <c r="G176" s="3">
         <v>6.5864966835333121</v>
       </c>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H176" s="4">
+        <v>0.84160604930177851</v>
+      </c>
+      <c r="I176" s="3">
+        <v>1.4194050951913482</v>
+      </c>
+      <c r="J176" s="4">
+        <v>0.10181527789479741</v>
+      </c>
+      <c r="K176" s="3">
+        <v>1.0847729577548946</v>
+      </c>
+      <c r="L176" s="5">
+        <v>0.76424479623884811</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A177" s="1" t="s">
         <v>178</v>
       </c>
@@ -5339,8 +8001,23 @@
       <c r="G177" s="3">
         <v>5.9011744962811008</v>
       </c>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H177" s="4">
+        <v>0.87883070009603848</v>
+      </c>
+      <c r="I177" s="3">
+        <v>1.2424704960480635</v>
+      </c>
+      <c r="J177" s="4">
+        <v>0.1019736908647513</v>
+      </c>
+      <c r="K177" s="3">
+        <v>0.86767267751286592</v>
+      </c>
+      <c r="L177" s="5">
+        <v>0.6983446933127827</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A178" s="1" t="s">
         <v>179</v>
       </c>
@@ -5362,8 +8039,23 @@
       <c r="G178" s="3">
         <v>7.2894851678694863</v>
       </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H178" s="4">
+        <v>0.87334624066538868</v>
+      </c>
+      <c r="I178" s="3">
+        <v>1.539894908185194</v>
+      </c>
+      <c r="J178" s="4">
+        <v>0.10221610207053775</v>
+      </c>
+      <c r="K178" s="3">
+        <v>1.2171413091680352</v>
+      </c>
+      <c r="L178" s="5">
+        <v>0.79040543786359263</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A179" s="1" t="s">
         <v>180</v>
       </c>
@@ -5385,8 +8077,23 @@
       <c r="G179" s="3">
         <v>7.5438623372019151</v>
       </c>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H179" s="4">
+        <v>0.85582870140569078</v>
+      </c>
+      <c r="I179" s="3">
+        <v>1.6110421132015702</v>
+      </c>
+      <c r="J179" s="4">
+        <v>0.10241842528397332</v>
+      </c>
+      <c r="K179" s="3">
+        <v>1.3099868010561757</v>
+      </c>
+      <c r="L179" s="5">
+        <v>0.81313007917147651</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A180" s="1" t="s">
         <v>181</v>
       </c>
@@ -5408,8 +8115,23 @@
       <c r="G180" s="3">
         <v>6.6534114704825242</v>
       </c>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H180" s="4">
+        <v>0.856355303307753</v>
+      </c>
+      <c r="I180" s="3">
+        <v>1.4204153849653811</v>
+      </c>
+      <c r="J180" s="4">
+        <v>0.10254169211452489</v>
+      </c>
+      <c r="K180" s="3">
+        <v>1.1583496279531498</v>
+      </c>
+      <c r="L180" s="5">
+        <v>0.81550062060288198</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A181" s="1" t="s">
         <v>182</v>
       </c>
@@ -5431,8 +8153,23 @@
       <c r="G181" s="3">
         <v>7.8880616128146812</v>
       </c>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H181" s="4">
+        <v>0.88894956489411403</v>
+      </c>
+      <c r="I181" s="3">
+        <v>1.6507256040729799</v>
+      </c>
+      <c r="J181" s="4">
+        <v>0.10292988764236785</v>
+      </c>
+      <c r="K181" s="3">
+        <v>1.1912083866426071</v>
+      </c>
+      <c r="L181" s="5">
+        <v>0.72162713397274147</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A182" s="1" t="s">
         <v>183</v>
       </c>
@@ -5454,8 +8191,23 @@
       <c r="G182" s="3">
         <v>7.5625121631134675</v>
       </c>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H182" s="4">
+        <v>0.8600430293080058</v>
+      </c>
+      <c r="I182" s="3">
+        <v>1.6107604441961523</v>
+      </c>
+      <c r="J182" s="4">
+        <v>0.10299435480733775</v>
+      </c>
+      <c r="K182" s="3">
+        <v>1.250906548869166</v>
+      </c>
+      <c r="L182" s="5">
+        <v>0.77659378424420467</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A183" s="1" t="s">
         <v>184</v>
       </c>
@@ -5477,8 +8229,23 @@
       <c r="G183" s="3">
         <v>6.0238192755348905</v>
       </c>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H183" s="4">
+        <v>0.86130583117485737</v>
+      </c>
+      <c r="I183" s="3">
+        <v>1.2820273154366815</v>
+      </c>
+      <c r="J183" s="4">
+        <v>0.10324940656862282</v>
+      </c>
+      <c r="K183" s="3">
+        <v>1.0230404956352523</v>
+      </c>
+      <c r="L183" s="5">
+        <v>0.79798650412279737</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A184" s="1" t="s">
         <v>185</v>
       </c>
@@ -5500,8 +8267,23 @@
       <c r="G184" s="3">
         <v>7.1187166510611632</v>
       </c>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H184" s="4">
+        <v>0.8688808152308336</v>
+      </c>
+      <c r="I184" s="3">
+        <v>1.507947002741165</v>
+      </c>
+      <c r="J184" s="4">
+        <v>0.10336368092642839</v>
+      </c>
+      <c r="K184" s="3">
+        <v>1.1870086433150346</v>
+      </c>
+      <c r="L184" s="5">
+        <v>0.78716867446752148</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A185" s="1" t="s">
         <v>186</v>
       </c>
@@ -5523,8 +8305,23 @@
       <c r="G185" s="3">
         <v>8.4895086497053285</v>
       </c>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H185" s="4">
+        <v>0.872425915640473</v>
+      </c>
+      <c r="I185" s="3">
+        <v>1.7943973134169442</v>
+      </c>
+      <c r="J185" s="4">
+        <v>0.10388569573196139</v>
+      </c>
+      <c r="K185" s="3">
+        <v>1.2650508219118424</v>
+      </c>
+      <c r="L185" s="5">
+        <v>0.70500039899351807</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A186" s="1" t="s">
         <v>187</v>
       </c>
@@ -5546,8 +8343,23 @@
       <c r="G186" s="3">
         <v>8.2948209813502558</v>
       </c>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H186" s="4">
+        <v>0.89490407814622963</v>
+      </c>
+      <c r="I186" s="3">
+        <v>1.7297294882633865</v>
+      </c>
+      <c r="J186" s="4">
+        <v>0.10393216026606104</v>
+      </c>
+      <c r="K186" s="3">
+        <v>1.3392835483727259</v>
+      </c>
+      <c r="L186" s="5">
+        <v>0.77427340948979217</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A187" s="1" t="s">
         <v>188</v>
       </c>
@@ -5569,8 +8381,23 @@
       <c r="G187" s="3">
         <v>10.034464070057766</v>
       </c>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H187" s="4">
+        <v>0.86378594385182739</v>
+      </c>
+      <c r="I187" s="3">
+        <v>2.1322593778999535</v>
+      </c>
+      <c r="J187" s="4">
+        <v>0.1041373057915983</v>
+      </c>
+      <c r="K187" s="3">
+        <v>1.3776682110255418</v>
+      </c>
+      <c r="L187" s="5">
+        <v>0.64610723503178913</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A188" s="1" t="s">
         <v>189</v>
       </c>
@@ -5592,8 +8419,23 @@
       <c r="G188" s="3">
         <v>7.705320807348528</v>
       </c>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H188" s="4">
+        <v>0.86354217409018008</v>
+      </c>
+      <c r="I188" s="3">
+        <v>1.6376012116664536</v>
+      </c>
+      <c r="J188" s="4">
+        <v>0.10414669249674091</v>
+      </c>
+      <c r="K188" s="3">
+        <v>1.4025236348053349</v>
+      </c>
+      <c r="L188" s="5">
+        <v>0.85645004706493888</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A189" s="1" t="s">
         <v>190</v>
       </c>
@@ -5615,8 +8457,23 @@
       <c r="G189" s="3">
         <v>7.1921348511218071</v>
       </c>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H189" s="4">
+        <v>0.88984047744304484</v>
+      </c>
+      <c r="I189" s="3">
+        <v>1.5042971664486975</v>
+      </c>
+      <c r="J189" s="4">
+        <v>0.10447392882852577</v>
+      </c>
+      <c r="K189" s="3">
+        <v>1.0432123230945756</v>
+      </c>
+      <c r="L189" s="5">
+        <v>0.69348819260050998</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A190" s="1" t="s">
         <v>191</v>
       </c>
@@ -5638,8 +8495,23 @@
       <c r="G190" s="3">
         <v>7.184391417462507</v>
       </c>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H190" s="4">
+        <v>0.87581505536076332</v>
+      </c>
+      <c r="I190" s="3">
+        <v>1.5154110092185911</v>
+      </c>
+      <c r="J190" s="4">
+        <v>0.10494732846407052</v>
+      </c>
+      <c r="K190" s="3">
+        <v>1.1940528985788617</v>
+      </c>
+      <c r="L190" s="5">
+        <v>0.78793996566948843</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A191" s="1" t="s">
         <v>192</v>
       </c>
@@ -5661,8 +8533,23 @@
       <c r="G191" s="3">
         <v>8.4908461623745097</v>
       </c>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H191" s="4">
+        <v>0.93064046065296679</v>
+      </c>
+      <c r="I191" s="3">
+        <v>1.7347241011522607</v>
+      </c>
+      <c r="J191" s="4">
+        <v>0.10524996297933793</v>
+      </c>
+      <c r="K191" s="3">
+        <v>1.2820623524365657</v>
+      </c>
+      <c r="L191" s="5">
+        <v>0.73905836183689244</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A192" s="1" t="s">
         <v>193</v>
       </c>
@@ -5684,8 +8571,23 @@
       <c r="G192" s="3">
         <v>6.280745075288678</v>
       </c>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H192" s="4">
+        <v>0.90617185441485049</v>
+      </c>
+      <c r="I192" s="3">
+        <v>1.3011495043467862</v>
+      </c>
+      <c r="J192" s="4">
+        <v>0.1058177749093083</v>
+      </c>
+      <c r="K192" s="3">
+        <v>0.91410964916622828</v>
+      </c>
+      <c r="L192" s="5">
+        <v>0.70254005870381309</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A193" s="1" t="s">
         <v>194</v>
       </c>
@@ -5707,8 +8609,23 @@
       <c r="G193" s="3">
         <v>8.0632174097643201</v>
       </c>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H193" s="4">
+        <v>0.91514118471409556</v>
+      </c>
+      <c r="I193" s="3">
+        <v>1.6618125158315009</v>
+      </c>
+      <c r="J193" s="4">
+        <v>0.1063370850383023</v>
+      </c>
+      <c r="K193" s="3">
+        <v>1.3501263500828715</v>
+      </c>
+      <c r="L193" s="5">
+        <v>0.81244203977325646</v>
+      </c>
+    </row>
+    <row r="194" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A194" s="1" t="s">
         <v>195</v>
       </c>
@@ -5730,8 +8647,23 @@
       <c r="G194" s="3">
         <v>7.3914137336645922</v>
       </c>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H194" s="4">
+        <v>0.92695136403177358</v>
+      </c>
+      <c r="I194" s="3">
+        <v>1.513225796254422</v>
+      </c>
+      <c r="J194" s="4">
+        <v>0.10699829732564289</v>
+      </c>
+      <c r="K194" s="3">
+        <v>1.1724888375270714</v>
+      </c>
+      <c r="L194" s="5">
+        <v>0.77482741863722404</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A195" s="1" t="s">
         <v>196</v>
       </c>
@@ -5753,8 +8685,23 @@
       <c r="G195" s="3">
         <v>8.4713638371420643</v>
       </c>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H195" s="4">
+        <v>0.93133720192385006</v>
+      </c>
+      <c r="I195" s="3">
+        <v>1.7300732954167037</v>
+      </c>
+      <c r="J195" s="4">
+        <v>0.10732102803984726</v>
+      </c>
+      <c r="K195" s="3">
+        <v>1.0425219225382099</v>
+      </c>
+      <c r="L195" s="5">
+        <v>0.60258829802185288</v>
+      </c>
+    </row>
+    <row r="196" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A196" s="1" t="s">
         <v>197</v>
       </c>
@@ -5776,8 +8723,23 @@
       <c r="G196" s="3">
         <v>10.389595062432022</v>
       </c>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H196" s="4">
+        <v>0.92608586948070892</v>
+      </c>
+      <c r="I196" s="3">
+        <v>2.1280309579086008</v>
+      </c>
+      <c r="J196" s="4">
+        <v>0.10753638992087465</v>
+      </c>
+      <c r="K196" s="3">
+        <v>1.7332459739774551</v>
+      </c>
+      <c r="L196" s="5">
+        <v>0.8144834395082603</v>
+      </c>
+    </row>
+    <row r="197" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A197" s="1" t="s">
         <v>198</v>
       </c>
@@ -5799,8 +8761,23 @@
       <c r="G197" s="3">
         <v>7.6691264704916762</v>
       </c>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H197" s="4">
+        <v>0.91273211277835586</v>
+      </c>
+      <c r="I197" s="3">
+        <v>1.5827726944426439</v>
+      </c>
+      <c r="J197" s="4">
+        <v>0.10794185345668279</v>
+      </c>
+      <c r="K197" s="3">
+        <v>1.3325073891667241</v>
+      </c>
+      <c r="L197" s="5">
+        <v>0.84188171418761559</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A198" s="1" t="s">
         <v>199</v>
       </c>
@@ -5822,8 +8799,23 @@
       <c r="G198" s="3">
         <v>6.6740880768396664</v>
       </c>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H198" s="4">
+        <v>0.91842232091439724</v>
+      </c>
+      <c r="I198" s="3">
+        <v>1.3729589651941092</v>
+      </c>
+      <c r="J198" s="4">
+        <v>0.10812000163101863</v>
+      </c>
+      <c r="K198" s="3">
+        <v>1.1151785403019445</v>
+      </c>
+      <c r="L198" s="5">
+        <v>0.81224462534776487</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A199" s="1" t="s">
         <v>200</v>
       </c>
@@ -5845,8 +8837,23 @@
       <c r="G199" s="3">
         <v>11.333750469910797</v>
       </c>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H199" s="4">
+        <v>0.93725863835552059</v>
+      </c>
+      <c r="I199" s="3">
+        <v>2.3070332529200543</v>
+      </c>
+      <c r="J199" s="4">
+        <v>0.10826467481157181</v>
+      </c>
+      <c r="K199" s="3">
+        <v>2.1497593891235391</v>
+      </c>
+      <c r="L199" s="5">
+        <v>0.9318285232354363</v>
+      </c>
+    </row>
+    <row r="200" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A200" s="1" t="s">
         <v>201</v>
       </c>
@@ -5868,8 +8875,23 @@
       <c r="G200" s="3">
         <v>7.6531454399959102</v>
       </c>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H200" s="4">
+        <v>0.94637931141214171</v>
+      </c>
+      <c r="I200" s="3">
+        <v>1.5501155541466973</v>
+      </c>
+      <c r="J200" s="4">
+        <v>0.10850245069001298</v>
+      </c>
+      <c r="K200" s="3">
+        <v>1.1897153473938293</v>
+      </c>
+      <c r="L200" s="5">
+        <v>0.76750107062098349</v>
+      </c>
+    </row>
+    <row r="201" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A201" s="1" t="s">
         <v>202</v>
       </c>
@@ -5891,8 +8913,23 @@
       <c r="G201" s="3">
         <v>10.552691094410875</v>
       </c>
-    </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H201" s="4">
+        <v>0.94951039423323913</v>
+      </c>
+      <c r="I201" s="3">
+        <v>2.1337498845540579</v>
+      </c>
+      <c r="J201" s="4">
+        <v>0.10854366146493181</v>
+      </c>
+      <c r="K201" s="3">
+        <v>1.9047020462674689</v>
+      </c>
+      <c r="L201" s="5">
+        <v>0.89265478585628211</v>
+      </c>
+    </row>
+    <row r="202" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A202" s="1" t="s">
         <v>203</v>
       </c>
@@ -5914,8 +8951,23 @@
       <c r="G202" s="3">
         <v>9.2788217426556798</v>
       </c>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H202" s="4">
+        <v>0.91950323337043194</v>
+      </c>
+      <c r="I202" s="3">
+        <v>1.9075960710600677</v>
+      </c>
+      <c r="J202" s="4">
+        <v>0.10892380636293378</v>
+      </c>
+      <c r="K202" s="3">
+        <v>1.4215706337344336</v>
+      </c>
+      <c r="L202" s="5">
+        <v>0.7452157483971199</v>
+      </c>
+    </row>
+    <row r="203" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A203" s="1" t="s">
         <v>204</v>
       </c>
@@ -5937,8 +8989,23 @@
       <c r="G203" s="3">
         <v>7.4616528876788948</v>
       </c>
-    </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H203" s="4">
+        <v>0.9340840396813298</v>
+      </c>
+      <c r="I203" s="3">
+        <v>1.5215516639710889</v>
+      </c>
+      <c r="J203" s="4">
+        <v>0.10914913424175829</v>
+      </c>
+      <c r="K203" s="3">
+        <v>1.1051486133183182</v>
+      </c>
+      <c r="L203" s="5">
+        <v>0.72632999554809552</v>
+      </c>
+    </row>
+    <row r="204" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A204" s="1" t="s">
         <v>205</v>
       </c>
@@ -5960,8 +9027,23 @@
       <c r="G204" s="3">
         <v>11.107546582244709</v>
       </c>
-    </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H204" s="4">
+        <v>0.93972996110046736</v>
+      </c>
+      <c r="I204" s="3">
+        <v>2.2579229077968765</v>
+      </c>
+      <c r="J204" s="4">
+        <v>0.10938343978591587</v>
+      </c>
+      <c r="K204" s="3">
+        <v>1.6140239878631166</v>
+      </c>
+      <c r="L204" s="5">
+        <v>0.71482688017810514</v>
+      </c>
+    </row>
+    <row r="205" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A205" s="1" t="s">
         <v>206</v>
       </c>
@@ -5983,8 +9065,23 @@
       <c r="G205" s="3">
         <v>8.7622333404728465</v>
       </c>
-    </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H205" s="4">
+        <v>0.93903917983868312</v>
+      </c>
+      <c r="I205" s="3">
+        <v>1.7818740168463356</v>
+      </c>
+      <c r="J205" s="4">
+        <v>0.10969602783356312</v>
+      </c>
+      <c r="K205" s="3">
+        <v>1.2614246868293297</v>
+      </c>
+      <c r="L205" s="5">
+        <v>0.7079202429035204</v>
+      </c>
+    </row>
+    <row r="206" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A206" s="1" t="s">
         <v>207</v>
       </c>
@@ -6006,8 +9103,23 @@
       <c r="G206" s="3">
         <v>6.5378392661706357</v>
       </c>
-    </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H206" s="4">
+        <v>0.94454757886996121</v>
+      </c>
+      <c r="I206" s="3">
+        <v>1.325540683157189</v>
+      </c>
+      <c r="J206" s="4">
+        <v>0.11075448459539269</v>
+      </c>
+      <c r="K206" s="3">
+        <v>1.0034797393775314</v>
+      </c>
+      <c r="L206" s="5">
+        <v>0.75703428203156398</v>
+      </c>
+    </row>
+    <row r="207" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A207" s="1" t="s">
         <v>208</v>
       </c>
@@ -6029,8 +9141,23 @@
       <c r="G207" s="3">
         <v>7.869603204146415</v>
       </c>
-    </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H207" s="4">
+        <v>1.0139834602702342</v>
+      </c>
+      <c r="I207" s="3">
+        <v>1.5393566684984459</v>
+      </c>
+      <c r="J207" s="4">
+        <v>0.11285054061744958</v>
+      </c>
+      <c r="K207" s="3">
+        <v>1.2311580603550907</v>
+      </c>
+      <c r="L207" s="5">
+        <v>0.7997873953123642</v>
+      </c>
+    </row>
+    <row r="208" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A208" s="1" t="s">
         <v>209</v>
       </c>
@@ -6052,8 +9179,23 @@
       <c r="G208" s="3">
         <v>9.9706341106876266</v>
       </c>
-    </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H208" s="4">
+        <v>0.98884506606835687</v>
+      </c>
+      <c r="I208" s="3">
+        <v>1.9749295656323935</v>
+      </c>
+      <c r="J208" s="4">
+        <v>0.11321027467418097</v>
+      </c>
+      <c r="K208" s="3">
+        <v>1.4964239728869286</v>
+      </c>
+      <c r="L208" s="5">
+        <v>0.75771004643791307</v>
+      </c>
+    </row>
+    <row r="209" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A209" s="1" t="s">
         <v>210</v>
       </c>
@@ -6075,8 +9217,23 @@
       <c r="G209" s="3">
         <v>8.5451965180879483</v>
       </c>
-    </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H209" s="4">
+        <v>1.0224793916214463</v>
+      </c>
+      <c r="I209" s="3">
+        <v>1.6646059126942128</v>
+      </c>
+      <c r="J209" s="4">
+        <v>0.11480294104203535</v>
+      </c>
+      <c r="K209" s="3">
+        <v>1.2831742423674919</v>
+      </c>
+      <c r="L209" s="5">
+        <v>0.77085767422911367</v>
+      </c>
+    </row>
+    <row r="210" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A210" s="1" t="s">
         <v>211</v>
       </c>
@@ -6098,8 +9255,23 @@
       <c r="G210" s="3">
         <v>12.252583657091236</v>
       </c>
-    </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H210" s="4">
+        <v>1.028423792106623</v>
+      </c>
+      <c r="I210" s="3">
+        <v>2.3799249808158267</v>
+      </c>
+      <c r="J210" s="4">
+        <v>0.11866718104386775</v>
+      </c>
+      <c r="K210" s="3">
+        <v>1.2812781677718665</v>
+      </c>
+      <c r="L210" s="5">
+        <v>0.53836914108639278</v>
+      </c>
+    </row>
+    <row r="211" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A211" s="1" t="s">
         <v>212</v>
       </c>
@@ -6121,8 +9293,23 @@
       <c r="G211" s="3">
         <v>9.6294570332728426</v>
       </c>
-    </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H211" s="4">
+        <v>1.079272157567664</v>
+      </c>
+      <c r="I211" s="3">
+        <v>1.8270028885675549</v>
+      </c>
+      <c r="J211" s="4">
+        <v>0.1217559314765619</v>
+      </c>
+      <c r="K211" s="3">
+        <v>1.5636612995235224</v>
+      </c>
+      <c r="L211" s="5">
+        <v>0.85586142709905444</v>
+      </c>
+    </row>
+    <row r="212" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A212" s="1" t="s">
         <v>213</v>
       </c>
@@ -6144,8 +9331,23 @@
       <c r="G212" s="3">
         <v>9.2136899480236139</v>
       </c>
-    </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H212" s="4">
+        <v>1.1022096150071816</v>
+      </c>
+      <c r="I212" s="3">
+        <v>1.730627442967186</v>
+      </c>
+      <c r="J212" s="4">
+        <v>0.1226139392157706</v>
+      </c>
+      <c r="K212" s="3">
+        <v>1.4206190448908107</v>
+      </c>
+      <c r="L212" s="5">
+        <v>0.82086936195530258</v>
+      </c>
+    </row>
+    <row r="213" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A213" s="1" t="s">
         <v>214</v>
       </c>
@@ -6167,8 +9369,23 @@
       <c r="G213" s="3">
         <v>7.6139558817027932</v>
       </c>
-    </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H213" s="4">
+        <v>1.0974353116366462</v>
+      </c>
+      <c r="I213" s="3">
+        <v>1.4331179992355887</v>
+      </c>
+      <c r="J213" s="4">
+        <v>0.12336286823655147</v>
+      </c>
+      <c r="K213" s="3">
+        <v>1.1358844601472489</v>
+      </c>
+      <c r="L213" s="5">
+        <v>0.79259660457346748</v>
+      </c>
+    </row>
+    <row r="214" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A214" s="1" t="s">
         <v>215</v>
       </c>
@@ -6190,8 +9407,23 @@
       <c r="G214" s="3">
         <v>7.586344617040254</v>
       </c>
-    </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H214" s="4">
+        <v>1.1808797800908353</v>
+      </c>
+      <c r="I214" s="3">
+        <v>1.3798142156004758</v>
+      </c>
+      <c r="J214" s="4">
+        <v>0.12718708945914092</v>
+      </c>
+      <c r="K214" s="3">
+        <v>1.058710746265201</v>
+      </c>
+      <c r="L214" s="5">
+        <v>0.76728499699103669</v>
+      </c>
+    </row>
+    <row r="215" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A215" s="1" t="s">
         <v>216</v>
       </c>
@@ -6213,8 +9445,23 @@
       <c r="G215" s="3">
         <v>8.3194248195516707</v>
       </c>
-    </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H215" s="4">
+        <v>1.1616275031688499</v>
+      </c>
+      <c r="I215" s="3">
+        <v>1.5246411738900714</v>
+      </c>
+      <c r="J215" s="4">
+        <v>0.12842070949939577</v>
+      </c>
+      <c r="K215" s="3">
+        <v>1.3570945627210047</v>
+      </c>
+      <c r="L215" s="5">
+        <v>0.89010751248336228</v>
+      </c>
+    </row>
+    <row r="216" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A216" s="1" t="s">
         <v>217</v>
       </c>
@@ -6236,8 +9483,23 @@
       <c r="G216" s="3">
         <v>9.0537092380323543</v>
       </c>
-    </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H216" s="4">
+        <v>1.1683406680992603</v>
+      </c>
+      <c r="I216" s="3">
+        <v>1.6547909765953779</v>
+      </c>
+      <c r="J216" s="4">
+        <v>0.13014683606119296</v>
+      </c>
+      <c r="K216" s="3">
+        <v>1.3492633735458468</v>
+      </c>
+      <c r="L216" s="5">
+        <v>0.81536785771086706</v>
+      </c>
+    </row>
+    <row r="217" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A217" s="1" t="s">
         <v>218</v>
       </c>
@@ -6259,8 +9521,23 @@
       <c r="G217" s="3">
         <v>9.2115598593434243</v>
       </c>
-    </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H217" s="4">
+        <v>1.2408450875055079</v>
+      </c>
+      <c r="I217" s="3">
+        <v>1.6382705424533721</v>
+      </c>
+      <c r="J217" s="4">
+        <v>0.13167553841800173</v>
+      </c>
+      <c r="K217" s="3">
+        <v>1.5063199681000241</v>
+      </c>
+      <c r="L217" s="5">
+        <v>0.91945739672780358</v>
+      </c>
+    </row>
+    <row r="218" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A218" s="1" t="s">
         <v>219</v>
       </c>
@@ -6282,8 +9559,23 @@
       <c r="G218" s="3">
         <v>12.748566950060365</v>
       </c>
-    </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H218" s="4">
+        <v>1.3412559712964232</v>
+      </c>
+      <c r="I218" s="3">
+        <v>2.1915221684903909</v>
+      </c>
+      <c r="J218" s="4">
+        <v>0.13739364200735632</v>
+      </c>
+      <c r="K218" s="3">
+        <v>1.945715563644365</v>
+      </c>
+      <c r="L218" s="5">
+        <v>0.88783750017215335</v>
+      </c>
+    </row>
+    <row r="219" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A219" s="1" t="s">
         <v>220</v>
       </c>
@@ -6305,8 +9597,23 @@
       <c r="G219" s="3">
         <v>9.3515769298601867</v>
       </c>
-    </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H219" s="4">
+        <v>1.2934889566942687</v>
+      </c>
+      <c r="I219" s="3">
+        <v>1.63296391996013</v>
+      </c>
+      <c r="J219" s="4">
+        <v>0.14027066050415518</v>
+      </c>
+      <c r="K219" s="3">
+        <v>1.0475336355748233</v>
+      </c>
+      <c r="L219" s="5">
+        <v>0.64149221104676901</v>
+      </c>
+    </row>
+    <row r="220" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A220" s="1" t="s">
         <v>221</v>
       </c>
@@ -6328,8 +9635,23 @@
       <c r="G220" s="3">
         <v>10.049940711290503</v>
       </c>
-    </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H220" s="4">
+        <v>1.3058447685952521</v>
+      </c>
+      <c r="I220" s="3">
+        <v>1.7476639214822736</v>
+      </c>
+      <c r="J220" s="4">
+        <v>0.14123183078330359</v>
+      </c>
+      <c r="K220" s="3">
+        <v>1.5030151380829282</v>
+      </c>
+      <c r="L220" s="5">
+        <v>0.86001382737714949</v>
+      </c>
+    </row>
+    <row r="221" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A221" s="1" t="s">
         <v>222</v>
       </c>
@@ -6351,8 +9673,23 @@
       <c r="G221" s="3">
         <v>9.6963386069041348</v>
       </c>
-    </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H221" s="4">
+        <v>1.3257335826820731</v>
+      </c>
+      <c r="I221" s="3">
+        <v>1.6752065698118075</v>
+      </c>
+      <c r="J221" s="4">
+        <v>0.14256684018758572</v>
+      </c>
+      <c r="K221" s="3">
+        <v>1.3159789345298294</v>
+      </c>
+      <c r="L221" s="5">
+        <v>0.78556218572952863</v>
+      </c>
+    </row>
+    <row r="222" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A222" s="1" t="s">
         <v>223</v>
       </c>
@@ -6374,8 +9711,23 @@
       <c r="G222" s="3">
         <v>7.765544564880372</v>
       </c>
-    </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H222" s="4">
+        <v>1.3747497041834675</v>
+      </c>
+      <c r="I222" s="3">
+        <v>1.3210758264160343</v>
+      </c>
+      <c r="J222" s="4">
+        <v>0.14391143128837575</v>
+      </c>
+      <c r="K222" s="3">
+        <v>1.0442978553500013</v>
+      </c>
+      <c r="L222" s="5">
+        <v>0.79049047334632705</v>
+      </c>
+    </row>
+    <row r="223" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A223" s="1" t="s">
         <v>224</v>
       </c>
@@ -6397,8 +9749,23 @@
       <c r="G223" s="3">
         <v>9.8864948624491262</v>
       </c>
-    </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H223" s="4">
+        <v>1.3892499751038416</v>
+      </c>
+      <c r="I223" s="3">
+        <v>1.674479761431747</v>
+      </c>
+      <c r="J223" s="4">
+        <v>0.1447557447034786</v>
+      </c>
+      <c r="K223" s="3">
+        <v>1.4049607991765403</v>
+      </c>
+      <c r="L223" s="5">
+        <v>0.83904316524867584</v>
+      </c>
+    </row>
+    <row r="224" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A224" s="1" t="s">
         <v>225</v>
       </c>
@@ -6420,8 +9787,23 @@
       <c r="G224" s="3">
         <v>9.4511089231238543</v>
       </c>
-    </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H224" s="4">
+        <v>1.4659172210572762</v>
+      </c>
+      <c r="I224" s="3">
+        <v>1.5657029239060587</v>
+      </c>
+      <c r="J224" s="4">
+        <v>0.15351080273504153</v>
+      </c>
+      <c r="K224" s="3">
+        <v>1.2193292060856511</v>
+      </c>
+      <c r="L224" s="5">
+        <v>0.77877430479832865</v>
+      </c>
+    </row>
+    <row r="225" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A225" s="1" t="s">
         <v>226</v>
       </c>
@@ -6443,8 +9825,23 @@
       <c r="G225" s="3">
         <v>9.7955465404498909</v>
       </c>
-    </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H225" s="4">
+        <v>1.541602013835587</v>
+      </c>
+      <c r="I225" s="3">
+        <v>1.5904519977777654</v>
+      </c>
+      <c r="J225" s="4">
+        <v>0.15879931210961462</v>
+      </c>
+      <c r="K225" s="3">
+        <v>1.2361595887627832</v>
+      </c>
+      <c r="L225" s="5">
+        <v>0.7772379112918768</v>
+      </c>
+    </row>
+    <row r="226" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A226" s="1" t="s">
         <v>227</v>
       </c>
@@ -6466,8 +9863,23 @@
       <c r="G226" s="3">
         <v>9.6617847168160438</v>
       </c>
-    </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H226" s="4">
+        <v>1.4890960764344154</v>
+      </c>
+      <c r="I226" s="3">
+        <v>1.590498556655392</v>
+      </c>
+      <c r="J226" s="4">
+        <v>0.15194212703752269</v>
+      </c>
+      <c r="K226" s="3">
+        <v>1.3386860263686915</v>
+      </c>
+      <c r="L226" s="5">
+        <v>0.84167698283472248</v>
+      </c>
+    </row>
+    <row r="227" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A227" s="1" t="s">
         <v>228</v>
       </c>
@@ -6489,8 +9901,23 @@
       <c r="G227" s="3">
         <v>8.6858091319143114</v>
       </c>
-    </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H227" s="4">
+        <v>1.6002911468930852</v>
+      </c>
+      <c r="I227" s="3">
+        <v>1.3899294364074066</v>
+      </c>
+      <c r="J227" s="4">
+        <v>0.16149755692832904</v>
+      </c>
+      <c r="K227" s="3">
+        <v>1.1056908844852169</v>
+      </c>
+      <c r="L227" s="5">
+        <v>0.79550145174501097</v>
+      </c>
+    </row>
+    <row r="228" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A228" s="1" t="s">
         <v>229</v>
       </c>
@@ -6512,8 +9939,23 @@
       <c r="G228" s="3">
         <v>9.5025675302076138</v>
       </c>
-    </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H228" s="4">
+        <v>1.6531585491118237</v>
+      </c>
+      <c r="I228" s="3">
+        <v>1.5019209366243278</v>
+      </c>
+      <c r="J228" s="4">
+        <v>0.165867775081495</v>
+      </c>
+      <c r="K228" s="3">
+        <v>1.3417176688646359</v>
+      </c>
+      <c r="L228" s="5">
+        <v>0.89333442003960617</v>
+      </c>
+    </row>
+    <row r="229" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A229" s="1" t="s">
         <v>230</v>
       </c>
@@ -6535,8 +9977,23 @@
       <c r="G229" s="3">
         <v>9.8125470144926226</v>
       </c>
-    </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H229" s="4">
+        <v>1.6468771079602151</v>
+      </c>
+      <c r="I229" s="3">
+        <v>1.5531410755299626</v>
+      </c>
+      <c r="J229" s="4">
+        <v>0.16415076983075047</v>
+      </c>
+      <c r="K229" s="3">
+        <v>1.1560149523020622</v>
+      </c>
+      <c r="L229" s="5">
+        <v>0.74430775833264651</v>
+      </c>
+    </row>
+    <row r="230" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A230" s="1" t="s">
         <v>231</v>
       </c>
@@ -6558,8 +10015,23 @@
       <c r="G230" s="3">
         <v>8.5798007394288334</v>
       </c>
-    </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H230" s="4">
+        <v>1.6385752823372641</v>
+      </c>
+      <c r="I230" s="3">
+        <v>1.3606300098677917</v>
+      </c>
+      <c r="J230" s="4">
+        <v>0.16265336534092345</v>
+      </c>
+      <c r="K230" s="3">
+        <v>0.99922119405636189</v>
+      </c>
+      <c r="L230" s="5">
+        <v>0.73438126956603955</v>
+      </c>
+    </row>
+    <row r="231" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A231" s="1" t="s">
         <v>232</v>
       </c>
@@ -6581,8 +10053,23 @@
       <c r="G231" s="3">
         <v>9.0904557750837967</v>
       </c>
-    </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H231" s="4">
+        <v>1.7081286026782068</v>
+      </c>
+      <c r="I231" s="3">
+        <v>1.4193609865789474</v>
+      </c>
+      <c r="J231" s="4">
+        <v>0.16918850863157492</v>
+      </c>
+      <c r="K231" s="3">
+        <v>1.1950131240635926</v>
+      </c>
+      <c r="L231" s="5">
+        <v>0.84193741786851906</v>
+      </c>
+    </row>
+    <row r="232" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A232" s="1" t="s">
         <v>233</v>
       </c>
@@ -6604,8 +10091,23 @@
       <c r="G232" s="3">
         <v>11.032655507890752</v>
       </c>
-    </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H232" s="4">
+        <v>1.7693414704187398</v>
+      </c>
+      <c r="I232" s="3">
+        <v>1.7005832963078302</v>
+      </c>
+      <c r="J232" s="4">
+        <v>0.17418830683804742</v>
+      </c>
+      <c r="K232" s="3">
+        <v>1.4836727657340714</v>
+      </c>
+      <c r="L232" s="5">
+        <v>0.87244933485781151</v>
+      </c>
+    </row>
+    <row r="233" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A233" s="1" t="s">
         <v>234</v>
       </c>
@@ -6627,8 +10129,23 @@
       <c r="G233" s="3">
         <v>9.5479353930393813</v>
       </c>
-    </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H233" s="4">
+        <v>1.6728366857122916</v>
+      </c>
+      <c r="I233" s="3">
+        <v>1.5024002259447931</v>
+      </c>
+      <c r="J233" s="4">
+        <v>0.16287067195652574</v>
+      </c>
+      <c r="K233" s="3">
+        <v>1.3365234121591554</v>
+      </c>
+      <c r="L233" s="5">
+        <v>0.8895921267042376</v>
+      </c>
+    </row>
+    <row r="234" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A234" s="1" t="s">
         <v>235</v>
       </c>
@@ -6650,8 +10167,23 @@
       <c r="G234" s="3">
         <v>11.418001792713426</v>
       </c>
-    </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H234" s="4">
+        <v>1.8644164757906074</v>
+      </c>
+      <c r="I234" s="3">
+        <v>1.727567884904859</v>
+      </c>
+      <c r="J234" s="4">
+        <v>0.17838465592188221</v>
+      </c>
+      <c r="K234" s="3">
+        <v>1.4184009160864461</v>
+      </c>
+      <c r="L234" s="5">
+        <v>0.82103917795656434</v>
+      </c>
+    </row>
+    <row r="235" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A235" s="1" t="s">
         <v>236</v>
       </c>
@@ -6673,8 +10205,23 @@
       <c r="G235" s="3">
         <v>8.9599592822860927</v>
       </c>
-    </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H235" s="4">
+        <v>1.7111397164987776</v>
+      </c>
+      <c r="I235" s="3">
+        <v>1.3980776102868711</v>
+      </c>
+      <c r="J235" s="4">
+        <v>0.15769200003177195</v>
+      </c>
+      <c r="K235" s="3">
+        <v>1.0832081125731041</v>
+      </c>
+      <c r="L235" s="5">
+        <v>0.77478396378212588</v>
+      </c>
+    </row>
+    <row r="236" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A236" s="1" t="s">
         <v>237</v>
       </c>
@@ -6696,8 +10243,23 @@
       <c r="G236" s="3">
         <v>14.1454567819153</v>
       </c>
-    </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H236" s="4">
+        <v>2.4186157479704242</v>
+      </c>
+      <c r="I236" s="3">
+        <v>1.9689848916462567</v>
+      </c>
+      <c r="J236" s="4">
+        <v>0.21310175807237014</v>
+      </c>
+      <c r="K236" s="3">
+        <v>1.6558433189627271</v>
+      </c>
+      <c r="L236" s="5">
+        <v>0.84096293780003872</v>
+      </c>
+    </row>
+    <row r="237" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A237" s="1" t="s">
         <v>238</v>
       </c>
@@ -6719,8 +10281,23 @@
       <c r="G237" s="3">
         <v>12.540802225116977</v>
       </c>
-    </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H237" s="4">
+        <v>2.2583106023595581</v>
+      </c>
+      <c r="I237" s="3">
+        <v>1.7818951026370824</v>
+      </c>
+      <c r="J237" s="4">
+        <v>0.19733030414063746</v>
+      </c>
+      <c r="K237" s="3">
+        <v>1.4899510927942179</v>
+      </c>
+      <c r="L237" s="5">
+        <v>0.83616094493395965</v>
+      </c>
+    </row>
+    <row r="238" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A238" s="1" t="s">
         <v>239</v>
       </c>
@@ -6742,8 +10319,23 @@
       <c r="G238" s="3">
         <v>10.27090711200492</v>
       </c>
-    </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H238" s="4">
+        <v>2.8712276048379617</v>
+      </c>
+      <c r="I238" s="3">
+        <v>1.3637826595576421</v>
+      </c>
+      <c r="J238" s="4">
+        <v>0.23134510305110767</v>
+      </c>
+      <c r="K238" s="3">
+        <v>1.0519108910487636</v>
+      </c>
+      <c r="L238" s="5">
+        <v>0.77131857021115258</v>
+      </c>
+    </row>
+    <row r="239" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A239" s="1" t="s">
         <v>240</v>
       </c>
@@ -6765,8 +10357,23 @@
       <c r="G239" s="3">
         <v>13.387681286940165</v>
       </c>
-    </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H239" s="4">
+        <v>4.3911414601522898</v>
+      </c>
+      <c r="I239" s="3">
+        <v>1.618652374150336</v>
+      </c>
+      <c r="J239" s="4">
+        <v>0.29705751806110564</v>
+      </c>
+      <c r="K239" s="3">
+        <v>1.4092068066582435</v>
+      </c>
+      <c r="L239" s="5">
+        <v>0.870604973101754</v>
+      </c>
+    </row>
+    <row r="240" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A240" s="1" t="s">
         <v>241</v>
       </c>
@@ -6788,8 +10395,23 @@
       <c r="G240" s="3">
         <v>13.744021286604948</v>
       </c>
-    </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H240" s="4">
+        <v>3.8685234803975863</v>
+      </c>
+      <c r="I240" s="3">
+        <v>1.7033716613711187</v>
+      </c>
+      <c r="J240" s="4">
+        <v>0.26124030146940697</v>
+      </c>
+      <c r="K240" s="3">
+        <v>1.4794063295520707</v>
+      </c>
+      <c r="L240" s="5">
+        <v>0.86851646243852099</v>
+      </c>
+    </row>
+    <row r="241" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A241" s="1" t="s">
         <v>242</v>
       </c>
@@ -6811,8 +10433,23 @@
       <c r="G241" s="3">
         <v>18.639906858388713</v>
       </c>
-    </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H241" s="4">
+        <v>4.139037886983588</v>
+      </c>
+      <c r="I241" s="3">
+        <v>2.2790164671427244</v>
+      </c>
+      <c r="J241" s="4">
+        <v>0.27352765717592825</v>
+      </c>
+      <c r="K241" s="3">
+        <v>1.9224239817083355</v>
+      </c>
+      <c r="L241" s="5">
+        <v>0.84353229097924842</v>
+      </c>
+    </row>
+    <row r="242" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A242" s="1" t="s">
         <v>243</v>
       </c>
@@ -6834,8 +10471,23 @@
       <c r="G242" s="3">
         <v>10.446789322892982</v>
       </c>
-    </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H242" s="4">
+        <v>3.982983426098496</v>
+      </c>
+      <c r="I242" s="3">
+        <v>1.2871185389180493</v>
+      </c>
+      <c r="J242" s="4">
+        <v>0.26284664015451975</v>
+      </c>
+      <c r="K242" s="3">
+        <v>0.98658440921121282</v>
+      </c>
+      <c r="L242" s="5">
+        <v>0.76650625360468727</v>
+      </c>
+    </row>
+    <row r="243" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A243" s="1" t="s">
         <v>244</v>
       </c>
@@ -6857,8 +10509,23 @@
       <c r="G243" s="3">
         <v>13.438245931818415</v>
       </c>
-    </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H243" s="4">
+        <v>4.9673756868478609</v>
+      </c>
+      <c r="I243" s="3">
+        <v>1.5898043897941998</v>
+      </c>
+      <c r="J243" s="4">
+        <v>0.31545261514750389</v>
+      </c>
+      <c r="K243" s="3">
+        <v>1.2217288591037501</v>
+      </c>
+      <c r="L243" s="5">
+        <v>0.76847747241527198</v>
+      </c>
+    </row>
+    <row r="244" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A244" s="1" t="s">
         <v>245</v>
       </c>
@@ -6880,8 +10547,23 @@
       <c r="G244" s="3">
         <v>10.595573182037469</v>
       </c>
-    </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H244" s="4">
+        <v>5.0472146702875165</v>
+      </c>
+      <c r="I244" s="3">
+        <v>1.2502083373667503</v>
+      </c>
+      <c r="J244" s="4">
+        <v>0.31725668249509753</v>
+      </c>
+      <c r="K244" s="3">
+        <v>0.96044824637407489</v>
+      </c>
+      <c r="L244" s="5">
+        <v>0.76823055619435232</v>
+      </c>
+    </row>
+    <row r="245" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A245" s="1" t="s">
         <v>246</v>
       </c>
@@ -6903,8 +10585,23 @@
       <c r="G245" s="3">
         <v>12.307941608780538</v>
       </c>
-    </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H245" s="4">
+        <v>5.1605855464170283</v>
+      </c>
+      <c r="I245" s="3">
+        <v>1.4469624394609863</v>
+      </c>
+      <c r="J245" s="4">
+        <v>0.3239550797611126</v>
+      </c>
+      <c r="K245" s="3">
+        <v>1.143269481791948</v>
+      </c>
+      <c r="L245" s="5">
+        <v>0.79011690325412431</v>
+      </c>
+    </row>
+    <row r="246" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A246" s="1" t="s">
         <v>247</v>
       </c>
@@ -6926,8 +10623,23 @@
       <c r="G246" s="3">
         <v>12.140265637190282</v>
       </c>
-    </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H246" s="4">
+        <v>5.3289462985175406</v>
+      </c>
+      <c r="I246" s="3">
+        <v>1.4199323431812252</v>
+      </c>
+      <c r="J246" s="4">
+        <v>0.33446070209858869</v>
+      </c>
+      <c r="K246" s="3">
+        <v>1.1132552589667277</v>
+      </c>
+      <c r="L246" s="5">
+        <v>0.78401993187406649</v>
+      </c>
+    </row>
+    <row r="247" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A247" s="1" t="s">
         <v>248</v>
       </c>
@@ -6949,8 +10661,23 @@
       <c r="G247" s="3">
         <v>12.522255695107674</v>
       </c>
-    </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H247" s="4">
+        <v>5.1732238058144748</v>
+      </c>
+      <c r="I247" s="3">
+        <v>1.4715715903126534</v>
+      </c>
+      <c r="J247" s="4">
+        <v>0.32321588566935788</v>
+      </c>
+      <c r="K247" s="3">
+        <v>1.2321092308978046</v>
+      </c>
+      <c r="L247" s="5">
+        <v>0.83727440717717849</v>
+      </c>
+    </row>
+    <row r="248" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A248" s="1" t="s">
         <v>249</v>
       </c>
@@ -6972,8 +10699,23 @@
       <c r="G248" s="3">
         <v>14.401432322645519</v>
       </c>
-    </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H248" s="4">
+        <v>5.1618206723965452</v>
+      </c>
+      <c r="I248" s="3">
+        <v>1.6929837875385647</v>
+      </c>
+      <c r="J248" s="4">
+        <v>0.32220552531034669</v>
+      </c>
+      <c r="K248" s="3">
+        <v>1.5406031627005867</v>
+      </c>
+      <c r="L248" s="5">
+        <v>0.9099928623300495</v>
+      </c>
+    </row>
+    <row r="249" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A249" s="1" t="s">
         <v>250</v>
       </c>
@@ -6995,8 +10737,23 @@
       <c r="G249" s="3">
         <v>11.584397617435798</v>
       </c>
-    </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H249" s="4">
+        <v>5.397947826944602</v>
+      </c>
+      <c r="I249" s="3">
+        <v>1.3521868684916722</v>
+      </c>
+      <c r="J249" s="4">
+        <v>0.33685657021918053</v>
+      </c>
+      <c r="K249" s="3">
+        <v>1.172082612501089</v>
+      </c>
+      <c r="L249" s="5">
+        <v>0.86680520260377558</v>
+      </c>
+    </row>
+    <row r="250" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A250" s="1" t="s">
         <v>251</v>
       </c>
@@ -7018,8 +10775,23 @@
       <c r="G250" s="3">
         <v>12.899512397029298</v>
       </c>
-    </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H250" s="4">
+        <v>5.7480722084227356</v>
+      </c>
+      <c r="I250" s="3">
+        <v>1.4913429522536443</v>
+      </c>
+      <c r="J250" s="4">
+        <v>0.35114861381972357</v>
+      </c>
+      <c r="K250" s="3">
+        <v>1.3410451747602747</v>
+      </c>
+      <c r="L250" s="5">
+        <v>0.89921984258131438</v>
+      </c>
+    </row>
+    <row r="251" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A251" s="1" t="s">
         <v>252</v>
       </c>
@@ -7041,8 +10813,23 @@
       <c r="G251" s="3">
         <v>11.512517133637402</v>
       </c>
-    </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H251" s="4">
+        <v>5.9213358976286026</v>
+      </c>
+      <c r="I251" s="3">
+        <v>1.3252322559348098</v>
+      </c>
+      <c r="J251" s="4">
+        <v>0.35946781006845324</v>
+      </c>
+      <c r="K251" s="3">
+        <v>1.0387667108114378</v>
+      </c>
+      <c r="L251" s="5">
+        <v>0.78383747917356483</v>
+      </c>
+    </row>
+    <row r="252" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A252" s="1" t="s">
         <v>253</v>
       </c>
@@ -7064,8 +10851,23 @@
       <c r="G252" s="3">
         <v>12.062495048577716</v>
       </c>
-    </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H252" s="4">
+        <v>5.9158038721719066</v>
+      </c>
+      <c r="I252" s="3">
+        <v>1.3887232570263865</v>
+      </c>
+      <c r="J252" s="4">
+        <v>0.3532562444258498</v>
+      </c>
+      <c r="K252" s="3">
+        <v>1.0604528960285378</v>
+      </c>
+      <c r="L252" s="5">
+        <v>0.76361715025874921</v>
+      </c>
+    </row>
+    <row r="253" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A253" s="1" t="s">
         <v>254</v>
       </c>
@@ -7087,8 +10889,23 @@
       <c r="G253" s="3">
         <v>13.074880192597675</v>
       </c>
-    </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H253" s="4">
+        <v>5.332713744578788</v>
+      </c>
+      <c r="I253" s="3">
+        <v>1.5290630369245826</v>
+      </c>
+      <c r="J253" s="4">
+        <v>0.31663075289035131</v>
+      </c>
+      <c r="K253" s="3">
+        <v>1.2554197979952144</v>
+      </c>
+      <c r="L253" s="5">
+        <v>0.82103861494176911</v>
+      </c>
+    </row>
+    <row r="254" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A254" s="1" t="s">
         <v>255</v>
       </c>
@@ -7110,8 +10927,23 @@
       <c r="G254" s="3">
         <v>12.766063539138372</v>
       </c>
-    </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H254" s="4">
+        <v>6.1724701788435832</v>
+      </c>
+      <c r="I254" s="3">
+        <v>1.460878035257644</v>
+      </c>
+      <c r="J254" s="4">
+        <v>0.36428266280857891</v>
+      </c>
+      <c r="K254" s="3">
+        <v>1.2331437015690228</v>
+      </c>
+      <c r="L254" s="5">
+        <v>0.84411133017791085</v>
+      </c>
+    </row>
+    <row r="255" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A255" s="1" t="s">
         <v>256</v>
       </c>
@@ -7133,8 +10965,23 @@
       <c r="G255" s="3">
         <v>11.555633262115521</v>
       </c>
-    </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H255" s="4">
+        <v>5.7921819390391702</v>
+      </c>
+      <c r="I255" s="3">
+        <v>1.3344804202690108</v>
+      </c>
+      <c r="J255" s="4">
+        <v>0.33793992691410618</v>
+      </c>
+      <c r="K255" s="3">
+        <v>1.0994115036000061</v>
+      </c>
+      <c r="L255" s="5">
+        <v>0.82384985714393733</v>
+      </c>
+    </row>
+    <row r="256" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A256" s="1" t="s">
         <v>257</v>
       </c>
@@ -7156,8 +11003,23 @@
       <c r="G256" s="3">
         <v>12.496957522001821</v>
       </c>
-    </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H256" s="4">
+        <v>6.3633736529416751</v>
+      </c>
+      <c r="I256" s="3">
+        <v>1.4241045328206863</v>
+      </c>
+      <c r="J256" s="4">
+        <v>0.37021238501985415</v>
+      </c>
+      <c r="K256" s="3">
+        <v>1.1983595939672631</v>
+      </c>
+      <c r="L256" s="5">
+        <v>0.8414828872103256</v>
+      </c>
+    </row>
+    <row r="257" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A257" s="1" t="s">
         <v>258</v>
       </c>
@@ -7179,8 +11041,23 @@
       <c r="G257" s="3">
         <v>10.293327129336831</v>
       </c>
-    </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H257" s="4">
+        <v>6.2216695766838921</v>
+      </c>
+      <c r="I257" s="3">
+        <v>1.1766347184754027</v>
+      </c>
+      <c r="J257" s="4">
+        <v>0.36185105609798462</v>
+      </c>
+      <c r="K257" s="3">
+        <v>0.7988270497717127</v>
+      </c>
+      <c r="L257" s="5">
+        <v>0.67890827733417103</v>
+      </c>
+    </row>
+    <row r="258" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A258" s="1" t="s">
         <v>259</v>
       </c>
@@ -7202,8 +11079,23 @@
       <c r="G258" s="3">
         <v>14.346291308084233</v>
       </c>
-    </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H258" s="4">
+        <v>5.153741982162626</v>
+      </c>
+      <c r="I258" s="3">
+        <v>1.6869314986361661</v>
+      </c>
+      <c r="J258" s="4">
+        <v>0.29350825124649865</v>
+      </c>
+      <c r="K258" s="3">
+        <v>1.3528886459673013</v>
+      </c>
+      <c r="L258" s="5">
+        <v>0.80198196966567514</v>
+      </c>
+    </row>
+    <row r="259" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A259" s="1" t="s">
         <v>260</v>
       </c>
@@ -7225,8 +11117,23 @@
       <c r="G259" s="3">
         <v>16.433724043557277</v>
       </c>
-    </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H259" s="4">
+        <v>6.3289266686840353</v>
+      </c>
+      <c r="I259" s="3">
+        <v>1.8740383482401477</v>
+      </c>
+      <c r="J259" s="4">
+        <v>0.35802767279839504</v>
+      </c>
+      <c r="K259" s="3">
+        <v>1.6560029132389291</v>
+      </c>
+      <c r="L259" s="5">
+        <v>0.88365476341187532</v>
+      </c>
+    </row>
+    <row r="260" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A260" s="1" t="s">
         <v>261</v>
       </c>
@@ -7248,8 +11155,23 @@
       <c r="G260" s="3">
         <v>13.334474260221555</v>
       </c>
-    </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H260" s="4">
+        <v>5.5595629524862717</v>
+      </c>
+      <c r="I260" s="3">
+        <v>1.5493704667460055</v>
+      </c>
+      <c r="J260" s="4">
+        <v>0.31263798317232411</v>
+      </c>
+      <c r="K260" s="3">
+        <v>1.1359522496192873</v>
+      </c>
+      <c r="L260" s="5">
+        <v>0.73317019654119209</v>
+      </c>
+    </row>
+    <row r="261" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A261" s="1" t="s">
         <v>262</v>
       </c>
@@ -7271,8 +11193,23 @@
       <c r="G261" s="3">
         <v>14.752913321993447</v>
       </c>
-    </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H261" s="4">
+        <v>5.6064841873684639</v>
+      </c>
+      <c r="I261" s="3">
+        <v>1.7119738214992715</v>
+      </c>
+      <c r="J261" s="4">
+        <v>0.31405902790914586</v>
+      </c>
+      <c r="K261" s="3">
+        <v>1.5511818801573372</v>
+      </c>
+      <c r="L261" s="5">
+        <v>0.9060780373375571</v>
+      </c>
+    </row>
+    <row r="262" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A262" s="1" t="s">
         <v>263</v>
       </c>
@@ -7294,8 +11231,23 @@
       <c r="G262" s="3">
         <v>21.108815183744014</v>
       </c>
-    </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H262" s="4">
+        <v>5.3828107263625462</v>
+      </c>
+      <c r="I262" s="3">
+        <v>2.4647577744317681</v>
+      </c>
+      <c r="J262" s="4">
+        <v>0.30142759095006411</v>
+      </c>
+      <c r="K262" s="3">
+        <v>2.016991590182303</v>
+      </c>
+      <c r="L262" s="5">
+        <v>0.81833258063150061</v>
+      </c>
+    </row>
+    <row r="263" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A263" s="1" t="s">
         <v>264</v>
       </c>
@@ -7317,8 +11269,23 @@
       <c r="G263" s="3">
         <v>11.824700980419948</v>
       </c>
-    </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H263" s="4">
+        <v>6.8960703321180752</v>
+      </c>
+      <c r="I263" s="3">
+        <v>1.3333677605678294</v>
+      </c>
+      <c r="J263" s="4">
+        <v>0.3803132899372032</v>
+      </c>
+      <c r="K263" s="3">
+        <v>1.0928905272503671</v>
+      </c>
+      <c r="L263" s="5">
+        <v>0.8196467318100954</v>
+      </c>
+    </row>
+    <row r="264" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A264" s="1" t="s">
         <v>265</v>
       </c>
@@ -7340,8 +11307,23 @@
       <c r="G264" s="3">
         <v>11.98340315957455</v>
       </c>
-    </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H264" s="4">
+        <v>6.205340602357718</v>
+      </c>
+      <c r="I264" s="3">
+        <v>1.3703105075288173</v>
+      </c>
+      <c r="J264" s="4">
+        <v>0.33652025402682778</v>
+      </c>
+      <c r="K264" s="3">
+        <v>1.1311214217264585</v>
+      </c>
+      <c r="L264" s="5">
+        <v>0.82544898802994204</v>
+      </c>
+    </row>
+    <row r="265" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A265" s="1" t="s">
         <v>266</v>
       </c>
@@ -7363,8 +11345,23 @@
       <c r="G265" s="3">
         <v>15.074400104015922</v>
       </c>
-    </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H265" s="4">
+        <v>7.3359811621250381</v>
+      </c>
+      <c r="I265" s="3">
+        <v>1.6868510634480873</v>
+      </c>
+      <c r="J265" s="4">
+        <v>0.39095735845745794</v>
+      </c>
+      <c r="K265" s="3">
+        <v>1.4041814038834777</v>
+      </c>
+      <c r="L265" s="5">
+        <v>0.83242761279303146</v>
+      </c>
+    </row>
+    <row r="266" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A266" s="1" t="s">
         <v>267</v>
       </c>
@@ -7386,8 +11383,23 @@
       <c r="G266" s="3">
         <v>11.666067381563153</v>
       </c>
-    </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H266" s="4">
+        <v>7.2614030701774483</v>
+      </c>
+      <c r="I266" s="3">
+        <v>1.3070997390426833</v>
+      </c>
+      <c r="J266" s="4">
+        <v>0.3849070225038827</v>
+      </c>
+      <c r="K266" s="3">
+        <v>1.1157223585233831</v>
+      </c>
+      <c r="L266" s="5">
+        <v>0.85358624533161909</v>
+      </c>
+    </row>
+    <row r="267" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A267" s="1" t="s">
         <v>268</v>
       </c>
@@ -7409,8 +11421,23 @@
       <c r="G267" s="3">
         <v>14.770206441376104</v>
       </c>
-    </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H267" s="4">
+        <v>6.0763049839020953</v>
+      </c>
+      <c r="I267" s="3">
+        <v>1.6939204166911181</v>
+      </c>
+      <c r="J267" s="4">
+        <v>0.32164616593630402</v>
+      </c>
+      <c r="K267" s="3">
+        <v>1.4115453867528094</v>
+      </c>
+      <c r="L267" s="5">
+        <v>0.83330088760020016</v>
+      </c>
+    </row>
+    <row r="268" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A268" s="1" t="s">
         <v>269</v>
       </c>
@@ -7432,8 +11459,23 @@
       <c r="G268" s="3">
         <v>14.8361672586841</v>
       </c>
-    </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H268" s="4">
+        <v>6.5474166394953022</v>
+      </c>
+      <c r="I268" s="3">
+        <v>1.6841828960749274</v>
+      </c>
+      <c r="J268" s="4">
+        <v>0.3450552810489263</v>
+      </c>
+      <c r="K268" s="3">
+        <v>1.5195361124356441</v>
+      </c>
+      <c r="L268" s="5">
+        <v>0.90223936840648289</v>
+      </c>
+    </row>
+    <row r="269" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A269" s="1" t="s">
         <v>270</v>
       </c>
@@ -7455,8 +11497,23 @@
       <c r="G269" s="3">
         <v>13.276336237063788</v>
       </c>
-    </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H269" s="4">
+        <v>7.9235692474752293</v>
+      </c>
+      <c r="I269" s="3">
+        <v>1.4724526037524157</v>
+      </c>
+      <c r="J269" s="4">
+        <v>0.41031616998511034</v>
+      </c>
+      <c r="K269" s="3">
+        <v>1.1444249892731733</v>
+      </c>
+      <c r="L269" s="5">
+        <v>0.77722365144841143</v>
+      </c>
+    </row>
+    <row r="270" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A270" s="1" t="s">
         <v>271</v>
       </c>
@@ -7478,8 +11535,23 @@
       <c r="G270" s="3">
         <v>11.401738743780925</v>
       </c>
-    </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H270" s="4">
+        <v>7.046566461917311</v>
+      </c>
+      <c r="I270" s="3">
+        <v>1.282200589110881</v>
+      </c>
+      <c r="J270" s="4">
+        <v>0.362527267596777</v>
+      </c>
+      <c r="K270" s="3">
+        <v>1.1656313492857209</v>
+      </c>
+      <c r="L270" s="5">
+        <v>0.9090865806683236</v>
+      </c>
+    </row>
+    <row r="271" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A271" s="1" t="s">
         <v>272</v>
       </c>
@@ -7501,8 +11573,23 @@
       <c r="G271" s="3">
         <v>21.745378390852693</v>
       </c>
-    </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H271" s="4">
+        <v>12.301363662662185</v>
+      </c>
+      <c r="I271" s="3">
+        <v>2.3153336304647092</v>
+      </c>
+      <c r="J271" s="4">
+        <v>0.50853830683764245</v>
+      </c>
+      <c r="K271" s="3">
+        <v>1.9461922166216372</v>
+      </c>
+      <c r="L271" s="5">
+        <v>0.8405666427568016</v>
+      </c>
+    </row>
+    <row r="272" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A272" s="1" t="s">
         <v>273</v>
       </c>
@@ -7524,8 +11611,23 @@
       <c r="G272" s="3">
         <v>15.95653159939161</v>
       </c>
-    </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H272" s="4">
+        <v>12.358350053260571</v>
+      </c>
+      <c r="I272" s="3">
+        <v>1.6984984892072905</v>
+      </c>
+      <c r="J272" s="4">
+        <v>0.49099236313645472</v>
+      </c>
+      <c r="K272" s="3">
+        <v>1.3867214027994237</v>
+      </c>
+      <c r="L272" s="5">
+        <v>0.81643958567582997</v>
+      </c>
+    </row>
+    <row r="273" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A273" s="1" t="s">
         <v>274</v>
       </c>
@@ -7547,8 +11649,23 @@
       <c r="G273" s="3">
         <v>11.146127655920736</v>
       </c>
-    </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H273" s="4">
+        <v>12.895020584178377</v>
+      </c>
+      <c r="I273" s="3">
+        <v>1.182806800913593</v>
+      </c>
+      <c r="J273" s="4">
+        <v>0.50238296088476875</v>
+      </c>
+      <c r="K273" s="3">
+        <v>0.8790394417870816</v>
+      </c>
+      <c r="L273" s="5">
+        <v>0.74318091602797409</v>
+      </c>
+    </row>
+    <row r="274" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A274" s="1" t="s">
         <v>275</v>
       </c>
@@ -7570,8 +11687,23 @@
       <c r="G274" s="3">
         <v>12.615698677346245</v>
       </c>
-    </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H274" s="4">
+        <v>11.157376645381124</v>
+      </c>
+      <c r="I274" s="3">
+        <v>1.3537448822556675</v>
+      </c>
+      <c r="J274" s="4">
+        <v>0.43346814885868934</v>
+      </c>
+      <c r="K274" s="3">
+        <v>1.1672836029939062</v>
+      </c>
+      <c r="L274" s="5">
+        <v>0.86226261557416084</v>
+      </c>
+    </row>
+    <row r="275" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A275" s="1" t="s">
         <v>276</v>
       </c>
@@ -7593,8 +11725,23 @@
       <c r="G275" s="3">
         <v>15.115230471783889</v>
       </c>
-    </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H275" s="4">
+        <v>10.459557297643402</v>
+      </c>
+      <c r="I275" s="3">
+        <v>1.6308248543443131</v>
+      </c>
+      <c r="J275" s="4">
+        <v>0.40401372388533358</v>
+      </c>
+      <c r="K275" s="3">
+        <v>1.4862209671058804</v>
+      </c>
+      <c r="L275" s="5">
+        <v>0.91133082939395593</v>
+      </c>
+    </row>
+    <row r="276" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A276" s="1" t="s">
         <v>277</v>
       </c>
@@ -7616,8 +11763,23 @@
       <c r="G276" s="3">
         <v>13.257698950631266</v>
       </c>
-    </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H276" s="4">
+        <v>14.159101478100942</v>
+      </c>
+      <c r="I276" s="3">
+        <v>1.3978202555562573</v>
+      </c>
+      <c r="J276" s="4">
+        <v>0.52356002737563823</v>
+      </c>
+      <c r="K276" s="3">
+        <v>1.032430631569746</v>
+      </c>
+      <c r="L276" s="5">
+        <v>0.73860042266943271</v>
+      </c>
+    </row>
+    <row r="277" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A277" s="1" t="s">
         <v>278</v>
       </c>
@@ -7639,8 +11801,23 @@
       <c r="G277" s="3">
         <v>15.294360010703031</v>
       </c>
-    </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H277" s="4">
+        <v>15.12187941913518</v>
+      </c>
+      <c r="I277" s="3">
+        <v>1.6057519307267207</v>
+      </c>
+      <c r="J277" s="4">
+        <v>0.54285682812687186</v>
+      </c>
+      <c r="K277" s="3">
+        <v>1.4230208198517189</v>
+      </c>
+      <c r="L277" s="5">
+        <v>0.88620215403240843</v>
+      </c>
+    </row>
+    <row r="278" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A278" s="1" t="s">
         <v>279</v>
       </c>
@@ -7661,6 +11838,21 @@
       </c>
       <c r="G278" s="3">
         <v>18.914273448921904</v>
+      </c>
+      <c r="H278" s="4">
+        <v>26.033978328438785</v>
+      </c>
+      <c r="I278" s="3">
+        <v>1.9341000976163718</v>
+      </c>
+      <c r="J278" s="4">
+        <v>0.6685085992810138</v>
+      </c>
+      <c r="K278" s="3">
+        <v>1.7462487162795559</v>
+      </c>
+      <c r="L278" s="5">
+        <v>0.90287401279368729</v>
       </c>
     </row>
   </sheetData>
